--- a/r5-ELGA-e-medikation-main/all-profiles.xlsx
+++ b/r5-ELGA-e-medikation-main/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24283" uniqueCount="2261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24282" uniqueCount="2261">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T05:16:02+00:00</t>
+    <t>2024-04-29T05:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4039,7 +4039,7 @@
     <t>eMedMedications</t>
   </si>
   <si>
-    <t>9 ELGA e-Medication Medications (eMedMedications)</t>
+    <t>ELGA e-Medication Medications (eMedMedications)</t>
   </si>
   <si>
     <t xml:space="preserve">Medication Resource to ensure ELGA e-Medication compliant representation. Binding code to ELGA CodeSystem ('asp-liste') and doseForm to ELGA ValueSet ('elga-medikationdarreichungsform'). </t>
@@ -5454,7 +5454,7 @@
     <t>MedicationRequest.medication</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(http://fhir.hl7.at/elga-e-medikation-R5/StructureDefinition/eMed-medications)
+    <t xml:space="preserve">CodeableReference(Medication)
 </t>
   </si>
   <si>
@@ -5465,9 +5465,6 @@
   </si>
   <si>
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>A coded concept identifying substance or product that can be ordered.</t>
   </si>
   <si>
     <t>MedicationRequest.subject</t>
@@ -6602,6 +6599,10 @@
   </si>
   <si>
     <t>MedicationDispense.medication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableReference(http://fhir.hl7.at/elga-e-medikation-R5/StructureDefinition/eMed-medications)
+</t>
   </si>
   <si>
     <t>Medication that was dispensed, in conformance with ELGA CodeSystems (text-only, or text and number referencing one of the supported catalogs, as for example the PZN of the Austrian ASP).</t>
@@ -8579,7 +8580,7 @@
         <v>2</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="186">
@@ -8587,7 +8588,7 @@
         <v>4</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>2076</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="187">
@@ -8603,7 +8604,7 @@
         <v>8</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>2077</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="189">
@@ -8611,7 +8612,7 @@
         <v>10</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>2078</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="190">
@@ -8657,7 +8658,7 @@
         <v>21</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>2079</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="196">
@@ -8693,7 +8694,7 @@
         <v>29</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>2080</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="201">
@@ -8701,7 +8702,7 @@
         <v>31</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>2081</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="202">
@@ -55032,7 +55033,7 @@
       </c>
       <c r="F442" s="2"/>
       <c r="G442" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H442" t="s" s="2">
         <v>82</v>
@@ -69036,13 +69037,11 @@
         <v>73</v>
       </c>
       <c r="Y576" t="s" s="2">
-        <v>1026</v>
-      </c>
-      <c r="Z576" t="s" s="2">
-        <v>1759</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="Z576" s="2"/>
       <c r="AA576" t="s" s="2">
-        <v>1352</v>
+        <v>1320</v>
       </c>
       <c r="AB576" t="s" s="2">
         <v>73</v>
@@ -69080,10 +69079,10 @@
         <v>1693</v>
       </c>
       <c r="B577" t="s" s="2">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="C577" t="s" s="2">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="D577" s="2"/>
       <c r="E577" t="s" s="2">
@@ -69106,16 +69105,16 @@
         <v>100</v>
       </c>
       <c r="L577" t="s" s="2">
+        <v>1760</v>
+      </c>
+      <c r="M577" t="s" s="2">
         <v>1761</v>
       </c>
-      <c r="M577" t="s" s="2">
+      <c r="N577" t="s" s="2">
         <v>1762</v>
       </c>
-      <c r="N577" t="s" s="2">
+      <c r="O577" t="s" s="2">
         <v>1763</v>
-      </c>
-      <c r="O577" t="s" s="2">
-        <v>1764</v>
       </c>
       <c r="P577" s="2"/>
       <c r="Q577" t="s" s="2">
@@ -69165,7 +69164,7 @@
         <v>73</v>
       </c>
       <c r="AG577" t="s" s="2">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="AH577" t="s" s="2">
         <v>82</v>
@@ -69185,10 +69184,10 @@
         <v>1693</v>
       </c>
       <c r="B578" t="s" s="2">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="C578" t="s" s="2">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="D578" s="2"/>
       <c r="E578" t="s" s="2">
@@ -69211,13 +69210,13 @@
         <v>73</v>
       </c>
       <c r="L578" t="s" s="2">
+        <v>1765</v>
+      </c>
+      <c r="M578" t="s" s="2">
         <v>1766</v>
       </c>
-      <c r="M578" t="s" s="2">
+      <c r="N578" t="s" s="2">
         <v>1767</v>
-      </c>
-      <c r="N578" t="s" s="2">
-        <v>1768</v>
       </c>
       <c r="O578" s="2"/>
       <c r="P578" s="2"/>
@@ -69268,7 +69267,7 @@
         <v>73</v>
       </c>
       <c r="AG578" t="s" s="2">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="AH578" t="s" s="2">
         <v>74</v>
@@ -69288,10 +69287,10 @@
         <v>1693</v>
       </c>
       <c r="B579" t="s" s="2">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="C579" t="s" s="2">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="D579" s="2"/>
       <c r="E579" t="s" s="2">
@@ -69317,13 +69316,13 @@
         <v>1461</v>
       </c>
       <c r="M579" t="s" s="2">
+        <v>1769</v>
+      </c>
+      <c r="N579" t="s" s="2">
         <v>1770</v>
       </c>
-      <c r="N579" t="s" s="2">
+      <c r="O579" t="s" s="2">
         <v>1771</v>
-      </c>
-      <c r="O579" t="s" s="2">
-        <v>1772</v>
       </c>
       <c r="P579" s="2"/>
       <c r="Q579" t="s" s="2">
@@ -69373,7 +69372,7 @@
         <v>73</v>
       </c>
       <c r="AG579" t="s" s="2">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="AH579" t="s" s="2">
         <v>74</v>
@@ -69393,10 +69392,10 @@
         <v>1693</v>
       </c>
       <c r="B580" t="s" s="2">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="C580" t="s" s="2">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="D580" s="2"/>
       <c r="E580" t="s" s="2">
@@ -69422,13 +69421,13 @@
         <v>1415</v>
       </c>
       <c r="M580" t="s" s="2">
+        <v>1773</v>
+      </c>
+      <c r="N580" t="s" s="2">
         <v>1774</v>
       </c>
-      <c r="N580" t="s" s="2">
+      <c r="O580" t="s" s="2">
         <v>1775</v>
-      </c>
-      <c r="O580" t="s" s="2">
-        <v>1776</v>
       </c>
       <c r="P580" s="2"/>
       <c r="Q580" t="s" s="2">
@@ -69478,7 +69477,7 @@
         <v>73</v>
       </c>
       <c r="AG580" t="s" s="2">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="AH580" t="s" s="2">
         <v>74</v>
@@ -69498,10 +69497,10 @@
         <v>1693</v>
       </c>
       <c r="B581" t="s" s="2">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="C581" t="s" s="2">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="D581" s="2"/>
       <c r="E581" t="s" s="2">
@@ -69527,10 +69526,10 @@
         <v>703</v>
       </c>
       <c r="M581" t="s" s="2">
+        <v>1777</v>
+      </c>
+      <c r="N581" t="s" s="2">
         <v>1778</v>
-      </c>
-      <c r="N581" t="s" s="2">
-        <v>1779</v>
       </c>
       <c r="O581" s="2"/>
       <c r="P581" s="2"/>
@@ -69581,7 +69580,7 @@
         <v>73</v>
       </c>
       <c r="AG581" t="s" s="2">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="AH581" t="s" s="2">
         <v>74</v>
@@ -69601,10 +69600,10 @@
         <v>1693</v>
       </c>
       <c r="B582" t="s" s="2">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="C582" t="s" s="2">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="D582" s="2"/>
       <c r="E582" t="s" s="2">
@@ -69627,13 +69626,13 @@
         <v>100</v>
       </c>
       <c r="L582" t="s" s="2">
+        <v>1780</v>
+      </c>
+      <c r="M582" t="s" s="2">
         <v>1781</v>
       </c>
-      <c r="M582" t="s" s="2">
+      <c r="N582" t="s" s="2">
         <v>1782</v>
-      </c>
-      <c r="N582" t="s" s="2">
-        <v>1783</v>
       </c>
       <c r="O582" s="2"/>
       <c r="P582" s="2"/>
@@ -69684,7 +69683,7 @@
         <v>73</v>
       </c>
       <c r="AG582" t="s" s="2">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="AH582" t="s" s="2">
         <v>74</v>
@@ -69704,10 +69703,10 @@
         <v>1693</v>
       </c>
       <c r="B583" t="s" s="2">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="C583" t="s" s="2">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="D583" s="2"/>
       <c r="E583" t="s" s="2">
@@ -69733,13 +69732,13 @@
         <v>272</v>
       </c>
       <c r="M583" t="s" s="2">
+        <v>1784</v>
+      </c>
+      <c r="N583" t="s" s="2">
         <v>1785</v>
       </c>
-      <c r="N583" t="s" s="2">
+      <c r="O583" t="s" s="2">
         <v>1786</v>
-      </c>
-      <c r="O583" t="s" s="2">
-        <v>1787</v>
       </c>
       <c r="P583" s="2"/>
       <c r="Q583" t="s" s="2">
@@ -69789,7 +69788,7 @@
         <v>73</v>
       </c>
       <c r="AG583" t="s" s="2">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="AH583" t="s" s="2">
         <v>74</v>
@@ -69809,10 +69808,10 @@
         <v>1693</v>
       </c>
       <c r="B584" t="s" s="2">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="C584" t="s" s="2">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="D584" s="2"/>
       <c r="E584" t="s" s="2">
@@ -69838,13 +69837,13 @@
         <v>224</v>
       </c>
       <c r="M584" t="s" s="2">
+        <v>1788</v>
+      </c>
+      <c r="N584" t="s" s="2">
         <v>1789</v>
       </c>
-      <c r="N584" t="s" s="2">
+      <c r="O584" t="s" s="2">
         <v>1790</v>
-      </c>
-      <c r="O584" t="s" s="2">
-        <v>1791</v>
       </c>
       <c r="P584" s="2"/>
       <c r="Q584" t="s" s="2">
@@ -69873,11 +69872,11 @@
         <v>225</v>
       </c>
       <c r="Z584" t="s" s="2">
+        <v>1791</v>
+      </c>
+      <c r="AA584" t="s" s="2">
         <v>1792</v>
       </c>
-      <c r="AA584" t="s" s="2">
-        <v>1793</v>
-      </c>
       <c r="AB584" t="s" s="2">
         <v>73</v>
       </c>
@@ -69894,7 +69893,7 @@
         <v>73</v>
       </c>
       <c r="AG584" t="s" s="2">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="AH584" t="s" s="2">
         <v>74</v>
@@ -69914,10 +69913,10 @@
         <v>1693</v>
       </c>
       <c r="B585" t="s" s="2">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="C585" t="s" s="2">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="D585" s="2"/>
       <c r="E585" t="s" s="2">
@@ -69940,13 +69939,13 @@
         <v>73</v>
       </c>
       <c r="L585" t="s" s="2">
+        <v>1794</v>
+      </c>
+      <c r="M585" t="s" s="2">
         <v>1795</v>
       </c>
-      <c r="M585" t="s" s="2">
+      <c r="N585" t="s" s="2">
         <v>1796</v>
-      </c>
-      <c r="N585" t="s" s="2">
-        <v>1797</v>
       </c>
       <c r="O585" s="2"/>
       <c r="P585" s="2"/>
@@ -69997,7 +69996,7 @@
         <v>73</v>
       </c>
       <c r="AG585" t="s" s="2">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="AH585" t="s" s="2">
         <v>74</v>
@@ -70017,10 +70016,10 @@
         <v>1693</v>
       </c>
       <c r="B586" t="s" s="2">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="C586" t="s" s="2">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="D586" s="2"/>
       <c r="E586" t="s" s="2">
@@ -70043,13 +70042,13 @@
         <v>73</v>
       </c>
       <c r="L586" t="s" s="2">
+        <v>1798</v>
+      </c>
+      <c r="M586" t="s" s="2">
         <v>1799</v>
       </c>
-      <c r="M586" t="s" s="2">
+      <c r="N586" t="s" s="2">
         <v>1800</v>
-      </c>
-      <c r="N586" t="s" s="2">
-        <v>1801</v>
       </c>
       <c r="O586" s="2"/>
       <c r="P586" s="2"/>
@@ -70100,7 +70099,7 @@
         <v>73</v>
       </c>
       <c r="AG586" t="s" s="2">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="AH586" t="s" s="2">
         <v>74</v>
@@ -70120,10 +70119,10 @@
         <v>1693</v>
       </c>
       <c r="B587" t="s" s="2">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="C587" t="s" s="2">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="D587" s="2"/>
       <c r="E587" t="s" s="2">
@@ -70146,13 +70145,13 @@
         <v>73</v>
       </c>
       <c r="L587" t="s" s="2">
+        <v>1802</v>
+      </c>
+      <c r="M587" t="s" s="2">
         <v>1803</v>
       </c>
-      <c r="M587" t="s" s="2">
+      <c r="N587" t="s" s="2">
         <v>1804</v>
-      </c>
-      <c r="N587" t="s" s="2">
-        <v>1805</v>
       </c>
       <c r="O587" s="2"/>
       <c r="P587" s="2"/>
@@ -70203,7 +70202,7 @@
         <v>73</v>
       </c>
       <c r="AG587" t="s" s="2">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="AH587" t="s" s="2">
         <v>74</v>
@@ -70223,10 +70222,10 @@
         <v>1693</v>
       </c>
       <c r="B588" t="s" s="2">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="C588" t="s" s="2">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="D588" s="2"/>
       <c r="E588" t="s" s="2">
@@ -70249,16 +70248,16 @@
         <v>73</v>
       </c>
       <c r="L588" t="s" s="2">
+        <v>1806</v>
+      </c>
+      <c r="M588" t="s" s="2">
         <v>1807</v>
       </c>
-      <c r="M588" t="s" s="2">
+      <c r="N588" t="s" s="2">
         <v>1808</v>
       </c>
-      <c r="N588" t="s" s="2">
+      <c r="O588" t="s" s="2">
         <v>1809</v>
-      </c>
-      <c r="O588" t="s" s="2">
-        <v>1810</v>
       </c>
       <c r="P588" s="2"/>
       <c r="Q588" t="s" s="2">
@@ -70287,11 +70286,11 @@
         <v>1026</v>
       </c>
       <c r="Z588" t="s" s="2">
+        <v>1810</v>
+      </c>
+      <c r="AA588" t="s" s="2">
         <v>1811</v>
       </c>
-      <c r="AA588" t="s" s="2">
-        <v>1812</v>
-      </c>
       <c r="AB588" t="s" s="2">
         <v>73</v>
       </c>
@@ -70308,7 +70307,7 @@
         <v>73</v>
       </c>
       <c r="AG588" t="s" s="2">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="AH588" t="s" s="2">
         <v>74</v>
@@ -70328,10 +70327,10 @@
         <v>1693</v>
       </c>
       <c r="B589" t="s" s="2">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="C589" t="s" s="2">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="D589" s="2"/>
       <c r="E589" t="s" s="2">
@@ -70357,13 +70356,13 @@
         <v>224</v>
       </c>
       <c r="M589" t="s" s="2">
+        <v>1813</v>
+      </c>
+      <c r="N589" t="s" s="2">
         <v>1814</v>
       </c>
-      <c r="N589" t="s" s="2">
+      <c r="O589" t="s" s="2">
         <v>1815</v>
-      </c>
-      <c r="O589" t="s" s="2">
-        <v>1816</v>
       </c>
       <c r="P589" s="2"/>
       <c r="Q589" t="s" s="2">
@@ -70392,11 +70391,11 @@
         <v>225</v>
       </c>
       <c r="Z589" t="s" s="2">
+        <v>1816</v>
+      </c>
+      <c r="AA589" t="s" s="2">
         <v>1817</v>
       </c>
-      <c r="AA589" t="s" s="2">
-        <v>1818</v>
-      </c>
       <c r="AB589" t="s" s="2">
         <v>73</v>
       </c>
@@ -70413,7 +70412,7 @@
         <v>73</v>
       </c>
       <c r="AG589" t="s" s="2">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="AH589" t="s" s="2">
         <v>74</v>
@@ -70433,10 +70432,10 @@
         <v>1693</v>
       </c>
       <c r="B590" t="s" s="2">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="C590" t="s" s="2">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="D590" s="2"/>
       <c r="E590" t="s" s="2">
@@ -70459,13 +70458,13 @@
         <v>73</v>
       </c>
       <c r="L590" t="s" s="2">
+        <v>1819</v>
+      </c>
+      <c r="M590" t="s" s="2">
         <v>1820</v>
       </c>
-      <c r="M590" t="s" s="2">
+      <c r="N590" t="s" s="2">
         <v>1821</v>
-      </c>
-      <c r="N590" t="s" s="2">
-        <v>1822</v>
       </c>
       <c r="O590" s="2"/>
       <c r="P590" s="2"/>
@@ -70516,7 +70515,7 @@
         <v>73</v>
       </c>
       <c r="AG590" t="s" s="2">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="AH590" t="s" s="2">
         <v>74</v>
@@ -70536,10 +70535,10 @@
         <v>1693</v>
       </c>
       <c r="B591" t="s" s="2">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="C591" t="s" s="2">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="D591" s="2"/>
       <c r="E591" t="s" s="2">
@@ -70565,10 +70564,10 @@
         <v>1481</v>
       </c>
       <c r="M591" t="s" s="2">
+        <v>1823</v>
+      </c>
+      <c r="N591" t="s" s="2">
         <v>1824</v>
-      </c>
-      <c r="N591" t="s" s="2">
-        <v>1825</v>
       </c>
       <c r="O591" s="2"/>
       <c r="P591" s="2"/>
@@ -70619,7 +70618,7 @@
         <v>73</v>
       </c>
       <c r="AG591" t="s" s="2">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="AH591" t="s" s="2">
         <v>74</v>
@@ -70639,10 +70638,10 @@
         <v>1693</v>
       </c>
       <c r="B592" t="s" s="2">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="C592" t="s" s="2">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="D592" s="2"/>
       <c r="E592" t="s" s="2">
@@ -70668,14 +70667,14 @@
         <v>972</v>
       </c>
       <c r="M592" t="s" s="2">
+        <v>1826</v>
+      </c>
+      <c r="N592" t="s" s="2">
         <v>1827</v>
-      </c>
-      <c r="N592" t="s" s="2">
-        <v>1828</v>
       </c>
       <c r="O592" s="2"/>
       <c r="P592" t="s" s="2">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="Q592" t="s" s="2">
         <v>73</v>
@@ -70724,7 +70723,7 @@
         <v>73</v>
       </c>
       <c r="AG592" t="s" s="2">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="AH592" t="s" s="2">
         <v>74</v>
@@ -70744,10 +70743,10 @@
         <v>1693</v>
       </c>
       <c r="B593" t="s" s="2">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="C593" t="s" s="2">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="D593" s="2"/>
       <c r="E593" t="s" s="2">
@@ -70773,10 +70772,10 @@
         <v>184</v>
       </c>
       <c r="M593" t="s" s="2">
+        <v>1830</v>
+      </c>
+      <c r="N593" t="s" s="2">
         <v>1831</v>
-      </c>
-      <c r="N593" t="s" s="2">
-        <v>1832</v>
       </c>
       <c r="O593" s="2"/>
       <c r="P593" s="2"/>
@@ -70827,7 +70826,7 @@
         <v>73</v>
       </c>
       <c r="AG593" t="s" s="2">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="AH593" t="s" s="2">
         <v>74</v>
@@ -70847,10 +70846,10 @@
         <v>1693</v>
       </c>
       <c r="B594" t="s" s="2">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="C594" t="s" s="2">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="D594" s="2"/>
       <c r="E594" t="s" s="2">
@@ -70873,16 +70872,16 @@
         <v>73</v>
       </c>
       <c r="L594" t="s" s="2">
+        <v>1833</v>
+      </c>
+      <c r="M594" t="s" s="2">
         <v>1834</v>
       </c>
-      <c r="M594" t="s" s="2">
+      <c r="N594" t="s" s="2">
         <v>1835</v>
       </c>
-      <c r="N594" t="s" s="2">
+      <c r="O594" t="s" s="2">
         <v>1836</v>
-      </c>
-      <c r="O594" t="s" s="2">
-        <v>1837</v>
       </c>
       <c r="P594" s="2"/>
       <c r="Q594" t="s" s="2">
@@ -70932,7 +70931,7 @@
         <v>73</v>
       </c>
       <c r="AG594" t="s" s="2">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="AH594" t="s" s="2">
         <v>74</v>
@@ -70952,10 +70951,10 @@
         <v>1693</v>
       </c>
       <c r="B595" t="s" s="2">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="C595" t="s" s="2">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="D595" s="2"/>
       <c r="E595" t="s" s="2">
@@ -71055,10 +71054,10 @@
         <v>1693</v>
       </c>
       <c r="B596" t="s" s="2">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="C596" t="s" s="2">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="D596" s="2"/>
       <c r="E596" t="s" s="2">
@@ -71160,10 +71159,10 @@
         <v>1693</v>
       </c>
       <c r="B597" t="s" s="2">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="C597" t="s" s="2">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="D597" s="2"/>
       <c r="E597" t="s" s="2">
@@ -71247,7 +71246,7 @@
         <v>73</v>
       </c>
       <c r="AG597" t="s" s="2">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="AH597" t="s" s="2">
         <v>74</v>
@@ -71267,10 +71266,10 @@
         <v>1693</v>
       </c>
       <c r="B598" t="s" s="2">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="C598" t="s" s="2">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="D598" s="2"/>
       <c r="E598" t="s" s="2">
@@ -71296,14 +71295,14 @@
         <v>754</v>
       </c>
       <c r="M598" t="s" s="2">
+        <v>1842</v>
+      </c>
+      <c r="N598" t="s" s="2">
         <v>1843</v>
-      </c>
-      <c r="N598" t="s" s="2">
-        <v>1844</v>
       </c>
       <c r="O598" s="2"/>
       <c r="P598" t="s" s="2">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="Q598" t="s" s="2">
         <v>73</v>
@@ -71352,7 +71351,7 @@
         <v>73</v>
       </c>
       <c r="AG598" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="AH598" t="s" s="2">
         <v>74</v>
@@ -71372,10 +71371,10 @@
         <v>1693</v>
       </c>
       <c r="B599" t="s" s="2">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="C599" t="s" s="2">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="D599" s="2"/>
       <c r="E599" t="s" s="2">
@@ -71401,14 +71400,14 @@
         <v>119</v>
       </c>
       <c r="M599" t="s" s="2">
+        <v>1847</v>
+      </c>
+      <c r="N599" t="s" s="2">
         <v>1848</v>
-      </c>
-      <c r="N599" t="s" s="2">
-        <v>1849</v>
       </c>
       <c r="O599" s="2"/>
       <c r="P599" t="s" s="2">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="Q599" t="s" s="2">
         <v>73</v>
@@ -71457,7 +71456,7 @@
         <v>73</v>
       </c>
       <c r="AG599" t="s" s="2">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="AH599" t="s" s="2">
         <v>74</v>
@@ -71477,10 +71476,10 @@
         <v>1693</v>
       </c>
       <c r="B600" t="s" s="2">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="C600" t="s" s="2">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="D600" s="2"/>
       <c r="E600" t="s" s="2">
@@ -71506,16 +71505,16 @@
         <v>224</v>
       </c>
       <c r="M600" t="s" s="2">
+        <v>1852</v>
+      </c>
+      <c r="N600" t="s" s="2">
         <v>1853</v>
       </c>
-      <c r="N600" t="s" s="2">
+      <c r="O600" t="s" s="2">
         <v>1854</v>
       </c>
-      <c r="O600" t="s" s="2">
+      <c r="P600" t="s" s="2">
         <v>1855</v>
-      </c>
-      <c r="P600" t="s" s="2">
-        <v>1856</v>
       </c>
       <c r="Q600" t="s" s="2">
         <v>73</v>
@@ -71543,28 +71542,28 @@
         <v>1026</v>
       </c>
       <c r="Z600" t="s" s="2">
+        <v>1856</v>
+      </c>
+      <c r="AA600" t="s" s="2">
         <v>1857</v>
       </c>
-      <c r="AA600" t="s" s="2">
+      <c r="AB600" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC600" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD600" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE600" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF600" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG600" t="s" s="2">
         <v>1858</v>
-      </c>
-      <c r="AB600" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC600" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD600" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE600" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF600" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG600" t="s" s="2">
-        <v>1859</v>
       </c>
       <c r="AH600" t="s" s="2">
         <v>74</v>
@@ -71584,10 +71583,10 @@
         <v>1693</v>
       </c>
       <c r="B601" t="s" s="2">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C601" t="s" s="2">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="D601" s="2"/>
       <c r="E601" t="s" s="2">
@@ -71613,10 +71612,10 @@
         <v>119</v>
       </c>
       <c r="M601" t="s" s="2">
+        <v>1860</v>
+      </c>
+      <c r="N601" t="s" s="2">
         <v>1861</v>
-      </c>
-      <c r="N601" t="s" s="2">
-        <v>1862</v>
       </c>
       <c r="O601" s="2"/>
       <c r="P601" s="2"/>
@@ -71667,7 +71666,7 @@
         <v>73</v>
       </c>
       <c r="AG601" t="s" s="2">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="AH601" t="s" s="2">
         <v>74</v>
@@ -71687,10 +71686,10 @@
         <v>1693</v>
       </c>
       <c r="B602" t="s" s="2">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="C602" t="s" s="2">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="D602" s="2"/>
       <c r="E602" t="s" s="2">
@@ -71713,19 +71712,19 @@
         <v>100</v>
       </c>
       <c r="L602" t="s" s="2">
+        <v>1864</v>
+      </c>
+      <c r="M602" t="s" s="2">
         <v>1865</v>
       </c>
-      <c r="M602" t="s" s="2">
+      <c r="N602" t="s" s="2">
         <v>1866</v>
       </c>
-      <c r="N602" t="s" s="2">
+      <c r="O602" t="s" s="2">
         <v>1867</v>
       </c>
-      <c r="O602" t="s" s="2">
+      <c r="P602" t="s" s="2">
         <v>1868</v>
-      </c>
-      <c r="P602" t="s" s="2">
-        <v>1869</v>
       </c>
       <c r="Q602" t="s" s="2">
         <v>73</v>
@@ -71774,7 +71773,7 @@
         <v>73</v>
       </c>
       <c r="AG602" t="s" s="2">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="AH602" t="s" s="2">
         <v>74</v>
@@ -71794,10 +71793,10 @@
         <v>1693</v>
       </c>
       <c r="B603" t="s" s="2">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="C603" t="s" s="2">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="D603" s="2"/>
       <c r="E603" t="s" s="2">
@@ -71823,13 +71822,13 @@
         <v>272</v>
       </c>
       <c r="M603" t="s" s="2">
+        <v>1871</v>
+      </c>
+      <c r="N603" t="s" s="2">
         <v>1872</v>
       </c>
-      <c r="N603" t="s" s="2">
+      <c r="O603" t="s" s="2">
         <v>1873</v>
-      </c>
-      <c r="O603" t="s" s="2">
-        <v>1874</v>
       </c>
       <c r="P603" s="2"/>
       <c r="Q603" t="s" s="2">
@@ -71879,16 +71878,16 @@
         <v>73</v>
       </c>
       <c r="AG603" t="s" s="2">
+        <v>1874</v>
+      </c>
+      <c r="AH603" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI603" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ603" t="s" s="2">
         <v>1875</v>
-      </c>
-      <c r="AH603" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI603" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ603" t="s" s="2">
-        <v>1876</v>
       </c>
       <c r="AK603" t="s" s="2">
         <v>110</v>
@@ -71899,10 +71898,10 @@
         <v>1693</v>
       </c>
       <c r="B604" t="s" s="2">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="C604" t="s" s="2">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="D604" s="2"/>
       <c r="E604" t="s" s="2">
@@ -71928,13 +71927,13 @@
         <v>224</v>
       </c>
       <c r="M604" t="s" s="2">
+        <v>1877</v>
+      </c>
+      <c r="N604" t="s" s="2">
         <v>1878</v>
       </c>
-      <c r="N604" t="s" s="2">
+      <c r="O604" t="s" s="2">
         <v>1879</v>
-      </c>
-      <c r="O604" t="s" s="2">
-        <v>1880</v>
       </c>
       <c r="P604" s="2"/>
       <c r="Q604" t="s" s="2">
@@ -71963,28 +71962,28 @@
         <v>1026</v>
       </c>
       <c r="Z604" t="s" s="2">
+        <v>1880</v>
+      </c>
+      <c r="AA604" t="s" s="2">
         <v>1881</v>
       </c>
-      <c r="AA604" t="s" s="2">
+      <c r="AB604" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC604" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD604" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE604" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF604" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG604" t="s" s="2">
         <v>1882</v>
-      </c>
-      <c r="AB604" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC604" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD604" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE604" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF604" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG604" t="s" s="2">
-        <v>1883</v>
       </c>
       <c r="AH604" t="s" s="2">
         <v>74</v>
@@ -71993,7 +71992,7 @@
         <v>75</v>
       </c>
       <c r="AJ604" t="s" s="2">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="AK604" t="s" s="2">
         <v>110</v>
@@ -72004,10 +72003,10 @@
         <v>1693</v>
       </c>
       <c r="B605" t="s" s="2">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="C605" t="s" s="2">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="D605" s="2"/>
       <c r="E605" t="s" s="2">
@@ -72033,16 +72032,16 @@
         <v>224</v>
       </c>
       <c r="M605" t="s" s="2">
+        <v>1884</v>
+      </c>
+      <c r="N605" t="s" s="2">
         <v>1885</v>
       </c>
-      <c r="N605" t="s" s="2">
+      <c r="O605" t="s" s="2">
         <v>1886</v>
       </c>
-      <c r="O605" t="s" s="2">
+      <c r="P605" t="s" s="2">
         <v>1887</v>
-      </c>
-      <c r="P605" t="s" s="2">
-        <v>1888</v>
       </c>
       <c r="Q605" t="s" s="2">
         <v>73</v>
@@ -72070,28 +72069,28 @@
         <v>1026</v>
       </c>
       <c r="Z605" t="s" s="2">
+        <v>1888</v>
+      </c>
+      <c r="AA605" t="s" s="2">
         <v>1889</v>
       </c>
-      <c r="AA605" t="s" s="2">
+      <c r="AB605" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC605" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD605" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE605" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF605" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG605" t="s" s="2">
         <v>1890</v>
-      </c>
-      <c r="AB605" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC605" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD605" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE605" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF605" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG605" t="s" s="2">
-        <v>1891</v>
       </c>
       <c r="AH605" t="s" s="2">
         <v>74</v>
@@ -72111,10 +72110,10 @@
         <v>1693</v>
       </c>
       <c r="B606" t="s" s="2">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="C606" t="s" s="2">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="D606" s="2"/>
       <c r="E606" t="s" s="2">
@@ -72140,14 +72139,14 @@
         <v>224</v>
       </c>
       <c r="M606" t="s" s="2">
+        <v>1892</v>
+      </c>
+      <c r="N606" t="s" s="2">
         <v>1893</v>
-      </c>
-      <c r="N606" t="s" s="2">
-        <v>1894</v>
       </c>
       <c r="O606" s="2"/>
       <c r="P606" t="s" s="2">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="Q606" t="s" s="2">
         <v>73</v>
@@ -72175,28 +72174,28 @@
         <v>1026</v>
       </c>
       <c r="Z606" t="s" s="2">
+        <v>1895</v>
+      </c>
+      <c r="AA606" t="s" s="2">
         <v>1896</v>
       </c>
-      <c r="AA606" t="s" s="2">
+      <c r="AB606" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC606" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD606" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE606" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF606" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG606" t="s" s="2">
         <v>1897</v>
-      </c>
-      <c r="AB606" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC606" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD606" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE606" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF606" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG606" t="s" s="2">
-        <v>1898</v>
       </c>
       <c r="AH606" t="s" s="2">
         <v>74</v>
@@ -72216,10 +72215,10 @@
         <v>1693</v>
       </c>
       <c r="B607" t="s" s="2">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="C607" t="s" s="2">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="D607" s="2"/>
       <c r="E607" t="s" s="2">
@@ -72245,16 +72244,16 @@
         <v>224</v>
       </c>
       <c r="M607" t="s" s="2">
+        <v>1899</v>
+      </c>
+      <c r="N607" t="s" s="2">
         <v>1900</v>
       </c>
-      <c r="N607" t="s" s="2">
+      <c r="O607" t="s" s="2">
         <v>1901</v>
       </c>
-      <c r="O607" t="s" s="2">
+      <c r="P607" t="s" s="2">
         <v>1902</v>
-      </c>
-      <c r="P607" t="s" s="2">
-        <v>1903</v>
       </c>
       <c r="Q607" t="s" s="2">
         <v>73</v>
@@ -72282,28 +72281,28 @@
         <v>1026</v>
       </c>
       <c r="Z607" t="s" s="2">
+        <v>1903</v>
+      </c>
+      <c r="AA607" t="s" s="2">
         <v>1904</v>
       </c>
-      <c r="AA607" t="s" s="2">
+      <c r="AB607" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC607" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD607" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE607" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF607" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG607" t="s" s="2">
         <v>1905</v>
-      </c>
-      <c r="AB607" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC607" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD607" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE607" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF607" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG607" t="s" s="2">
-        <v>1906</v>
       </c>
       <c r="AH607" t="s" s="2">
         <v>74</v>
@@ -72323,10 +72322,10 @@
         <v>1693</v>
       </c>
       <c r="B608" t="s" s="2">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="C608" t="s" s="2">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="D608" s="2"/>
       <c r="E608" t="s" s="2">
@@ -72349,13 +72348,13 @@
         <v>100</v>
       </c>
       <c r="L608" t="s" s="2">
+        <v>1907</v>
+      </c>
+      <c r="M608" t="s" s="2">
         <v>1908</v>
       </c>
-      <c r="M608" t="s" s="2">
+      <c r="N608" t="s" s="2">
         <v>1909</v>
-      </c>
-      <c r="N608" t="s" s="2">
-        <v>1910</v>
       </c>
       <c r="O608" s="2"/>
       <c r="P608" s="2"/>
@@ -72406,7 +72405,7 @@
         <v>73</v>
       </c>
       <c r="AG608" t="s" s="2">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="AH608" t="s" s="2">
         <v>74</v>
@@ -72426,10 +72425,10 @@
         <v>1693</v>
       </c>
       <c r="B609" t="s" s="2">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="C609" t="s" s="2">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="D609" s="2"/>
       <c r="E609" t="s" s="2">
@@ -72529,10 +72528,10 @@
         <v>1693</v>
       </c>
       <c r="B610" t="s" s="2">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="C610" t="s" s="2">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="D610" s="2"/>
       <c r="E610" t="s" s="2">
@@ -72634,10 +72633,10 @@
         <v>1693</v>
       </c>
       <c r="B611" t="s" s="2">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="C611" t="s" s="2">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="D611" s="2"/>
       <c r="E611" t="s" s="2">
@@ -72663,14 +72662,14 @@
         <v>224</v>
       </c>
       <c r="M611" t="s" s="2">
+        <v>1914</v>
+      </c>
+      <c r="N611" t="s" s="2">
         <v>1915</v>
-      </c>
-      <c r="N611" t="s" s="2">
-        <v>1916</v>
       </c>
       <c r="O611" s="2"/>
       <c r="P611" t="s" s="2">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="Q611" t="s" s="2">
         <v>73</v>
@@ -72698,28 +72697,28 @@
         <v>1026</v>
       </c>
       <c r="Z611" t="s" s="2">
+        <v>1917</v>
+      </c>
+      <c r="AA611" t="s" s="2">
         <v>1918</v>
       </c>
-      <c r="AA611" t="s" s="2">
+      <c r="AB611" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC611" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD611" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE611" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF611" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG611" t="s" s="2">
         <v>1919</v>
-      </c>
-      <c r="AB611" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC611" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD611" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE611" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF611" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG611" t="s" s="2">
-        <v>1920</v>
       </c>
       <c r="AH611" t="s" s="2">
         <v>74</v>
@@ -72739,10 +72738,10 @@
         <v>1693</v>
       </c>
       <c r="B612" t="s" s="2">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="C612" t="s" s="2">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="D612" s="2"/>
       <c r="E612" t="s" s="2">
@@ -72765,19 +72764,19 @@
         <v>100</v>
       </c>
       <c r="L612" t="s" s="2">
+        <v>1921</v>
+      </c>
+      <c r="M612" t="s" s="2">
         <v>1922</v>
       </c>
-      <c r="M612" t="s" s="2">
+      <c r="N612" t="s" s="2">
         <v>1923</v>
       </c>
-      <c r="N612" t="s" s="2">
+      <c r="O612" t="s" s="2">
         <v>1924</v>
       </c>
-      <c r="O612" t="s" s="2">
+      <c r="P612" t="s" s="2">
         <v>1925</v>
-      </c>
-      <c r="P612" t="s" s="2">
-        <v>1926</v>
       </c>
       <c r="Q612" t="s" s="2">
         <v>73</v>
@@ -72824,7 +72823,7 @@
         <v>96</v>
       </c>
       <c r="AG612" t="s" s="2">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="AH612" t="s" s="2">
         <v>74</v>
@@ -72844,13 +72843,13 @@
         <v>1693</v>
       </c>
       <c r="B613" t="s" s="2">
+        <v>1927</v>
+      </c>
+      <c r="C613" t="s" s="2">
+        <v>1920</v>
+      </c>
+      <c r="D613" t="s" s="2">
         <v>1928</v>
-      </c>
-      <c r="C613" t="s" s="2">
-        <v>1921</v>
-      </c>
-      <c r="D613" t="s" s="2">
-        <v>1929</v>
       </c>
       <c r="E613" t="s" s="2">
         <v>73</v>
@@ -72872,19 +72871,19 @@
         <v>73</v>
       </c>
       <c r="L613" t="s" s="2">
+        <v>1929</v>
+      </c>
+      <c r="M613" t="s" s="2">
         <v>1930</v>
       </c>
-      <c r="M613" t="s" s="2">
+      <c r="N613" t="s" s="2">
         <v>1931</v>
       </c>
-      <c r="N613" t="s" s="2">
+      <c r="O613" t="s" s="2">
         <v>1932</v>
       </c>
-      <c r="O613" t="s" s="2">
-        <v>1933</v>
-      </c>
       <c r="P613" t="s" s="2">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="Q613" t="s" s="2">
         <v>73</v>
@@ -72933,7 +72932,7 @@
         <v>73</v>
       </c>
       <c r="AG613" t="s" s="2">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="AH613" t="s" s="2">
         <v>74</v>
@@ -72945,7 +72944,7 @@
         <v>73</v>
       </c>
       <c r="AK613" t="s" s="2">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="614">
@@ -72953,10 +72952,10 @@
         <v>1693</v>
       </c>
       <c r="B614" t="s" s="2">
+        <v>1934</v>
+      </c>
+      <c r="C614" t="s" s="2">
         <v>1935</v>
-      </c>
-      <c r="C614" t="s" s="2">
-        <v>1936</v>
       </c>
       <c r="D614" s="2"/>
       <c r="E614" t="s" s="2">
@@ -73056,10 +73055,10 @@
         <v>1693</v>
       </c>
       <c r="B615" t="s" s="2">
+        <v>1936</v>
+      </c>
+      <c r="C615" t="s" s="2">
         <v>1937</v>
-      </c>
-      <c r="C615" t="s" s="2">
-        <v>1938</v>
       </c>
       <c r="D615" s="2"/>
       <c r="E615" t="s" s="2">
@@ -73161,10 +73160,10 @@
         <v>1693</v>
       </c>
       <c r="B616" t="s" s="2">
+        <v>1938</v>
+      </c>
+      <c r="C616" t="s" s="2">
         <v>1939</v>
-      </c>
-      <c r="C616" t="s" s="2">
-        <v>1940</v>
       </c>
       <c r="D616" s="2"/>
       <c r="E616" t="s" s="2">
@@ -73187,19 +73186,19 @@
         <v>100</v>
       </c>
       <c r="L616" t="s" s="2">
+        <v>1940</v>
+      </c>
+      <c r="M616" t="s" s="2">
         <v>1941</v>
       </c>
-      <c r="M616" t="s" s="2">
+      <c r="N616" t="s" s="2">
         <v>1942</v>
       </c>
-      <c r="N616" t="s" s="2">
+      <c r="O616" t="s" s="2">
         <v>1943</v>
       </c>
-      <c r="O616" t="s" s="2">
+      <c r="P616" t="s" s="2">
         <v>1944</v>
-      </c>
-      <c r="P616" t="s" s="2">
-        <v>1945</v>
       </c>
       <c r="Q616" t="s" s="2">
         <v>73</v>
@@ -73248,7 +73247,7 @@
         <v>73</v>
       </c>
       <c r="AG616" t="s" s="2">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="AH616" t="s" s="2">
         <v>74</v>
@@ -73268,10 +73267,10 @@
         <v>1693</v>
       </c>
       <c r="B617" t="s" s="2">
+        <v>1946</v>
+      </c>
+      <c r="C617" t="s" s="2">
         <v>1947</v>
-      </c>
-      <c r="C617" t="s" s="2">
-        <v>1948</v>
       </c>
       <c r="D617" s="2"/>
       <c r="E617" t="s" s="2">
@@ -73297,20 +73296,20 @@
         <v>101</v>
       </c>
       <c r="M617" t="s" s="2">
+        <v>1948</v>
+      </c>
+      <c r="N617" t="s" s="2">
         <v>1949</v>
-      </c>
-      <c r="N617" t="s" s="2">
-        <v>1950</v>
       </c>
       <c r="O617" s="2"/>
       <c r="P617" t="s" s="2">
+        <v>1950</v>
+      </c>
+      <c r="Q617" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R617" t="s" s="2">
         <v>1951</v>
-      </c>
-      <c r="Q617" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R617" t="s" s="2">
-        <v>1952</v>
       </c>
       <c r="S617" t="s" s="2">
         <v>73</v>
@@ -73334,28 +73333,28 @@
         <v>107</v>
       </c>
       <c r="Z617" t="s" s="2">
+        <v>1952</v>
+      </c>
+      <c r="AA617" t="s" s="2">
         <v>1953</v>
       </c>
-      <c r="AA617" t="s" s="2">
+      <c r="AB617" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC617" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD617" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE617" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF617" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG617" t="s" s="2">
         <v>1954</v>
-      </c>
-      <c r="AB617" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC617" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD617" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE617" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF617" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG617" t="s" s="2">
-        <v>1955</v>
       </c>
       <c r="AH617" t="s" s="2">
         <v>74</v>
@@ -73375,10 +73374,10 @@
         <v>1693</v>
       </c>
       <c r="B618" t="s" s="2">
+        <v>1955</v>
+      </c>
+      <c r="C618" t="s" s="2">
         <v>1956</v>
-      </c>
-      <c r="C618" t="s" s="2">
-        <v>1957</v>
       </c>
       <c r="D618" s="2"/>
       <c r="E618" t="s" s="2">
@@ -73404,14 +73403,14 @@
         <v>119</v>
       </c>
       <c r="M618" t="s" s="2">
+        <v>1957</v>
+      </c>
+      <c r="N618" t="s" s="2">
         <v>1958</v>
-      </c>
-      <c r="N618" t="s" s="2">
-        <v>1959</v>
       </c>
       <c r="O618" s="2"/>
       <c r="P618" t="s" s="2">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="Q618" t="s" s="2">
         <v>73</v>
@@ -73460,7 +73459,7 @@
         <v>73</v>
       </c>
       <c r="AG618" t="s" s="2">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="AH618" t="s" s="2">
         <v>74</v>
@@ -73480,10 +73479,10 @@
         <v>1693</v>
       </c>
       <c r="B619" t="s" s="2">
+        <v>1961</v>
+      </c>
+      <c r="C619" t="s" s="2">
         <v>1962</v>
-      </c>
-      <c r="C619" t="s" s="2">
-        <v>1963</v>
       </c>
       <c r="D619" s="2"/>
       <c r="E619" t="s" s="2">
@@ -73509,14 +73508,14 @@
         <v>200</v>
       </c>
       <c r="M619" t="s" s="2">
+        <v>1963</v>
+      </c>
+      <c r="N619" t="s" s="2">
         <v>1964</v>
-      </c>
-      <c r="N619" t="s" s="2">
-        <v>1965</v>
       </c>
       <c r="O619" s="2"/>
       <c r="P619" t="s" s="2">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="Q619" t="s" s="2">
         <v>73</v>
@@ -73565,16 +73564,16 @@
         <v>73</v>
       </c>
       <c r="AG619" t="s" s="2">
+        <v>1966</v>
+      </c>
+      <c r="AH619" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI619" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ619" t="s" s="2">
         <v>1967</v>
-      </c>
-      <c r="AH619" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI619" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ619" t="s" s="2">
-        <v>1968</v>
       </c>
       <c r="AK619" t="s" s="2">
         <v>110</v>
@@ -73585,10 +73584,10 @@
         <v>1693</v>
       </c>
       <c r="B620" t="s" s="2">
+        <v>1968</v>
+      </c>
+      <c r="C620" t="s" s="2">
         <v>1969</v>
-      </c>
-      <c r="C620" t="s" s="2">
-        <v>1970</v>
       </c>
       <c r="D620" s="2"/>
       <c r="E620" t="s" s="2">
@@ -73614,16 +73613,16 @@
         <v>101</v>
       </c>
       <c r="M620" t="s" s="2">
+        <v>1970</v>
+      </c>
+      <c r="N620" t="s" s="2">
         <v>1971</v>
       </c>
-      <c r="N620" t="s" s="2">
+      <c r="O620" t="s" s="2">
         <v>1972</v>
       </c>
-      <c r="O620" t="s" s="2">
+      <c r="P620" t="s" s="2">
         <v>1973</v>
-      </c>
-      <c r="P620" t="s" s="2">
-        <v>1974</v>
       </c>
       <c r="Q620" t="s" s="2">
         <v>73</v>
@@ -73652,26 +73651,26 @@
       </c>
       <c r="Z620" s="2"/>
       <c r="AA620" t="s" s="2">
+        <v>1974</v>
+      </c>
+      <c r="AB620" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC620" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD620" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE620" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF620" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG620" t="s" s="2">
         <v>1975</v>
       </c>
-      <c r="AB620" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC620" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD620" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE620" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF620" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG620" t="s" s="2">
-        <v>1976</v>
-      </c>
       <c r="AH620" t="s" s="2">
         <v>74</v>
       </c>
@@ -73679,7 +73678,7 @@
         <v>82</v>
       </c>
       <c r="AJ620" t="s" s="2">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="AK620" t="s" s="2">
         <v>110</v>
@@ -73690,10 +73689,10 @@
         <v>1693</v>
       </c>
       <c r="B621" t="s" s="2">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="C621" t="s" s="2">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="D621" s="2"/>
       <c r="E621" t="s" s="2">
@@ -73716,19 +73715,19 @@
         <v>100</v>
       </c>
       <c r="L621" t="s" s="2">
+        <v>1977</v>
+      </c>
+      <c r="M621" t="s" s="2">
         <v>1978</v>
       </c>
-      <c r="M621" t="s" s="2">
+      <c r="N621" t="s" s="2">
         <v>1979</v>
       </c>
-      <c r="N621" t="s" s="2">
+      <c r="O621" t="s" s="2">
         <v>1980</v>
       </c>
-      <c r="O621" t="s" s="2">
+      <c r="P621" t="s" s="2">
         <v>1981</v>
-      </c>
-      <c r="P621" t="s" s="2">
-        <v>1982</v>
       </c>
       <c r="Q621" t="s" s="2">
         <v>73</v>
@@ -73777,7 +73776,7 @@
         <v>73</v>
       </c>
       <c r="AG621" t="s" s="2">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="AH621" t="s" s="2">
         <v>74</v>
@@ -73797,10 +73796,10 @@
         <v>1693</v>
       </c>
       <c r="B622" t="s" s="2">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C622" t="s" s="2">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D622" s="2"/>
       <c r="E622" t="s" s="2">
@@ -73823,19 +73822,19 @@
         <v>100</v>
       </c>
       <c r="L622" t="s" s="2">
+        <v>1984</v>
+      </c>
+      <c r="M622" t="s" s="2">
         <v>1985</v>
       </c>
-      <c r="M622" t="s" s="2">
+      <c r="N622" t="s" s="2">
         <v>1986</v>
       </c>
-      <c r="N622" t="s" s="2">
+      <c r="O622" t="s" s="2">
         <v>1987</v>
       </c>
-      <c r="O622" t="s" s="2">
+      <c r="P622" t="s" s="2">
         <v>1988</v>
-      </c>
-      <c r="P622" t="s" s="2">
-        <v>1989</v>
       </c>
       <c r="Q622" t="s" s="2">
         <v>73</v>
@@ -73884,7 +73883,7 @@
         <v>73</v>
       </c>
       <c r="AG622" t="s" s="2">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="AH622" t="s" s="2">
         <v>74</v>
@@ -73904,10 +73903,10 @@
         <v>1693</v>
       </c>
       <c r="B623" t="s" s="2">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C623" t="s" s="2">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D623" s="2"/>
       <c r="E623" t="s" s="2">
@@ -73930,19 +73929,19 @@
         <v>100</v>
       </c>
       <c r="L623" t="s" s="2">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="M623" t="s" s="2">
+        <v>1991</v>
+      </c>
+      <c r="N623" t="s" s="2">
         <v>1992</v>
       </c>
-      <c r="N623" t="s" s="2">
+      <c r="O623" t="s" s="2">
         <v>1993</v>
       </c>
-      <c r="O623" t="s" s="2">
+      <c r="P623" t="s" s="2">
         <v>1994</v>
-      </c>
-      <c r="P623" t="s" s="2">
-        <v>1995</v>
       </c>
       <c r="Q623" t="s" s="2">
         <v>73</v>
@@ -73991,7 +73990,7 @@
         <v>73</v>
       </c>
       <c r="AG623" t="s" s="2">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="AH623" t="s" s="2">
         <v>74</v>
@@ -74011,10 +74010,10 @@
         <v>1693</v>
       </c>
       <c r="B624" t="s" s="2">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C624" t="s" s="2">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="D624" s="2"/>
       <c r="E624" t="s" s="2">
@@ -74037,17 +74036,17 @@
         <v>100</v>
       </c>
       <c r="L624" t="s" s="2">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="M624" t="s" s="2">
+        <v>1997</v>
+      </c>
+      <c r="N624" t="s" s="2">
         <v>1998</v>
-      </c>
-      <c r="N624" t="s" s="2">
-        <v>1999</v>
       </c>
       <c r="O624" s="2"/>
       <c r="P624" t="s" s="2">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="Q624" t="s" s="2">
         <v>73</v>
@@ -74096,7 +74095,7 @@
         <v>73</v>
       </c>
       <c r="AG624" t="s" s="2">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="AH624" t="s" s="2">
         <v>74</v>
@@ -74116,10 +74115,10 @@
         <v>1693</v>
       </c>
       <c r="B625" t="s" s="2">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C625" t="s" s="2">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D625" s="2"/>
       <c r="E625" t="s" s="2">
@@ -74145,10 +74144,10 @@
         <v>762</v>
       </c>
       <c r="M625" t="s" s="2">
+        <v>2002</v>
+      </c>
+      <c r="N625" t="s" s="2">
         <v>2003</v>
-      </c>
-      <c r="N625" t="s" s="2">
-        <v>2004</v>
       </c>
       <c r="O625" s="2"/>
       <c r="P625" s="2"/>
@@ -74199,7 +74198,7 @@
         <v>73</v>
       </c>
       <c r="AG625" t="s" s="2">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="AH625" t="s" s="2">
         <v>74</v>
@@ -74219,10 +74218,10 @@
         <v>1693</v>
       </c>
       <c r="B626" t="s" s="2">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C626" t="s" s="2">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="D626" s="2"/>
       <c r="E626" t="s" s="2">
@@ -74322,10 +74321,10 @@
         <v>1693</v>
       </c>
       <c r="B627" t="s" s="2">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C627" t="s" s="2">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D627" s="2"/>
       <c r="E627" t="s" s="2">
@@ -74427,10 +74426,10 @@
         <v>1693</v>
       </c>
       <c r="B628" t="s" s="2">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C628" t="s" s="2">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="D628" s="2"/>
       <c r="E628" t="s" s="2">
@@ -74534,10 +74533,10 @@
         <v>1693</v>
       </c>
       <c r="B629" t="s" s="2">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C629" t="s" s="2">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D629" s="2"/>
       <c r="E629" t="s" s="2">
@@ -74563,13 +74562,13 @@
         <v>762</v>
       </c>
       <c r="M629" t="s" s="2">
+        <v>2008</v>
+      </c>
+      <c r="N629" t="s" s="2">
         <v>2009</v>
       </c>
-      <c r="N629" t="s" s="2">
+      <c r="O629" t="s" s="2">
         <v>2010</v>
-      </c>
-      <c r="O629" t="s" s="2">
-        <v>2011</v>
       </c>
       <c r="P629" s="2"/>
       <c r="Q629" t="s" s="2">
@@ -74619,7 +74618,7 @@
         <v>73</v>
       </c>
       <c r="AG629" t="s" s="2">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="AH629" t="s" s="2">
         <v>74</v>
@@ -74639,10 +74638,10 @@
         <v>1693</v>
       </c>
       <c r="B630" t="s" s="2">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C630" t="s" s="2">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D630" s="2"/>
       <c r="E630" t="s" s="2">
@@ -74742,10 +74741,10 @@
         <v>1693</v>
       </c>
       <c r="B631" t="s" s="2">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C631" t="s" s="2">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D631" s="2"/>
       <c r="E631" t="s" s="2">
@@ -74847,10 +74846,10 @@
         <v>1693</v>
       </c>
       <c r="B632" t="s" s="2">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C632" t="s" s="2">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D632" s="2"/>
       <c r="E632" t="s" s="2">
@@ -74954,10 +74953,10 @@
         <v>1693</v>
       </c>
       <c r="B633" t="s" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C633" t="s" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D633" s="2"/>
       <c r="E633" t="s" s="2">
@@ -74980,13 +74979,13 @@
         <v>73</v>
       </c>
       <c r="L633" t="s" s="2">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="M633" t="s" s="2">
+        <v>2015</v>
+      </c>
+      <c r="N633" t="s" s="2">
         <v>2016</v>
-      </c>
-      <c r="N633" t="s" s="2">
-        <v>2017</v>
       </c>
       <c r="O633" s="2"/>
       <c r="P633" s="2"/>
@@ -75037,7 +75036,7 @@
         <v>73</v>
       </c>
       <c r="AG633" t="s" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="AH633" t="s" s="2">
         <v>74</v>
@@ -75057,10 +75056,10 @@
         <v>1693</v>
       </c>
       <c r="B634" t="s" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C634" t="s" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D634" s="2"/>
       <c r="E634" t="s" s="2">
@@ -75083,13 +75082,13 @@
         <v>73</v>
       </c>
       <c r="L634" t="s" s="2">
+        <v>2018</v>
+      </c>
+      <c r="M634" t="s" s="2">
         <v>2019</v>
       </c>
-      <c r="M634" t="s" s="2">
+      <c r="N634" t="s" s="2">
         <v>2020</v>
-      </c>
-      <c r="N634" t="s" s="2">
-        <v>2021</v>
       </c>
       <c r="O634" s="2"/>
       <c r="P634" s="2"/>
@@ -75140,7 +75139,7 @@
         <v>73</v>
       </c>
       <c r="AG634" t="s" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="AH634" t="s" s="2">
         <v>74</v>
@@ -75160,10 +75159,10 @@
         <v>1693</v>
       </c>
       <c r="B635" t="s" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C635" t="s" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D635" s="2"/>
       <c r="E635" t="s" s="2">
@@ -75186,13 +75185,13 @@
         <v>73</v>
       </c>
       <c r="L635" t="s" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="M635" t="s" s="2">
+        <v>2022</v>
+      </c>
+      <c r="N635" t="s" s="2">
         <v>2023</v>
-      </c>
-      <c r="N635" t="s" s="2">
-        <v>2024</v>
       </c>
       <c r="O635" s="2"/>
       <c r="P635" s="2"/>
@@ -75243,7 +75242,7 @@
         <v>73</v>
       </c>
       <c r="AG635" t="s" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="AH635" t="s" s="2">
         <v>74</v>
@@ -75263,10 +75262,10 @@
         <v>1693</v>
       </c>
       <c r="B636" t="s" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C636" t="s" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D636" s="2"/>
       <c r="E636" t="s" s="2">
@@ -75292,16 +75291,16 @@
         <v>184</v>
       </c>
       <c r="M636" t="s" s="2">
+        <v>2025</v>
+      </c>
+      <c r="N636" t="s" s="2">
         <v>2026</v>
       </c>
-      <c r="N636" t="s" s="2">
+      <c r="O636" t="s" s="2">
         <v>2027</v>
       </c>
-      <c r="O636" t="s" s="2">
+      <c r="P636" t="s" s="2">
         <v>2028</v>
-      </c>
-      <c r="P636" t="s" s="2">
-        <v>2029</v>
       </c>
       <c r="Q636" t="s" s="2">
         <v>73</v>
@@ -75350,7 +75349,7 @@
         <v>73</v>
       </c>
       <c r="AG636" t="s" s="2">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="AH636" t="s" s="2">
         <v>74</v>
@@ -75370,10 +75369,10 @@
         <v>1693</v>
       </c>
       <c r="B637" t="s" s="2">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="C637" t="s" s="2">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="D637" s="2"/>
       <c r="E637" t="s" s="2">
@@ -75396,16 +75395,16 @@
         <v>73</v>
       </c>
       <c r="L637" t="s" s="2">
+        <v>2030</v>
+      </c>
+      <c r="M637" t="s" s="2">
         <v>2031</v>
       </c>
-      <c r="M637" t="s" s="2">
+      <c r="N637" t="s" s="2">
         <v>2032</v>
       </c>
-      <c r="N637" t="s" s="2">
+      <c r="O637" t="s" s="2">
         <v>2033</v>
-      </c>
-      <c r="O637" t="s" s="2">
-        <v>2034</v>
       </c>
       <c r="P637" s="2"/>
       <c r="Q637" t="s" s="2">
@@ -75455,7 +75454,7 @@
         <v>73</v>
       </c>
       <c r="AG637" t="s" s="2">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="AH637" t="s" s="2">
         <v>74</v>
@@ -75475,10 +75474,10 @@
         <v>1693</v>
       </c>
       <c r="B638" t="s" s="2">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="C638" t="s" s="2">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="D638" s="2"/>
       <c r="E638" t="s" s="2">
@@ -75501,13 +75500,13 @@
         <v>73</v>
       </c>
       <c r="L638" t="s" s="2">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="M638" t="s" s="2">
+        <v>2035</v>
+      </c>
+      <c r="N638" t="s" s="2">
         <v>2036</v>
-      </c>
-      <c r="N638" t="s" s="2">
-        <v>2037</v>
       </c>
       <c r="O638" s="2"/>
       <c r="P638" s="2"/>
@@ -75558,7 +75557,7 @@
         <v>73</v>
       </c>
       <c r="AG638" t="s" s="2">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="AH638" t="s" s="2">
         <v>74</v>
@@ -75578,10 +75577,10 @@
         <v>1693</v>
       </c>
       <c r="B639" t="s" s="2">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="C639" t="s" s="2">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="D639" s="2"/>
       <c r="E639" t="s" s="2">
@@ -75604,16 +75603,16 @@
         <v>73</v>
       </c>
       <c r="L639" t="s" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="M639" t="s" s="2">
+        <v>2038</v>
+      </c>
+      <c r="N639" t="s" s="2">
         <v>2039</v>
       </c>
-      <c r="N639" t="s" s="2">
+      <c r="O639" t="s" s="2">
         <v>2040</v>
-      </c>
-      <c r="O639" t="s" s="2">
-        <v>2041</v>
       </c>
       <c r="P639" s="2"/>
       <c r="Q639" t="s" s="2">
@@ -75663,7 +75662,7 @@
         <v>73</v>
       </c>
       <c r="AG639" t="s" s="2">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="AH639" t="s" s="2">
         <v>74</v>
@@ -75683,10 +75682,10 @@
         <v>1693</v>
       </c>
       <c r="B640" t="s" s="2">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="C640" t="s" s="2">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="D640" s="2"/>
       <c r="E640" t="s" s="2">
@@ -75712,10 +75711,10 @@
         <v>455</v>
       </c>
       <c r="M640" t="s" s="2">
+        <v>2042</v>
+      </c>
+      <c r="N640" t="s" s="2">
         <v>2043</v>
-      </c>
-      <c r="N640" t="s" s="2">
-        <v>2044</v>
       </c>
       <c r="O640" s="2"/>
       <c r="P640" s="2"/>
@@ -75766,7 +75765,7 @@
         <v>73</v>
       </c>
       <c r="AG640" t="s" s="2">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="AH640" t="s" s="2">
         <v>74</v>
@@ -75786,10 +75785,10 @@
         <v>1693</v>
       </c>
       <c r="B641" t="s" s="2">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="C641" t="s" s="2">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="D641" s="2"/>
       <c r="E641" t="s" s="2">
@@ -75815,10 +75814,10 @@
         <v>1481</v>
       </c>
       <c r="M641" t="s" s="2">
+        <v>2045</v>
+      </c>
+      <c r="N641" t="s" s="2">
         <v>2046</v>
-      </c>
-      <c r="N641" t="s" s="2">
-        <v>2047</v>
       </c>
       <c r="O641" s="2"/>
       <c r="P641" s="2"/>
@@ -75869,7 +75868,7 @@
         <v>73</v>
       </c>
       <c r="AG641" t="s" s="2">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="AH641" t="s" s="2">
         <v>74</v>
@@ -75889,10 +75888,10 @@
         <v>1693</v>
       </c>
       <c r="B642" t="s" s="2">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="C642" t="s" s="2">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="D642" s="2"/>
       <c r="E642" t="s" s="2">
@@ -75918,10 +75917,10 @@
         <v>224</v>
       </c>
       <c r="M642" t="s" s="2">
+        <v>2048</v>
+      </c>
+      <c r="N642" t="s" s="2">
         <v>2049</v>
-      </c>
-      <c r="N642" t="s" s="2">
-        <v>2050</v>
       </c>
       <c r="O642" s="2"/>
       <c r="P642" s="2"/>
@@ -75952,7 +75951,7 @@
       </c>
       <c r="Z642" s="2"/>
       <c r="AA642" t="s" s="2">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="AB642" t="s" s="2">
         <v>73</v>
@@ -75970,7 +75969,7 @@
         <v>73</v>
       </c>
       <c r="AG642" t="s" s="2">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="AH642" t="s" s="2">
         <v>74</v>
@@ -75990,10 +75989,10 @@
         <v>1693</v>
       </c>
       <c r="B643" t="s" s="2">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="C643" t="s" s="2">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="D643" s="2"/>
       <c r="E643" t="s" s="2">
@@ -76019,10 +76018,10 @@
         <v>762</v>
       </c>
       <c r="M643" t="s" s="2">
+        <v>2052</v>
+      </c>
+      <c r="N643" t="s" s="2">
         <v>2053</v>
-      </c>
-      <c r="N643" t="s" s="2">
-        <v>2054</v>
       </c>
       <c r="O643" s="2"/>
       <c r="P643" s="2"/>
@@ -76073,7 +76072,7 @@
         <v>73</v>
       </c>
       <c r="AG643" t="s" s="2">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="AH643" t="s" s="2">
         <v>74</v>
@@ -76093,10 +76092,10 @@
         <v>1693</v>
       </c>
       <c r="B644" t="s" s="2">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="C644" t="s" s="2">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="D644" s="2"/>
       <c r="E644" t="s" s="2">
@@ -76196,10 +76195,10 @@
         <v>1693</v>
       </c>
       <c r="B645" t="s" s="2">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="C645" t="s" s="2">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="D645" s="2"/>
       <c r="E645" t="s" s="2">
@@ -76301,10 +76300,10 @@
         <v>1693</v>
       </c>
       <c r="B646" t="s" s="2">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="C646" t="s" s="2">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="D646" s="2"/>
       <c r="E646" t="s" s="2">
@@ -76408,10 +76407,10 @@
         <v>1693</v>
       </c>
       <c r="B647" t="s" s="2">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C647" t="s" s="2">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="D647" s="2"/>
       <c r="E647" t="s" s="2">
@@ -76434,16 +76433,16 @@
         <v>73</v>
       </c>
       <c r="L647" t="s" s="2">
+        <v>2058</v>
+      </c>
+      <c r="M647" t="s" s="2">
         <v>2059</v>
       </c>
-      <c r="M647" t="s" s="2">
+      <c r="N647" t="s" s="2">
         <v>2060</v>
       </c>
-      <c r="N647" t="s" s="2">
+      <c r="O647" t="s" s="2">
         <v>2061</v>
-      </c>
-      <c r="O647" t="s" s="2">
-        <v>2062</v>
       </c>
       <c r="P647" s="2"/>
       <c r="Q647" t="s" s="2">
@@ -76472,11 +76471,11 @@
         <v>1361</v>
       </c>
       <c r="Z647" t="s" s="2">
+        <v>2062</v>
+      </c>
+      <c r="AA647" t="s" s="2">
         <v>2063</v>
       </c>
-      <c r="AA647" t="s" s="2">
-        <v>2064</v>
-      </c>
       <c r="AB647" t="s" s="2">
         <v>73</v>
       </c>
@@ -76493,7 +76492,7 @@
         <v>73</v>
       </c>
       <c r="AG647" t="s" s="2">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="AH647" t="s" s="2">
         <v>82</v>
@@ -76513,10 +76512,10 @@
         <v>1693</v>
       </c>
       <c r="B648" t="s" s="2">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="C648" t="s" s="2">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D648" s="2"/>
       <c r="E648" t="s" s="2">
@@ -76542,10 +76541,10 @@
         <v>224</v>
       </c>
       <c r="M648" t="s" s="2">
+        <v>2065</v>
+      </c>
+      <c r="N648" t="s" s="2">
         <v>2066</v>
-      </c>
-      <c r="N648" t="s" s="2">
-        <v>2067</v>
       </c>
       <c r="O648" s="2"/>
       <c r="P648" s="2"/>
@@ -76575,11 +76574,11 @@
         <v>1026</v>
       </c>
       <c r="Z648" t="s" s="2">
+        <v>2067</v>
+      </c>
+      <c r="AA648" t="s" s="2">
         <v>2068</v>
       </c>
-      <c r="AA648" t="s" s="2">
-        <v>2069</v>
-      </c>
       <c r="AB648" t="s" s="2">
         <v>73</v>
       </c>
@@ -76596,7 +76595,7 @@
         <v>73</v>
       </c>
       <c r="AG648" t="s" s="2">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="AH648" t="s" s="2">
         <v>74</v>
@@ -76616,10 +76615,10 @@
         <v>1693</v>
       </c>
       <c r="B649" t="s" s="2">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="C649" t="s" s="2">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D649" s="2"/>
       <c r="E649" t="s" s="2">
@@ -76642,16 +76641,16 @@
         <v>73</v>
       </c>
       <c r="L649" t="s" s="2">
+        <v>2070</v>
+      </c>
+      <c r="M649" t="s" s="2">
         <v>2071</v>
       </c>
-      <c r="M649" t="s" s="2">
+      <c r="N649" t="s" s="2">
         <v>2072</v>
       </c>
-      <c r="N649" t="s" s="2">
+      <c r="O649" t="s" s="2">
         <v>2073</v>
-      </c>
-      <c r="O649" t="s" s="2">
-        <v>2074</v>
       </c>
       <c r="P649" s="2"/>
       <c r="Q649" t="s" s="2">
@@ -76701,7 +76700,7 @@
         <v>73</v>
       </c>
       <c r="AG649" t="s" s="2">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="AH649" t="s" s="2">
         <v>74</v>
@@ -76718,13 +76717,13 @@
     </row>
     <row r="650">
       <c r="A650" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B650" t="s" s="2">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="C650" t="s" s="2">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="D650" s="2"/>
       <c r="E650" t="s" s="2">
@@ -76750,10 +76749,10 @@
         <v>76</v>
       </c>
       <c r="M650" t="s" s="2">
+        <v>2081</v>
+      </c>
+      <c r="N650" t="s" s="2">
         <v>2082</v>
-      </c>
-      <c r="N650" t="s" s="2">
-        <v>2083</v>
       </c>
       <c r="O650" s="2"/>
       <c r="P650" s="2"/>
@@ -76804,7 +76803,7 @@
         <v>73</v>
       </c>
       <c r="AG650" t="s" s="2">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="AH650" t="s" s="2">
         <v>74</v>
@@ -76816,18 +76815,18 @@
         <v>73</v>
       </c>
       <c r="AK650" t="s" s="2">
-        <v>2084</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B651" t="s" s="2">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="C651" t="s" s="2">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="D651" s="2"/>
       <c r="E651" t="s" s="2">
@@ -76926,13 +76925,13 @@
     </row>
     <row r="652">
       <c r="A652" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B652" t="s" s="2">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="C652" t="s" s="2">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="D652" s="2"/>
       <c r="E652" t="s" s="2">
@@ -77029,13 +77028,13 @@
     </row>
     <row r="653">
       <c r="A653" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B653" t="s" s="2">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="C653" t="s" s="2">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="D653" s="2"/>
       <c r="E653" t="s" s="2">
@@ -77134,13 +77133,13 @@
     </row>
     <row r="654">
       <c r="A654" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B654" t="s" s="2">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="C654" t="s" s="2">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="D654" s="2"/>
       <c r="E654" t="s" s="2">
@@ -77239,13 +77238,13 @@
     </row>
     <row r="655">
       <c r="A655" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B655" t="s" s="2">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="C655" t="s" s="2">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="D655" s="2"/>
       <c r="E655" t="s" s="2">
@@ -77344,13 +77343,13 @@
     </row>
     <row r="656">
       <c r="A656" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B656" t="s" s="2">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C656" t="s" s="2">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="D656" s="2"/>
       <c r="E656" t="s" s="2">
@@ -77449,13 +77448,13 @@
     </row>
     <row r="657">
       <c r="A657" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B657" t="s" s="2">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="C657" t="s" s="2">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="D657" s="2"/>
       <c r="E657" t="s" s="2">
@@ -77554,13 +77553,13 @@
     </row>
     <row r="658">
       <c r="A658" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B658" t="s" s="2">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="C658" t="s" s="2">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="D658" s="2"/>
       <c r="E658" t="s" s="2">
@@ -77661,13 +77660,13 @@
     </row>
     <row r="659">
       <c r="A659" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B659" t="s" s="2">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="C659" t="s" s="2">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="D659" s="2"/>
       <c r="E659" t="s" s="2">
@@ -77693,10 +77692,10 @@
         <v>414</v>
       </c>
       <c r="M659" t="s" s="2">
+        <v>2093</v>
+      </c>
+      <c r="N659" t="s" s="2">
         <v>2094</v>
-      </c>
-      <c r="N659" t="s" s="2">
-        <v>2095</v>
       </c>
       <c r="O659" t="s" s="2">
         <v>1711</v>
@@ -77749,7 +77748,7 @@
         <v>73</v>
       </c>
       <c r="AG659" t="s" s="2">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="AH659" t="s" s="2">
         <v>74</v>
@@ -77766,13 +77765,13 @@
     </row>
     <row r="660">
       <c r="A660" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B660" t="s" s="2">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="C660" t="s" s="2">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="D660" s="2"/>
       <c r="E660" t="s" s="2">
@@ -77795,13 +77794,13 @@
         <v>73</v>
       </c>
       <c r="L660" t="s" s="2">
+        <v>2096</v>
+      </c>
+      <c r="M660" t="s" s="2">
         <v>2097</v>
       </c>
-      <c r="M660" t="s" s="2">
+      <c r="N660" t="s" s="2">
         <v>2098</v>
-      </c>
-      <c r="N660" t="s" s="2">
-        <v>2099</v>
       </c>
       <c r="O660" s="2"/>
       <c r="P660" s="2"/>
@@ -77852,7 +77851,7 @@
         <v>73</v>
       </c>
       <c r="AG660" t="s" s="2">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="AH660" t="s" s="2">
         <v>74</v>
@@ -77869,13 +77868,13 @@
     </row>
     <row r="661">
       <c r="A661" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B661" t="s" s="2">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="C661" t="s" s="2">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="D661" s="2"/>
       <c r="E661" t="s" s="2">
@@ -77898,16 +77897,16 @@
         <v>73</v>
       </c>
       <c r="L661" t="s" s="2">
+        <v>2100</v>
+      </c>
+      <c r="M661" t="s" s="2">
         <v>2101</v>
       </c>
-      <c r="M661" t="s" s="2">
+      <c r="N661" t="s" s="2">
         <v>2102</v>
       </c>
-      <c r="N661" t="s" s="2">
+      <c r="O661" t="s" s="2">
         <v>2103</v>
-      </c>
-      <c r="O661" t="s" s="2">
-        <v>2104</v>
       </c>
       <c r="P661" s="2"/>
       <c r="Q661" t="s" s="2">
@@ -77957,7 +77956,7 @@
         <v>73</v>
       </c>
       <c r="AG661" t="s" s="2">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="AH661" t="s" s="2">
         <v>74</v>
@@ -77974,13 +77973,13 @@
     </row>
     <row r="662">
       <c r="A662" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B662" t="s" s="2">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="C662" t="s" s="2">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="D662" s="2"/>
       <c r="E662" t="s" s="2">
@@ -78006,13 +78005,13 @@
         <v>101</v>
       </c>
       <c r="M662" t="s" s="2">
+        <v>2105</v>
+      </c>
+      <c r="N662" t="s" s="2">
         <v>2106</v>
       </c>
-      <c r="N662" t="s" s="2">
+      <c r="O662" t="s" s="2">
         <v>2107</v>
-      </c>
-      <c r="O662" t="s" s="2">
-        <v>2108</v>
       </c>
       <c r="P662" s="2"/>
       <c r="Q662" t="s" s="2">
@@ -78041,11 +78040,11 @@
         <v>107</v>
       </c>
       <c r="Z662" t="s" s="2">
+        <v>2108</v>
+      </c>
+      <c r="AA662" t="s" s="2">
         <v>2109</v>
       </c>
-      <c r="AA662" t="s" s="2">
-        <v>2110</v>
-      </c>
       <c r="AB662" t="s" s="2">
         <v>73</v>
       </c>
@@ -78062,7 +78061,7 @@
         <v>73</v>
       </c>
       <c r="AG662" t="s" s="2">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="AH662" t="s" s="2">
         <v>82</v>
@@ -78079,13 +78078,13 @@
     </row>
     <row r="663">
       <c r="A663" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B663" t="s" s="2">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="C663" t="s" s="2">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="D663" s="2"/>
       <c r="E663" t="s" s="2">
@@ -78108,13 +78107,13 @@
         <v>73</v>
       </c>
       <c r="L663" t="s" s="2">
+        <v>2111</v>
+      </c>
+      <c r="M663" t="s" s="2">
         <v>2112</v>
       </c>
-      <c r="M663" t="s" s="2">
+      <c r="N663" t="s" s="2">
         <v>2113</v>
-      </c>
-      <c r="N663" t="s" s="2">
-        <v>2114</v>
       </c>
       <c r="O663" s="2"/>
       <c r="P663" s="2"/>
@@ -78145,7 +78144,7 @@
       </c>
       <c r="Z663" s="2"/>
       <c r="AA663" t="s" s="2">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="AB663" t="s" s="2">
         <v>73</v>
@@ -78163,7 +78162,7 @@
         <v>73</v>
       </c>
       <c r="AG663" t="s" s="2">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="AH663" t="s" s="2">
         <v>74</v>
@@ -78180,13 +78179,13 @@
     </row>
     <row r="664">
       <c r="A664" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B664" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="C664" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="D664" s="2"/>
       <c r="E664" t="s" s="2">
@@ -78212,10 +78211,10 @@
         <v>703</v>
       </c>
       <c r="M664" t="s" s="2">
+        <v>2116</v>
+      </c>
+      <c r="N664" t="s" s="2">
         <v>2117</v>
-      </c>
-      <c r="N664" t="s" s="2">
-        <v>2118</v>
       </c>
       <c r="O664" s="2"/>
       <c r="P664" s="2"/>
@@ -78266,7 +78265,7 @@
         <v>73</v>
       </c>
       <c r="AG664" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="AH664" t="s" s="2">
         <v>74</v>
@@ -78283,13 +78282,13 @@
     </row>
     <row r="665">
       <c r="A665" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B665" t="s" s="2">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="C665" t="s" s="2">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="D665" s="2"/>
       <c r="E665" t="s" s="2">
@@ -78315,13 +78314,13 @@
         <v>224</v>
       </c>
       <c r="M665" t="s" s="2">
+        <v>2119</v>
+      </c>
+      <c r="N665" t="s" s="2">
         <v>2120</v>
       </c>
-      <c r="N665" t="s" s="2">
+      <c r="O665" t="s" s="2">
         <v>2121</v>
-      </c>
-      <c r="O665" t="s" s="2">
-        <v>2122</v>
       </c>
       <c r="P665" s="2"/>
       <c r="Q665" t="s" s="2">
@@ -78350,11 +78349,11 @@
         <v>1026</v>
       </c>
       <c r="Z665" t="s" s="2">
+        <v>2122</v>
+      </c>
+      <c r="AA665" t="s" s="2">
         <v>2123</v>
       </c>
-      <c r="AA665" t="s" s="2">
-        <v>2124</v>
-      </c>
       <c r="AB665" t="s" s="2">
         <v>73</v>
       </c>
@@ -78371,7 +78370,7 @@
         <v>73</v>
       </c>
       <c r="AG665" t="s" s="2">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="AH665" t="s" s="2">
         <v>74</v>
@@ -78388,13 +78387,13 @@
     </row>
     <row r="666">
       <c r="A666" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B666" t="s" s="2">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="C666" t="s" s="2">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D666" s="2"/>
       <c r="E666" t="s" s="2">
@@ -78417,7 +78416,7 @@
         <v>100</v>
       </c>
       <c r="L666" t="s" s="2">
-        <v>1755</v>
+        <v>2125</v>
       </c>
       <c r="M666" t="s" s="2">
         <v>2126</v>
@@ -78474,7 +78473,7 @@
         <v>73</v>
       </c>
       <c r="AG666" t="s" s="2">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="AH666" t="s" s="2">
         <v>82</v>
@@ -78491,7 +78490,7 @@
     </row>
     <row r="667">
       <c r="A667" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B667" t="s" s="2">
         <v>2129</v>
@@ -78520,7 +78519,7 @@
         <v>100</v>
       </c>
       <c r="L667" t="s" s="2">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="M667" t="s" s="2">
         <v>2130</v>
@@ -78596,7 +78595,7 @@
     </row>
     <row r="668">
       <c r="A668" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B668" t="s" s="2">
         <v>2133</v>
@@ -78699,7 +78698,7 @@
     </row>
     <row r="669">
       <c r="A669" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B669" t="s" s="2">
         <v>2136</v>
@@ -78802,7 +78801,7 @@
     </row>
     <row r="670">
       <c r="A670" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B670" t="s" s="2">
         <v>2139</v>
@@ -78905,7 +78904,7 @@
     </row>
     <row r="671">
       <c r="A671" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B671" t="s" s="2">
         <v>2142</v>
@@ -79008,7 +79007,7 @@
     </row>
     <row r="672">
       <c r="A672" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B672" t="s" s="2">
         <v>2143</v>
@@ -79113,7 +79112,7 @@
     </row>
     <row r="673">
       <c r="A673" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B673" t="s" s="2">
         <v>2144</v>
@@ -79220,7 +79219,7 @@
     </row>
     <row r="674">
       <c r="A674" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B674" t="s" s="2">
         <v>2145</v>
@@ -79325,7 +79324,7 @@
     </row>
     <row r="675">
       <c r="A675" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B675" t="s" s="2">
         <v>2151</v>
@@ -79428,7 +79427,7 @@
     </row>
     <row r="676">
       <c r="A676" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B676" t="s" s="2">
         <v>2154</v>
@@ -79531,7 +79530,7 @@
     </row>
     <row r="677">
       <c r="A677" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B677" t="s" s="2">
         <v>2158</v>
@@ -79636,7 +79635,7 @@
     </row>
     <row r="678">
       <c r="A678" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B678" t="s" s="2">
         <v>2163</v>
@@ -79739,7 +79738,7 @@
     </row>
     <row r="679">
       <c r="A679" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B679" t="s" s="2">
         <v>2168</v>
@@ -79768,7 +79767,7 @@
         <v>73</v>
       </c>
       <c r="L679" t="s" s="2">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="M679" t="s" s="2">
         <v>2169</v>
@@ -79842,7 +79841,7 @@
     </row>
     <row r="680">
       <c r="A680" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B680" t="s" s="2">
         <v>2171</v>
@@ -79871,7 +79870,7 @@
         <v>73</v>
       </c>
       <c r="L680" t="s" s="2">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="M680" t="s" s="2">
         <v>2172</v>
@@ -79945,7 +79944,7 @@
     </row>
     <row r="681">
       <c r="A681" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B681" t="s" s="2">
         <v>2174</v>
@@ -80048,7 +80047,7 @@
     </row>
     <row r="682">
       <c r="A682" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B682" t="s" s="2">
         <v>2177</v>
@@ -80151,7 +80150,7 @@
     </row>
     <row r="683">
       <c r="A683" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B683" t="s" s="2">
         <v>2181</v>
@@ -80254,7 +80253,7 @@
     </row>
     <row r="684">
       <c r="A684" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B684" t="s" s="2">
         <v>2184</v>
@@ -80357,7 +80356,7 @@
     </row>
     <row r="685">
       <c r="A685" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B685" t="s" s="2">
         <v>2187</v>
@@ -80460,7 +80459,7 @@
     </row>
     <row r="686">
       <c r="A686" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B686" t="s" s="2">
         <v>2191</v>
@@ -80563,7 +80562,7 @@
     </row>
     <row r="687">
       <c r="A687" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B687" t="s" s="2">
         <v>2194</v>
@@ -80595,13 +80594,13 @@
         <v>972</v>
       </c>
       <c r="M687" t="s" s="2">
+        <v>1826</v>
+      </c>
+      <c r="N687" t="s" s="2">
         <v>1827</v>
       </c>
-      <c r="N687" t="s" s="2">
+      <c r="O687" t="s" s="2">
         <v>1828</v>
-      </c>
-      <c r="O687" t="s" s="2">
-        <v>1829</v>
       </c>
       <c r="P687" s="2"/>
       <c r="Q687" t="s" s="2">
@@ -80668,7 +80667,7 @@
     </row>
     <row r="688">
       <c r="A688" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B688" t="s" s="2">
         <v>2195</v>
@@ -80697,7 +80696,7 @@
         <v>73</v>
       </c>
       <c r="L688" t="s" s="2">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="M688" t="s" s="2">
         <v>2196</v>
@@ -80773,7 +80772,7 @@
     </row>
     <row r="689">
       <c r="A689" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B689" t="s" s="2">
         <v>2199</v>
@@ -80876,7 +80875,7 @@
     </row>
     <row r="690">
       <c r="A690" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B690" t="s" s="2">
         <v>2200</v>
@@ -80981,7 +80980,7 @@
     </row>
     <row r="691">
       <c r="A691" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B691" t="s" s="2">
         <v>2201</v>
@@ -81071,7 +81070,7 @@
         <v>73</v>
       </c>
       <c r="AG691" t="s" s="2">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="AH691" t="s" s="2">
         <v>74</v>
@@ -81088,7 +81087,7 @@
     </row>
     <row r="692">
       <c r="A692" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B692" t="s" s="2">
         <v>2202</v>
@@ -81120,14 +81119,14 @@
         <v>754</v>
       </c>
       <c r="M692" t="s" s="2">
+        <v>1842</v>
+      </c>
+      <c r="N692" t="s" s="2">
         <v>1843</v>
-      </c>
-      <c r="N692" t="s" s="2">
-        <v>1844</v>
       </c>
       <c r="O692" s="2"/>
       <c r="P692" t="s" s="2">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="Q692" t="s" s="2">
         <v>73</v>
@@ -81176,7 +81175,7 @@
         <v>73</v>
       </c>
       <c r="AG692" t="s" s="2">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="AH692" t="s" s="2">
         <v>74</v>
@@ -81193,7 +81192,7 @@
     </row>
     <row r="693">
       <c r="A693" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B693" t="s" s="2">
         <v>2203</v>
@@ -81225,14 +81224,14 @@
         <v>119</v>
       </c>
       <c r="M693" t="s" s="2">
+        <v>1847</v>
+      </c>
+      <c r="N693" t="s" s="2">
         <v>1848</v>
-      </c>
-      <c r="N693" t="s" s="2">
-        <v>1849</v>
       </c>
       <c r="O693" s="2"/>
       <c r="P693" t="s" s="2">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="Q693" t="s" s="2">
         <v>73</v>
@@ -81281,7 +81280,7 @@
         <v>73</v>
       </c>
       <c r="AG693" t="s" s="2">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="AH693" t="s" s="2">
         <v>74</v>
@@ -81298,7 +81297,7 @@
     </row>
     <row r="694">
       <c r="A694" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B694" t="s" s="2">
         <v>2204</v>
@@ -81330,16 +81329,16 @@
         <v>224</v>
       </c>
       <c r="M694" t="s" s="2">
+        <v>1852</v>
+      </c>
+      <c r="N694" t="s" s="2">
         <v>1853</v>
       </c>
-      <c r="N694" t="s" s="2">
+      <c r="O694" t="s" s="2">
         <v>1854</v>
       </c>
-      <c r="O694" t="s" s="2">
+      <c r="P694" t="s" s="2">
         <v>1855</v>
-      </c>
-      <c r="P694" t="s" s="2">
-        <v>1856</v>
       </c>
       <c r="Q694" t="s" s="2">
         <v>73</v>
@@ -81367,28 +81366,28 @@
         <v>1026</v>
       </c>
       <c r="Z694" t="s" s="2">
+        <v>1856</v>
+      </c>
+      <c r="AA694" t="s" s="2">
         <v>1857</v>
       </c>
-      <c r="AA694" t="s" s="2">
+      <c r="AB694" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC694" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD694" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE694" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF694" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG694" t="s" s="2">
         <v>1858</v>
-      </c>
-      <c r="AB694" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC694" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD694" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE694" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF694" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG694" t="s" s="2">
-        <v>1859</v>
       </c>
       <c r="AH694" t="s" s="2">
         <v>74</v>
@@ -81405,7 +81404,7 @@
     </row>
     <row r="695">
       <c r="A695" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B695" t="s" s="2">
         <v>2205</v>
@@ -81437,10 +81436,10 @@
         <v>119</v>
       </c>
       <c r="M695" t="s" s="2">
+        <v>1860</v>
+      </c>
+      <c r="N695" t="s" s="2">
         <v>1861</v>
-      </c>
-      <c r="N695" t="s" s="2">
-        <v>1862</v>
       </c>
       <c r="O695" s="2"/>
       <c r="P695" s="2"/>
@@ -81491,7 +81490,7 @@
         <v>73</v>
       </c>
       <c r="AG695" t="s" s="2">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="AH695" t="s" s="2">
         <v>74</v>
@@ -81508,7 +81507,7 @@
     </row>
     <row r="696">
       <c r="A696" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B696" t="s" s="2">
         <v>2206</v>
@@ -81537,19 +81536,19 @@
         <v>100</v>
       </c>
       <c r="L696" t="s" s="2">
+        <v>1864</v>
+      </c>
+      <c r="M696" t="s" s="2">
         <v>1865</v>
       </c>
-      <c r="M696" t="s" s="2">
+      <c r="N696" t="s" s="2">
         <v>1866</v>
       </c>
-      <c r="N696" t="s" s="2">
+      <c r="O696" t="s" s="2">
         <v>1867</v>
       </c>
-      <c r="O696" t="s" s="2">
+      <c r="P696" t="s" s="2">
         <v>1868</v>
-      </c>
-      <c r="P696" t="s" s="2">
-        <v>1869</v>
       </c>
       <c r="Q696" t="s" s="2">
         <v>73</v>
@@ -81598,7 +81597,7 @@
         <v>73</v>
       </c>
       <c r="AG696" t="s" s="2">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="AH696" t="s" s="2">
         <v>74</v>
@@ -81615,7 +81614,7 @@
     </row>
     <row r="697">
       <c r="A697" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B697" t="s" s="2">
         <v>2207</v>
@@ -81647,13 +81646,13 @@
         <v>272</v>
       </c>
       <c r="M697" t="s" s="2">
+        <v>1871</v>
+      </c>
+      <c r="N697" t="s" s="2">
         <v>1872</v>
       </c>
-      <c r="N697" t="s" s="2">
+      <c r="O697" t="s" s="2">
         <v>1873</v>
-      </c>
-      <c r="O697" t="s" s="2">
-        <v>1874</v>
       </c>
       <c r="P697" s="2"/>
       <c r="Q697" t="s" s="2">
@@ -81703,16 +81702,16 @@
         <v>73</v>
       </c>
       <c r="AG697" t="s" s="2">
+        <v>1874</v>
+      </c>
+      <c r="AH697" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI697" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ697" t="s" s="2">
         <v>1875</v>
-      </c>
-      <c r="AH697" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI697" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ697" t="s" s="2">
-        <v>1876</v>
       </c>
       <c r="AK697" t="s" s="2">
         <v>110</v>
@@ -81720,7 +81719,7 @@
     </row>
     <row r="698">
       <c r="A698" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B698" t="s" s="2">
         <v>2208</v>
@@ -81752,13 +81751,13 @@
         <v>224</v>
       </c>
       <c r="M698" t="s" s="2">
+        <v>1877</v>
+      </c>
+      <c r="N698" t="s" s="2">
         <v>1878</v>
       </c>
-      <c r="N698" t="s" s="2">
+      <c r="O698" t="s" s="2">
         <v>1879</v>
-      </c>
-      <c r="O698" t="s" s="2">
-        <v>1880</v>
       </c>
       <c r="P698" s="2"/>
       <c r="Q698" t="s" s="2">
@@ -81787,28 +81786,28 @@
         <v>1026</v>
       </c>
       <c r="Z698" t="s" s="2">
+        <v>1880</v>
+      </c>
+      <c r="AA698" t="s" s="2">
         <v>1881</v>
       </c>
-      <c r="AA698" t="s" s="2">
+      <c r="AB698" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC698" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD698" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE698" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF698" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG698" t="s" s="2">
         <v>1882</v>
-      </c>
-      <c r="AB698" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC698" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD698" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE698" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF698" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG698" t="s" s="2">
-        <v>1883</v>
       </c>
       <c r="AH698" t="s" s="2">
         <v>74</v>
@@ -81817,7 +81816,7 @@
         <v>75</v>
       </c>
       <c r="AJ698" t="s" s="2">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="AK698" t="s" s="2">
         <v>110</v>
@@ -81825,7 +81824,7 @@
     </row>
     <row r="699">
       <c r="A699" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B699" t="s" s="2">
         <v>2209</v>
@@ -81857,16 +81856,16 @@
         <v>224</v>
       </c>
       <c r="M699" t="s" s="2">
+        <v>1884</v>
+      </c>
+      <c r="N699" t="s" s="2">
         <v>1885</v>
       </c>
-      <c r="N699" t="s" s="2">
+      <c r="O699" t="s" s="2">
         <v>1886</v>
       </c>
-      <c r="O699" t="s" s="2">
+      <c r="P699" t="s" s="2">
         <v>1887</v>
-      </c>
-      <c r="P699" t="s" s="2">
-        <v>1888</v>
       </c>
       <c r="Q699" t="s" s="2">
         <v>73</v>
@@ -81894,28 +81893,28 @@
         <v>1026</v>
       </c>
       <c r="Z699" t="s" s="2">
+        <v>1888</v>
+      </c>
+      <c r="AA699" t="s" s="2">
         <v>1889</v>
       </c>
-      <c r="AA699" t="s" s="2">
+      <c r="AB699" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC699" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD699" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE699" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF699" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG699" t="s" s="2">
         <v>1890</v>
-      </c>
-      <c r="AB699" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC699" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD699" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE699" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF699" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG699" t="s" s="2">
-        <v>1891</v>
       </c>
       <c r="AH699" t="s" s="2">
         <v>74</v>
@@ -81932,7 +81931,7 @@
     </row>
     <row r="700">
       <c r="A700" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B700" t="s" s="2">
         <v>2210</v>
@@ -81964,14 +81963,14 @@
         <v>224</v>
       </c>
       <c r="M700" t="s" s="2">
+        <v>1892</v>
+      </c>
+      <c r="N700" t="s" s="2">
         <v>1893</v>
-      </c>
-      <c r="N700" t="s" s="2">
-        <v>1894</v>
       </c>
       <c r="O700" s="2"/>
       <c r="P700" t="s" s="2">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="Q700" t="s" s="2">
         <v>73</v>
@@ -81999,28 +81998,28 @@
         <v>1026</v>
       </c>
       <c r="Z700" t="s" s="2">
+        <v>1895</v>
+      </c>
+      <c r="AA700" t="s" s="2">
         <v>1896</v>
       </c>
-      <c r="AA700" t="s" s="2">
+      <c r="AB700" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC700" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD700" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE700" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF700" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG700" t="s" s="2">
         <v>1897</v>
-      </c>
-      <c r="AB700" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC700" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD700" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE700" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF700" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG700" t="s" s="2">
-        <v>1898</v>
       </c>
       <c r="AH700" t="s" s="2">
         <v>74</v>
@@ -82037,7 +82036,7 @@
     </row>
     <row r="701">
       <c r="A701" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B701" t="s" s="2">
         <v>2211</v>
@@ -82069,16 +82068,16 @@
         <v>224</v>
       </c>
       <c r="M701" t="s" s="2">
+        <v>1899</v>
+      </c>
+      <c r="N701" t="s" s="2">
         <v>1900</v>
       </c>
-      <c r="N701" t="s" s="2">
+      <c r="O701" t="s" s="2">
         <v>1901</v>
       </c>
-      <c r="O701" t="s" s="2">
+      <c r="P701" t="s" s="2">
         <v>1902</v>
-      </c>
-      <c r="P701" t="s" s="2">
-        <v>1903</v>
       </c>
       <c r="Q701" t="s" s="2">
         <v>73</v>
@@ -82106,28 +82105,28 @@
         <v>1026</v>
       </c>
       <c r="Z701" t="s" s="2">
+        <v>1903</v>
+      </c>
+      <c r="AA701" t="s" s="2">
         <v>1904</v>
       </c>
-      <c r="AA701" t="s" s="2">
+      <c r="AB701" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC701" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD701" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE701" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF701" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG701" t="s" s="2">
         <v>1905</v>
-      </c>
-      <c r="AB701" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC701" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD701" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE701" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF701" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG701" t="s" s="2">
-        <v>1906</v>
       </c>
       <c r="AH701" t="s" s="2">
         <v>74</v>
@@ -82144,7 +82143,7 @@
     </row>
     <row r="702">
       <c r="A702" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B702" t="s" s="2">
         <v>2212</v>
@@ -82173,13 +82172,13 @@
         <v>100</v>
       </c>
       <c r="L702" t="s" s="2">
+        <v>1907</v>
+      </c>
+      <c r="M702" t="s" s="2">
         <v>1908</v>
       </c>
-      <c r="M702" t="s" s="2">
+      <c r="N702" t="s" s="2">
         <v>1909</v>
-      </c>
-      <c r="N702" t="s" s="2">
-        <v>1910</v>
       </c>
       <c r="O702" s="2"/>
       <c r="P702" s="2"/>
@@ -82230,7 +82229,7 @@
         <v>73</v>
       </c>
       <c r="AG702" t="s" s="2">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="AH702" t="s" s="2">
         <v>74</v>
@@ -82247,7 +82246,7 @@
     </row>
     <row r="703">
       <c r="A703" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B703" t="s" s="2">
         <v>2213</v>
@@ -82350,7 +82349,7 @@
     </row>
     <row r="704">
       <c r="A704" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B704" t="s" s="2">
         <v>2214</v>
@@ -82455,7 +82454,7 @@
     </row>
     <row r="705">
       <c r="A705" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B705" t="s" s="2">
         <v>2215</v>
@@ -82487,14 +82486,14 @@
         <v>224</v>
       </c>
       <c r="M705" t="s" s="2">
+        <v>1914</v>
+      </c>
+      <c r="N705" t="s" s="2">
         <v>1915</v>
-      </c>
-      <c r="N705" t="s" s="2">
-        <v>1916</v>
       </c>
       <c r="O705" s="2"/>
       <c r="P705" t="s" s="2">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="Q705" t="s" s="2">
         <v>73</v>
@@ -82522,28 +82521,28 @@
         <v>1026</v>
       </c>
       <c r="Z705" t="s" s="2">
+        <v>1917</v>
+      </c>
+      <c r="AA705" t="s" s="2">
         <v>1918</v>
       </c>
-      <c r="AA705" t="s" s="2">
+      <c r="AB705" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC705" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD705" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE705" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF705" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG705" t="s" s="2">
         <v>1919</v>
-      </c>
-      <c r="AB705" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC705" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD705" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE705" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF705" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG705" t="s" s="2">
-        <v>1920</v>
       </c>
       <c r="AH705" t="s" s="2">
         <v>74</v>
@@ -82560,7 +82559,7 @@
     </row>
     <row r="706">
       <c r="A706" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B706" t="s" s="2">
         <v>2216</v>
@@ -82589,19 +82588,19 @@
         <v>100</v>
       </c>
       <c r="L706" t="s" s="2">
+        <v>1921</v>
+      </c>
+      <c r="M706" t="s" s="2">
         <v>1922</v>
       </c>
-      <c r="M706" t="s" s="2">
+      <c r="N706" t="s" s="2">
         <v>1923</v>
       </c>
-      <c r="N706" t="s" s="2">
+      <c r="O706" t="s" s="2">
         <v>1924</v>
       </c>
-      <c r="O706" t="s" s="2">
+      <c r="P706" t="s" s="2">
         <v>1925</v>
-      </c>
-      <c r="P706" t="s" s="2">
-        <v>1926</v>
       </c>
       <c r="Q706" t="s" s="2">
         <v>73</v>
@@ -82648,7 +82647,7 @@
         <v>96</v>
       </c>
       <c r="AG706" t="s" s="2">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="AH706" t="s" s="2">
         <v>74</v>
@@ -82665,7 +82664,7 @@
     </row>
     <row r="707">
       <c r="A707" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B707" t="s" s="2">
         <v>2217</v>
@@ -82674,7 +82673,7 @@
         <v>2216</v>
       </c>
       <c r="D707" t="s" s="2">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="E707" t="s" s="2">
         <v>73</v>
@@ -82696,19 +82695,19 @@
         <v>73</v>
       </c>
       <c r="L707" t="s" s="2">
+        <v>1929</v>
+      </c>
+      <c r="M707" t="s" s="2">
         <v>1930</v>
       </c>
-      <c r="M707" t="s" s="2">
+      <c r="N707" t="s" s="2">
         <v>1931</v>
       </c>
-      <c r="N707" t="s" s="2">
+      <c r="O707" t="s" s="2">
         <v>1932</v>
       </c>
-      <c r="O707" t="s" s="2">
-        <v>1933</v>
-      </c>
       <c r="P707" t="s" s="2">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="Q707" t="s" s="2">
         <v>73</v>
@@ -82757,7 +82756,7 @@
         <v>73</v>
       </c>
       <c r="AG707" t="s" s="2">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="AH707" t="s" s="2">
         <v>74</v>
@@ -82769,12 +82768,12 @@
         <v>73</v>
       </c>
       <c r="AK707" t="s" s="2">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B708" t="s" s="2">
         <v>2218</v>
@@ -82877,7 +82876,7 @@
     </row>
     <row r="709">
       <c r="A709" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B709" t="s" s="2">
         <v>2220</v>
@@ -82982,7 +82981,7 @@
     </row>
     <row r="710">
       <c r="A710" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B710" t="s" s="2">
         <v>2222</v>
@@ -83011,19 +83010,19 @@
         <v>100</v>
       </c>
       <c r="L710" t="s" s="2">
+        <v>1940</v>
+      </c>
+      <c r="M710" t="s" s="2">
         <v>1941</v>
       </c>
-      <c r="M710" t="s" s="2">
+      <c r="N710" t="s" s="2">
         <v>1942</v>
       </c>
-      <c r="N710" t="s" s="2">
+      <c r="O710" t="s" s="2">
         <v>1943</v>
       </c>
-      <c r="O710" t="s" s="2">
+      <c r="P710" t="s" s="2">
         <v>1944</v>
-      </c>
-      <c r="P710" t="s" s="2">
-        <v>1945</v>
       </c>
       <c r="Q710" t="s" s="2">
         <v>73</v>
@@ -83072,7 +83071,7 @@
         <v>73</v>
       </c>
       <c r="AG710" t="s" s="2">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="AH710" t="s" s="2">
         <v>74</v>
@@ -83089,7 +83088,7 @@
     </row>
     <row r="711">
       <c r="A711" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B711" t="s" s="2">
         <v>2224</v>
@@ -83121,20 +83120,20 @@
         <v>101</v>
       </c>
       <c r="M711" t="s" s="2">
+        <v>1948</v>
+      </c>
+      <c r="N711" t="s" s="2">
         <v>1949</v>
-      </c>
-      <c r="N711" t="s" s="2">
-        <v>1950</v>
       </c>
       <c r="O711" s="2"/>
       <c r="P711" t="s" s="2">
+        <v>1950</v>
+      </c>
+      <c r="Q711" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R711" t="s" s="2">
         <v>1951</v>
-      </c>
-      <c r="Q711" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R711" t="s" s="2">
-        <v>1952</v>
       </c>
       <c r="S711" t="s" s="2">
         <v>73</v>
@@ -83158,28 +83157,28 @@
         <v>107</v>
       </c>
       <c r="Z711" t="s" s="2">
+        <v>1952</v>
+      </c>
+      <c r="AA711" t="s" s="2">
         <v>1953</v>
       </c>
-      <c r="AA711" t="s" s="2">
+      <c r="AB711" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC711" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD711" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE711" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF711" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG711" t="s" s="2">
         <v>1954</v>
-      </c>
-      <c r="AB711" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC711" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD711" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE711" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF711" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG711" t="s" s="2">
-        <v>1955</v>
       </c>
       <c r="AH711" t="s" s="2">
         <v>74</v>
@@ -83196,7 +83195,7 @@
     </row>
     <row r="712">
       <c r="A712" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B712" t="s" s="2">
         <v>2226</v>
@@ -83228,14 +83227,14 @@
         <v>119</v>
       </c>
       <c r="M712" t="s" s="2">
+        <v>1957</v>
+      </c>
+      <c r="N712" t="s" s="2">
         <v>1958</v>
-      </c>
-      <c r="N712" t="s" s="2">
-        <v>1959</v>
       </c>
       <c r="O712" s="2"/>
       <c r="P712" t="s" s="2">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="Q712" t="s" s="2">
         <v>73</v>
@@ -83284,7 +83283,7 @@
         <v>73</v>
       </c>
       <c r="AG712" t="s" s="2">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="AH712" t="s" s="2">
         <v>74</v>
@@ -83301,7 +83300,7 @@
     </row>
     <row r="713">
       <c r="A713" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B713" t="s" s="2">
         <v>2228</v>
@@ -83333,14 +83332,14 @@
         <v>200</v>
       </c>
       <c r="M713" t="s" s="2">
+        <v>1963</v>
+      </c>
+      <c r="N713" t="s" s="2">
         <v>1964</v>
-      </c>
-      <c r="N713" t="s" s="2">
-        <v>1965</v>
       </c>
       <c r="O713" s="2"/>
       <c r="P713" t="s" s="2">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="Q713" t="s" s="2">
         <v>73</v>
@@ -83389,16 +83388,16 @@
         <v>73</v>
       </c>
       <c r="AG713" t="s" s="2">
+        <v>1966</v>
+      </c>
+      <c r="AH713" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI713" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ713" t="s" s="2">
         <v>1967</v>
-      </c>
-      <c r="AH713" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI713" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ713" t="s" s="2">
-        <v>1968</v>
       </c>
       <c r="AK713" t="s" s="2">
         <v>110</v>
@@ -83406,7 +83405,7 @@
     </row>
     <row r="714">
       <c r="A714" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B714" t="s" s="2">
         <v>2230</v>
@@ -83441,13 +83440,13 @@
         <v>2232</v>
       </c>
       <c r="N714" t="s" s="2">
+        <v>1971</v>
+      </c>
+      <c r="O714" t="s" s="2">
         <v>1972</v>
       </c>
-      <c r="O714" t="s" s="2">
+      <c r="P714" t="s" s="2">
         <v>1973</v>
-      </c>
-      <c r="P714" t="s" s="2">
-        <v>1974</v>
       </c>
       <c r="Q714" t="s" s="2">
         <v>73</v>
@@ -83476,26 +83475,26 @@
       </c>
       <c r="Z714" s="2"/>
       <c r="AA714" t="s" s="2">
+        <v>1974</v>
+      </c>
+      <c r="AB714" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC714" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD714" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE714" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF714" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG714" t="s" s="2">
         <v>1975</v>
       </c>
-      <c r="AB714" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC714" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD714" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE714" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF714" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG714" t="s" s="2">
-        <v>1976</v>
-      </c>
       <c r="AH714" t="s" s="2">
         <v>74</v>
       </c>
@@ -83503,7 +83502,7 @@
         <v>82</v>
       </c>
       <c r="AJ714" t="s" s="2">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="AK714" t="s" s="2">
         <v>110</v>
@@ -83511,7 +83510,7 @@
     </row>
     <row r="715">
       <c r="A715" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B715" t="s" s="2">
         <v>2233</v>
@@ -83540,19 +83539,19 @@
         <v>100</v>
       </c>
       <c r="L715" t="s" s="2">
+        <v>1977</v>
+      </c>
+      <c r="M715" t="s" s="2">
         <v>1978</v>
       </c>
-      <c r="M715" t="s" s="2">
+      <c r="N715" t="s" s="2">
         <v>1979</v>
       </c>
-      <c r="N715" t="s" s="2">
+      <c r="O715" t="s" s="2">
         <v>1980</v>
       </c>
-      <c r="O715" t="s" s="2">
+      <c r="P715" t="s" s="2">
         <v>1981</v>
-      </c>
-      <c r="P715" t="s" s="2">
-        <v>1982</v>
       </c>
       <c r="Q715" t="s" s="2">
         <v>73</v>
@@ -83601,7 +83600,7 @@
         <v>73</v>
       </c>
       <c r="AG715" t="s" s="2">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="AH715" t="s" s="2">
         <v>74</v>
@@ -83618,7 +83617,7 @@
     </row>
     <row r="716">
       <c r="A716" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B716" t="s" s="2">
         <v>2234</v>
@@ -83647,19 +83646,19 @@
         <v>100</v>
       </c>
       <c r="L716" t="s" s="2">
+        <v>1984</v>
+      </c>
+      <c r="M716" t="s" s="2">
         <v>1985</v>
       </c>
-      <c r="M716" t="s" s="2">
+      <c r="N716" t="s" s="2">
         <v>1986</v>
       </c>
-      <c r="N716" t="s" s="2">
+      <c r="O716" t="s" s="2">
         <v>1987</v>
       </c>
-      <c r="O716" t="s" s="2">
+      <c r="P716" t="s" s="2">
         <v>1988</v>
-      </c>
-      <c r="P716" t="s" s="2">
-        <v>1989</v>
       </c>
       <c r="Q716" t="s" s="2">
         <v>73</v>
@@ -83708,7 +83707,7 @@
         <v>73</v>
       </c>
       <c r="AG716" t="s" s="2">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="AH716" t="s" s="2">
         <v>74</v>
@@ -83725,7 +83724,7 @@
     </row>
     <row r="717">
       <c r="A717" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B717" t="s" s="2">
         <v>2235</v>
@@ -83754,19 +83753,19 @@
         <v>100</v>
       </c>
       <c r="L717" t="s" s="2">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="M717" t="s" s="2">
+        <v>1991</v>
+      </c>
+      <c r="N717" t="s" s="2">
         <v>1992</v>
       </c>
-      <c r="N717" t="s" s="2">
+      <c r="O717" t="s" s="2">
         <v>1993</v>
       </c>
-      <c r="O717" t="s" s="2">
+      <c r="P717" t="s" s="2">
         <v>1994</v>
-      </c>
-      <c r="P717" t="s" s="2">
-        <v>1995</v>
       </c>
       <c r="Q717" t="s" s="2">
         <v>73</v>
@@ -83815,7 +83814,7 @@
         <v>73</v>
       </c>
       <c r="AG717" t="s" s="2">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="AH717" t="s" s="2">
         <v>74</v>
@@ -83832,7 +83831,7 @@
     </row>
     <row r="718">
       <c r="A718" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B718" t="s" s="2">
         <v>2236</v>
@@ -83861,17 +83860,17 @@
         <v>100</v>
       </c>
       <c r="L718" t="s" s="2">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="M718" t="s" s="2">
+        <v>1997</v>
+      </c>
+      <c r="N718" t="s" s="2">
         <v>1998</v>
-      </c>
-      <c r="N718" t="s" s="2">
-        <v>1999</v>
       </c>
       <c r="O718" s="2"/>
       <c r="P718" t="s" s="2">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="Q718" t="s" s="2">
         <v>73</v>
@@ -83920,7 +83919,7 @@
         <v>73</v>
       </c>
       <c r="AG718" t="s" s="2">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="AH718" t="s" s="2">
         <v>74</v>
@@ -83937,7 +83936,7 @@
     </row>
     <row r="719">
       <c r="A719" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B719" t="s" s="2">
         <v>2237</v>
@@ -84040,7 +84039,7 @@
     </row>
     <row r="720">
       <c r="A720" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B720" t="s" s="2">
         <v>2240</v>
@@ -84143,7 +84142,7 @@
     </row>
     <row r="721">
       <c r="A721" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B721" t="s" s="2">
         <v>2241</v>
@@ -84248,7 +84247,7 @@
     </row>
     <row r="722">
       <c r="A722" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B722" t="s" s="2">
         <v>2242</v>
@@ -84355,7 +84354,7 @@
     </row>
     <row r="723">
       <c r="A723" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B723" t="s" s="2">
         <v>2243</v>
@@ -84458,7 +84457,7 @@
     </row>
     <row r="724">
       <c r="A724" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B724" t="s" s="2">
         <v>2246</v>
@@ -84526,7 +84525,7 @@
         <v>2249</v>
       </c>
       <c r="AA724" t="s" s="2">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="AB724" t="s" s="2">
         <v>73</v>
@@ -84561,7 +84560,7 @@
     </row>
     <row r="725">
       <c r="A725" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B725" t="s" s="2">
         <v>2250</v>
@@ -84626,10 +84625,10 @@
         <v>1026</v>
       </c>
       <c r="Z725" t="s" s="2">
+        <v>2067</v>
+      </c>
+      <c r="AA725" t="s" s="2">
         <v>2068</v>
-      </c>
-      <c r="AA725" t="s" s="2">
-        <v>2069</v>
       </c>
       <c r="AB725" t="s" s="2">
         <v>73</v>
@@ -84664,7 +84663,7 @@
     </row>
     <row r="726">
       <c r="A726" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B726" t="s" s="2">
         <v>2253</v>
@@ -84767,7 +84766,7 @@
     </row>
     <row r="727">
       <c r="A727" t="s" s="2">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="B727" t="s" s="2">
         <v>2257</v>
@@ -84796,7 +84795,7 @@
         <v>73</v>
       </c>
       <c r="L727" t="s" s="2">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="M727" t="s" s="2">
         <v>2258</v>

--- a/r5-ELGA-e-medikation-main/all-profiles.xlsx
+++ b/r5-ELGA-e-medikation-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T05:49:30+00:00</t>
+    <t>2024-04-29T07:46:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -55502,7 +55502,7 @@
       </c>
       <c r="F450" s="2"/>
       <c r="G450" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H450" t="s" s="2">
         <v>82</v>

--- a/r5-ELGA-e-medikation-main/all-profiles.xlsx
+++ b/r5-ELGA-e-medikation-main/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24309" uniqueCount="2299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24414" uniqueCount="2309">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T14:03:26+00:00</t>
+    <t>2024-04-30T04:58:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5436,7 +5436,7 @@
     <t>MedicationRequest.note</t>
   </si>
   <si>
-    <t>Information about the prescription</t>
+    <t>CDA eMed v2: ZINFO || not machine readable Information about the MedicationRequests | nicht maschinenlesbare Informationen über die Verordnung</t>
   </si>
   <si>
     <t>Extra information about the prescription that could not be conveyed by the other attributes.</t>
@@ -5470,7 +5470,7 @@
 </t>
   </si>
   <si>
-    <t>Specific instructions for how the medication should be taken</t>
+    <t>One or more specific instructions for how the medication should be taken | Eine oder mehrere spezifische Anweisungen für die Einnahme des Medikaments</t>
   </si>
   <si>
     <t>Specific instructions for how the medication is to be used by the patient.</t>
@@ -5555,7 +5555,7 @@
     <t>MedicationRequest.dosageInstruction.patientInstruction</t>
   </si>
   <si>
-    <t>Patient or consumer oriented instructions</t>
+    <t>CDA eMed v2: ALTEIN || Patient or consumer oriented instructions | Patienten- oder verbraucherorientierte Anweisungen</t>
   </si>
   <si>
     <t>Instructions in terms that are understood by the patient or consumer.</t>
@@ -5571,7 +5571,7 @@
 </t>
   </si>
   <si>
-    <t>When medication should be administered | Wann Medikamente verabreicht werden sollten</t>
+    <t>When medication should be administered</t>
   </si>
   <si>
     <t>When medication should be administered.</t>
@@ -5874,7 +5874,7 @@
     <t>MedicationRequest.dosageInstruction.timing.repeat.when</t>
   </si>
   <si>
-    <t>Code for time period of occurrence</t>
+    <t>Code for time period of occurrence | Code für die Eintrittszeitspanne</t>
   </si>
   <si>
     <t>An approximate time period during the day, potentially linked to an event of daily living that indicates when the action should occur.</t>
@@ -5946,7 +5946,7 @@
     <t>MedicationRequest.dosageInstruction.asNeeded</t>
   </si>
   <si>
-    <t>Take "as needed"</t>
+    <t>Take 'as needed' | Bedarfsmedikation</t>
   </si>
   <si>
     <t>Indicates whether the Medication is only taken when needed within a specific dosing schedule (Boolean option).</t>
@@ -6154,7 +6154,7 @@
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].value</t>
   </si>
   <si>
-    <t>Numerical value (with implicit precision)</t>
+    <t>Quantity per intake | Menge pro Einnahme</t>
   </si>
   <si>
     <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
@@ -6202,7 +6202,7 @@
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].unit</t>
   </si>
   <si>
-    <t>Unit representation</t>
+    <t>Unit for quantity per intake | Einheit zur Menge pro Einnahme</t>
   </si>
   <si>
     <t>A human-readable form of the unit.</t>
@@ -6242,7 +6242,7 @@
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].code</t>
   </si>
   <si>
-    <t>ToDo look into last LINCA solution for doseQuantitiy</t>
+    <t>Coded form of the unit</t>
   </si>
   <si>
     <t>A computer processable form of the unit in some unit representation system.</t>
@@ -6252,9 +6252,6 @@
   </si>
   <si>
     <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>https://termgit.elga.gv.at/ValueSet/elga-medikationdarreichungsform</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -6284,13 +6281,38 @@
     <t>Dosage.doseAndRate.rate[x]</t>
   </si>
   <si>
-    <t>MedicationRequest.dosageInstruction.maxDosePerPeriod</t>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.rate[x]:rateRatio</t>
+  </si>
+  <si>
+    <t>rateRatio</t>
   </si>
   <si>
     <t xml:space="preserve">Ratio
 </t>
   </si>
   <si>
+    <t>Do not use any rate element for repetitions, period or any other time related information. Use timing instead. | Verwenden Sie für Wiederholungen, Perioden oder andere zeitbezogene Informationen keine der rate-Elemente. Verwenden Sie stattdessen timing.</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.rate[x]:rateRange</t>
+  </si>
+  <si>
+    <t>rateRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range
+</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.doseAndRate.rate[x]:rateQuantity</t>
+  </si>
+  <si>
+    <t>rateQuantity</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.maxDosePerPeriod</t>
+  </si>
+  <si>
     <t>Upper limit on medication per unit of time</t>
   </si>
   <si>
@@ -6427,7 +6449,7 @@
     <t>MedicationRequest.dispenseRequest.numberOfRepeatsAllowed</t>
   </si>
   <si>
-    <t>Number of refills authorized</t>
+    <t xml:space="preserve">	Number of refills authorized | Anzahl der genehmigten Einlösungen</t>
   </si>
   <si>
     <t>An integer indicating the number of times, in addition to the original dispense, (aka refills or repeats) that the patient can receive the prescribed medication. Usage Notes: This integer does not include the original order dispense. This means that if an order indicates dispense 30 tablets plus "3 repeats", then the order can be dispensed a total of 4 times and the patient can receive a total of 120 tablets.  A prescriber may explicitly say that zero refills are permitted after the initial dispense.</t>
@@ -6969,15 +6991,18 @@
     <t>MedicationDispense.dosageInstruction.patientInstruction</t>
   </si>
   <si>
+    <t>Patient or consumer oriented instructions</t>
+  </si>
+  <si>
     <t>MedicationDispense.dosageInstruction.timing</t>
   </si>
   <si>
-    <t>When medication should be administered</t>
-  </si>
-  <si>
     <t>MedicationDispense.dosageInstruction.asNeeded</t>
   </si>
   <si>
+    <t>Take "as needed"</t>
+  </si>
+  <si>
     <t>MedicationDispense.dosageInstruction.asNeededFor</t>
   </si>
   <si>
@@ -7026,6 +7051,9 @@
     <t>MedicationDispense.dosageInstruction.doseAndRate.dose[x].value</t>
   </si>
   <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
     <t>MedicationDispense.dosageInstruction.doseAndRate.dose[x]:doseQuantity.comparator</t>
   </si>
   <si>
@@ -7038,6 +7066,9 @@
     <t>MedicationDispense.dosageInstruction.doseAndRate.dose[x].unit</t>
   </si>
   <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
     <t>MedicationDispense.dosageInstruction.doseAndRate.dose[x]:doseQuantity.system</t>
   </si>
   <si>
@@ -7050,7 +7081,7 @@
     <t>MedicationDispense.dosageInstruction.doseAndRate.dose[x].code</t>
   </si>
   <si>
-    <t>Coded form of the unit</t>
+    <t>https://termgit.elga.gv.at/ValueSet/elga-medikationdarreichungsform</t>
   </si>
   <si>
     <t>MedicationDispense.dosageInstruction.doseAndRate.rate[x]</t>
@@ -8548,7 +8579,7 @@
         <v>2</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="166">
@@ -8556,7 +8587,7 @@
         <v>4</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>2110</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="167">
@@ -8572,7 +8603,7 @@
         <v>8</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>2111</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="169">
@@ -8580,7 +8611,7 @@
         <v>10</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>2112</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="170">
@@ -8626,7 +8657,7 @@
         <v>21</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>2113</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="176">
@@ -8662,7 +8693,7 @@
         <v>29</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>2114</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="181">
@@ -8670,7 +8701,7 @@
         <v>31</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>2115</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="182">
@@ -8696,7 +8727,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK729"/>
+  <dimension ref="A1:AK732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -73407,29 +73438,31 @@
         <v>73</v>
       </c>
       <c r="Y618" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="Z618" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z618" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA618" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB618" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC618" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD618" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE618" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF618" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG618" t="s" s="2">
         <v>2010</v>
-      </c>
-      <c r="AB618" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC618" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD618" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE618" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF618" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG618" t="s" s="2">
-        <v>2011</v>
       </c>
       <c r="AH618" t="s" s="2">
         <v>74</v>
@@ -73449,10 +73482,10 @@
         <v>1608</v>
       </c>
       <c r="B619" t="s" s="2">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C619" t="s" s="2">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D619" s="2"/>
       <c r="E619" t="s" s="2">
@@ -73475,19 +73508,19 @@
         <v>100</v>
       </c>
       <c r="L619" t="s" s="2">
+        <v>2012</v>
+      </c>
+      <c r="M619" t="s" s="2">
         <v>2013</v>
       </c>
-      <c r="M619" t="s" s="2">
+      <c r="N619" t="s" s="2">
         <v>2014</v>
       </c>
-      <c r="N619" t="s" s="2">
+      <c r="O619" t="s" s="2">
         <v>2015</v>
       </c>
-      <c r="O619" t="s" s="2">
+      <c r="P619" t="s" s="2">
         <v>2016</v>
-      </c>
-      <c r="P619" t="s" s="2">
-        <v>2017</v>
       </c>
       <c r="Q619" t="s" s="2">
         <v>73</v>
@@ -73524,19 +73557,17 @@
         <v>73</v>
       </c>
       <c r="AC619" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD619" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>697</v>
+      </c>
+      <c r="AD619" s="2"/>
       <c r="AE619" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF619" t="s" s="2">
-        <v>73</v>
+        <v>698</v>
       </c>
       <c r="AG619" t="s" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="AH619" t="s" s="2">
         <v>74</v>
@@ -73556,12 +73587,14 @@
         <v>1608</v>
       </c>
       <c r="B620" t="s" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C620" t="s" s="2">
+        <v>2011</v>
+      </c>
+      <c r="D620" t="s" s="2">
         <v>2019</v>
       </c>
-      <c r="C620" t="s" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D620" s="2"/>
       <c r="E620" t="s" s="2">
         <v>73</v>
       </c>
@@ -73570,7 +73603,7 @@
         <v>74</v>
       </c>
       <c r="H620" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I620" t="s" s="2">
         <v>73</v>
@@ -73588,13 +73621,13 @@
         <v>2021</v>
       </c>
       <c r="N620" t="s" s="2">
-        <v>2022</v>
+        <v>2014</v>
       </c>
       <c r="O620" t="s" s="2">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="P620" t="s" s="2">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="Q620" t="s" s="2">
         <v>73</v>
@@ -73643,13 +73676,13 @@
         <v>73</v>
       </c>
       <c r="AG620" t="s" s="2">
-        <v>2025</v>
+        <v>2017</v>
       </c>
       <c r="AH620" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI620" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AJ620" t="s" s="2">
         <v>73</v>
@@ -73663,12 +73696,14 @@
         <v>1608</v>
       </c>
       <c r="B621" t="s" s="2">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="C621" t="s" s="2">
-        <v>2026</v>
-      </c>
-      <c r="D621" s="2"/>
+        <v>2011</v>
+      </c>
+      <c r="D621" t="s" s="2">
+        <v>2023</v>
+      </c>
       <c r="E621" t="s" s="2">
         <v>73</v>
       </c>
@@ -73677,7 +73712,7 @@
         <v>74</v>
       </c>
       <c r="H621" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I621" t="s" s="2">
         <v>73</v>
@@ -73689,19 +73724,19 @@
         <v>100</v>
       </c>
       <c r="L621" t="s" s="2">
-        <v>1966</v>
+        <v>2024</v>
       </c>
       <c r="M621" t="s" s="2">
-        <v>2027</v>
+        <v>2013</v>
       </c>
       <c r="N621" t="s" s="2">
-        <v>2028</v>
+        <v>2014</v>
       </c>
       <c r="O621" t="s" s="2">
-        <v>2029</v>
+        <v>2015</v>
       </c>
       <c r="P621" t="s" s="2">
-        <v>2030</v>
+        <v>2016</v>
       </c>
       <c r="Q621" t="s" s="2">
         <v>73</v>
@@ -73750,7 +73785,7 @@
         <v>73</v>
       </c>
       <c r="AG621" t="s" s="2">
-        <v>2031</v>
+        <v>2017</v>
       </c>
       <c r="AH621" t="s" s="2">
         <v>74</v>
@@ -73770,12 +73805,14 @@
         <v>1608</v>
       </c>
       <c r="B622" t="s" s="2">
-        <v>2032</v>
+        <v>2025</v>
       </c>
       <c r="C622" t="s" s="2">
-        <v>2032</v>
-      </c>
-      <c r="D622" s="2"/>
+        <v>2011</v>
+      </c>
+      <c r="D622" t="s" s="2">
+        <v>2026</v>
+      </c>
       <c r="E622" t="s" s="2">
         <v>73</v>
       </c>
@@ -73784,7 +73821,7 @@
         <v>74</v>
       </c>
       <c r="H622" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I622" t="s" s="2">
         <v>73</v>
@@ -73793,20 +73830,22 @@
         <v>73</v>
       </c>
       <c r="K622" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="L622" t="s" s="2">
         <v>1966</v>
       </c>
       <c r="M622" t="s" s="2">
-        <v>2033</v>
+        <v>1967</v>
       </c>
       <c r="N622" t="s" s="2">
-        <v>2034</v>
-      </c>
-      <c r="O622" s="2"/>
+        <v>1968</v>
+      </c>
+      <c r="O622" t="s" s="2">
+        <v>1969</v>
+      </c>
       <c r="P622" t="s" s="2">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="Q622" t="s" s="2">
         <v>73</v>
@@ -73855,7 +73894,7 @@
         <v>73</v>
       </c>
       <c r="AG622" t="s" s="2">
-        <v>2036</v>
+        <v>2017</v>
       </c>
       <c r="AH622" t="s" s="2">
         <v>74</v>
@@ -73867,7 +73906,7 @@
         <v>73</v>
       </c>
       <c r="AK622" t="s" s="2">
-        <v>110</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="623">
@@ -73875,10 +73914,10 @@
         <v>1608</v>
       </c>
       <c r="B623" t="s" s="2">
-        <v>2037</v>
+        <v>2027</v>
       </c>
       <c r="C623" t="s" s="2">
-        <v>2037</v>
+        <v>2027</v>
       </c>
       <c r="D623" s="2"/>
       <c r="E623" t="s" s="2">
@@ -73889,7 +73928,7 @@
         <v>74</v>
       </c>
       <c r="H623" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I623" t="s" s="2">
         <v>73</v>
@@ -73898,19 +73937,23 @@
         <v>73</v>
       </c>
       <c r="K623" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="L623" t="s" s="2">
-        <v>762</v>
+        <v>2020</v>
       </c>
       <c r="M623" t="s" s="2">
-        <v>2038</v>
+        <v>2028</v>
       </c>
       <c r="N623" t="s" s="2">
-        <v>2039</v>
-      </c>
-      <c r="O623" s="2"/>
-      <c r="P623" s="2"/>
+        <v>2029</v>
+      </c>
+      <c r="O623" t="s" s="2">
+        <v>2030</v>
+      </c>
+      <c r="P623" t="s" s="2">
+        <v>2031</v>
+      </c>
       <c r="Q623" t="s" s="2">
         <v>73</v>
       </c>
@@ -73958,13 +74001,13 @@
         <v>73</v>
       </c>
       <c r="AG623" t="s" s="2">
-        <v>2037</v>
+        <v>2032</v>
       </c>
       <c r="AH623" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI623" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ623" t="s" s="2">
         <v>73</v>
@@ -73978,10 +74021,10 @@
         <v>1608</v>
       </c>
       <c r="B624" t="s" s="2">
-        <v>2040</v>
+        <v>2033</v>
       </c>
       <c r="C624" t="s" s="2">
-        <v>2040</v>
+        <v>2033</v>
       </c>
       <c r="D624" s="2"/>
       <c r="E624" t="s" s="2">
@@ -74001,19 +74044,23 @@
         <v>73</v>
       </c>
       <c r="K624" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="L624" t="s" s="2">
-        <v>119</v>
+        <v>1966</v>
       </c>
       <c r="M624" t="s" s="2">
-        <v>84</v>
+        <v>2034</v>
       </c>
       <c r="N624" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="O624" s="2"/>
-      <c r="P624" s="2"/>
+        <v>2035</v>
+      </c>
+      <c r="O624" t="s" s="2">
+        <v>2036</v>
+      </c>
+      <c r="P624" t="s" s="2">
+        <v>2037</v>
+      </c>
       <c r="Q624" t="s" s="2">
         <v>73</v>
       </c>
@@ -74061,7 +74108,7 @@
         <v>73</v>
       </c>
       <c r="AG624" t="s" s="2">
-        <v>86</v>
+        <v>2038</v>
       </c>
       <c r="AH624" t="s" s="2">
         <v>74</v>
@@ -74070,10 +74117,10 @@
         <v>82</v>
       </c>
       <c r="AJ624" t="s" s="2">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="AK624" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="625">
@@ -74081,21 +74128,21 @@
         <v>1608</v>
       </c>
       <c r="B625" t="s" s="2">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="C625" t="s" s="2">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="D625" s="2"/>
       <c r="E625" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F625" s="2"/>
       <c r="G625" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H625" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I625" t="s" s="2">
         <v>73</v>
@@ -74104,21 +74151,21 @@
         <v>73</v>
       </c>
       <c r="K625" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="L625" t="s" s="2">
-        <v>90</v>
+        <v>1966</v>
       </c>
       <c r="M625" t="s" s="2">
-        <v>91</v>
+        <v>2040</v>
       </c>
       <c r="N625" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O625" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="P625" s="2"/>
+        <v>2041</v>
+      </c>
+      <c r="O625" s="2"/>
+      <c r="P625" t="s" s="2">
+        <v>2042</v>
+      </c>
       <c r="Q625" t="s" s="2">
         <v>73</v>
       </c>
@@ -74166,19 +74213,19 @@
         <v>73</v>
       </c>
       <c r="AG625" t="s" s="2">
-        <v>97</v>
+        <v>2043</v>
       </c>
       <c r="AH625" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI625" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AJ625" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK625" t="s" s="2">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="626">
@@ -74186,46 +74233,42 @@
         <v>1608</v>
       </c>
       <c r="B626" t="s" s="2">
-        <v>2042</v>
+        <v>2044</v>
       </c>
       <c r="C626" t="s" s="2">
-        <v>2042</v>
+        <v>2044</v>
       </c>
       <c r="D626" s="2"/>
       <c r="E626" t="s" s="2">
-        <v>771</v>
+        <v>73</v>
       </c>
       <c r="F626" s="2"/>
       <c r="G626" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H626" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I626" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J626" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="K626" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="L626" t="s" s="2">
-        <v>90</v>
+        <v>762</v>
       </c>
       <c r="M626" t="s" s="2">
-        <v>772</v>
+        <v>2045</v>
       </c>
       <c r="N626" t="s" s="2">
-        <v>773</v>
-      </c>
-      <c r="O626" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="P626" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>2046</v>
+      </c>
+      <c r="O626" s="2"/>
+      <c r="P626" s="2"/>
       <c r="Q626" t="s" s="2">
         <v>73</v>
       </c>
@@ -74273,19 +74316,19 @@
         <v>73</v>
       </c>
       <c r="AG626" t="s" s="2">
-        <v>774</v>
+        <v>2044</v>
       </c>
       <c r="AH626" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI626" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AJ626" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK626" t="s" s="2">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="627">
@@ -74293,10 +74336,10 @@
         <v>1608</v>
       </c>
       <c r="B627" t="s" s="2">
-        <v>2043</v>
+        <v>2047</v>
       </c>
       <c r="C627" t="s" s="2">
-        <v>2043</v>
+        <v>2047</v>
       </c>
       <c r="D627" s="2"/>
       <c r="E627" t="s" s="2">
@@ -74319,17 +74362,15 @@
         <v>73</v>
       </c>
       <c r="L627" t="s" s="2">
-        <v>762</v>
+        <v>119</v>
       </c>
       <c r="M627" t="s" s="2">
-        <v>2044</v>
+        <v>84</v>
       </c>
       <c r="N627" t="s" s="2">
-        <v>2045</v>
-      </c>
-      <c r="O627" t="s" s="2">
-        <v>2046</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="O627" s="2"/>
       <c r="P627" s="2"/>
       <c r="Q627" t="s" s="2">
         <v>73</v>
@@ -74378,7 +74419,7 @@
         <v>73</v>
       </c>
       <c r="AG627" t="s" s="2">
-        <v>2043</v>
+        <v>86</v>
       </c>
       <c r="AH627" t="s" s="2">
         <v>74</v>
@@ -74387,10 +74428,10 @@
         <v>82</v>
       </c>
       <c r="AJ627" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="AK627" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="628">
@@ -74398,21 +74439,21 @@
         <v>1608</v>
       </c>
       <c r="B628" t="s" s="2">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="C628" t="s" s="2">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="D628" s="2"/>
       <c r="E628" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F628" s="2"/>
       <c r="G628" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H628" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I628" t="s" s="2">
         <v>73</v>
@@ -74424,15 +74465,17 @@
         <v>73</v>
       </c>
       <c r="L628" t="s" s="2">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="M628" t="s" s="2">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="N628" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="O628" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="O628" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="P628" s="2"/>
       <c r="Q628" t="s" s="2">
         <v>73</v>
@@ -74481,19 +74524,19 @@
         <v>73</v>
       </c>
       <c r="AG628" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AH628" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI628" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ628" t="s" s="2">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="AK628" t="s" s="2">
-        <v>73</v>
+        <v>98</v>
       </c>
     </row>
     <row r="629">
@@ -74501,14 +74544,14 @@
         <v>1608</v>
       </c>
       <c r="B629" t="s" s="2">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="C629" t="s" s="2">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="D629" s="2"/>
       <c r="E629" t="s" s="2">
-        <v>89</v>
+        <v>771</v>
       </c>
       <c r="F629" s="2"/>
       <c r="G629" t="s" s="2">
@@ -74521,24 +74564,26 @@
         <v>73</v>
       </c>
       <c r="J629" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="K629" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="L629" t="s" s="2">
         <v>90</v>
       </c>
       <c r="M629" t="s" s="2">
-        <v>91</v>
+        <v>772</v>
       </c>
       <c r="N629" t="s" s="2">
-        <v>92</v>
+        <v>773</v>
       </c>
       <c r="O629" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="P629" s="2"/>
+      <c r="P629" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="Q629" t="s" s="2">
         <v>73</v>
       </c>
@@ -74586,7 +74631,7 @@
         <v>73</v>
       </c>
       <c r="AG629" t="s" s="2">
-        <v>97</v>
+        <v>774</v>
       </c>
       <c r="AH629" t="s" s="2">
         <v>74</v>
@@ -74606,46 +74651,44 @@
         <v>1608</v>
       </c>
       <c r="B630" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="C630" t="s" s="2">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="D630" s="2"/>
       <c r="E630" t="s" s="2">
-        <v>771</v>
+        <v>73</v>
       </c>
       <c r="F630" s="2"/>
       <c r="G630" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H630" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I630" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J630" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="K630" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="L630" t="s" s="2">
-        <v>90</v>
+        <v>762</v>
       </c>
       <c r="M630" t="s" s="2">
-        <v>772</v>
+        <v>2051</v>
       </c>
       <c r="N630" t="s" s="2">
-        <v>773</v>
+        <v>2052</v>
       </c>
       <c r="O630" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="P630" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>2053</v>
+      </c>
+      <c r="P630" s="2"/>
       <c r="Q630" t="s" s="2">
         <v>73</v>
       </c>
@@ -74693,19 +74736,19 @@
         <v>73</v>
       </c>
       <c r="AG630" t="s" s="2">
-        <v>774</v>
+        <v>2050</v>
       </c>
       <c r="AH630" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI630" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AJ630" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK630" t="s" s="2">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="631">
@@ -74713,10 +74756,10 @@
         <v>1608</v>
       </c>
       <c r="B631" t="s" s="2">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="C631" t="s" s="2">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="D631" s="2"/>
       <c r="E631" t="s" s="2">
@@ -74739,13 +74782,13 @@
         <v>73</v>
       </c>
       <c r="L631" t="s" s="2">
-        <v>1966</v>
+        <v>119</v>
       </c>
       <c r="M631" t="s" s="2">
-        <v>2051</v>
+        <v>84</v>
       </c>
       <c r="N631" t="s" s="2">
-        <v>2052</v>
+        <v>85</v>
       </c>
       <c r="O631" s="2"/>
       <c r="P631" s="2"/>
@@ -74796,7 +74839,7 @@
         <v>73</v>
       </c>
       <c r="AG631" t="s" s="2">
-        <v>2050</v>
+        <v>86</v>
       </c>
       <c r="AH631" t="s" s="2">
         <v>74</v>
@@ -74805,10 +74848,10 @@
         <v>82</v>
       </c>
       <c r="AJ631" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="AK631" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="632">
@@ -74816,21 +74859,21 @@
         <v>1608</v>
       </c>
       <c r="B632" t="s" s="2">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="C632" t="s" s="2">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="D632" s="2"/>
       <c r="E632" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F632" s="2"/>
       <c r="G632" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H632" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I632" t="s" s="2">
         <v>73</v>
@@ -74842,15 +74885,17 @@
         <v>73</v>
       </c>
       <c r="L632" t="s" s="2">
-        <v>2054</v>
+        <v>90</v>
       </c>
       <c r="M632" t="s" s="2">
-        <v>2055</v>
+        <v>91</v>
       </c>
       <c r="N632" t="s" s="2">
-        <v>2056</v>
-      </c>
-      <c r="O632" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="O632" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="P632" s="2"/>
       <c r="Q632" t="s" s="2">
         <v>73</v>
@@ -74899,19 +74944,19 @@
         <v>73</v>
       </c>
       <c r="AG632" t="s" s="2">
-        <v>2053</v>
+        <v>97</v>
       </c>
       <c r="AH632" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI632" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ632" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK632" t="s" s="2">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="633">
@@ -74919,42 +74964,46 @@
         <v>1608</v>
       </c>
       <c r="B633" t="s" s="2">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="C633" t="s" s="2">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="D633" s="2"/>
       <c r="E633" t="s" s="2">
-        <v>73</v>
+        <v>771</v>
       </c>
       <c r="F633" s="2"/>
       <c r="G633" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H633" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I633" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J633" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="K633" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="L633" t="s" s="2">
-        <v>2054</v>
+        <v>90</v>
       </c>
       <c r="M633" t="s" s="2">
-        <v>2058</v>
+        <v>772</v>
       </c>
       <c r="N633" t="s" s="2">
-        <v>2059</v>
-      </c>
-      <c r="O633" s="2"/>
-      <c r="P633" s="2"/>
+        <v>773</v>
+      </c>
+      <c r="O633" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="P633" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="Q633" t="s" s="2">
         <v>73</v>
       </c>
@@ -75002,19 +75051,19 @@
         <v>73</v>
       </c>
       <c r="AG633" t="s" s="2">
-        <v>2057</v>
+        <v>774</v>
       </c>
       <c r="AH633" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI633" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ633" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK633" t="s" s="2">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="634">
@@ -75022,10 +75071,10 @@
         <v>1608</v>
       </c>
       <c r="B634" t="s" s="2">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="C634" t="s" s="2">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="D634" s="2"/>
       <c r="E634" t="s" s="2">
@@ -75048,20 +75097,16 @@
         <v>73</v>
       </c>
       <c r="L634" t="s" s="2">
-        <v>184</v>
+        <v>1966</v>
       </c>
       <c r="M634" t="s" s="2">
-        <v>2061</v>
+        <v>2058</v>
       </c>
       <c r="N634" t="s" s="2">
-        <v>2062</v>
-      </c>
-      <c r="O634" t="s" s="2">
-        <v>2063</v>
-      </c>
-      <c r="P634" t="s" s="2">
-        <v>2064</v>
-      </c>
+        <v>2059</v>
+      </c>
+      <c r="O634" s="2"/>
+      <c r="P634" s="2"/>
       <c r="Q634" t="s" s="2">
         <v>73</v>
       </c>
@@ -75109,7 +75154,7 @@
         <v>73</v>
       </c>
       <c r="AG634" t="s" s="2">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="AH634" t="s" s="2">
         <v>74</v>
@@ -75129,10 +75174,10 @@
         <v>1608</v>
       </c>
       <c r="B635" t="s" s="2">
-        <v>2065</v>
+        <v>2060</v>
       </c>
       <c r="C635" t="s" s="2">
-        <v>2065</v>
+        <v>2060</v>
       </c>
       <c r="D635" s="2"/>
       <c r="E635" t="s" s="2">
@@ -75155,17 +75200,15 @@
         <v>73</v>
       </c>
       <c r="L635" t="s" s="2">
-        <v>1895</v>
+        <v>2061</v>
       </c>
       <c r="M635" t="s" s="2">
-        <v>2066</v>
+        <v>2062</v>
       </c>
       <c r="N635" t="s" s="2">
-        <v>2067</v>
-      </c>
-      <c r="O635" t="s" s="2">
-        <v>2068</v>
-      </c>
+        <v>2063</v>
+      </c>
+      <c r="O635" s="2"/>
       <c r="P635" s="2"/>
       <c r="Q635" t="s" s="2">
         <v>73</v>
@@ -75214,7 +75257,7 @@
         <v>73</v>
       </c>
       <c r="AG635" t="s" s="2">
-        <v>2065</v>
+        <v>2060</v>
       </c>
       <c r="AH635" t="s" s="2">
         <v>74</v>
@@ -75234,10 +75277,10 @@
         <v>1608</v>
       </c>
       <c r="B636" t="s" s="2">
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="C636" t="s" s="2">
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="D636" s="2"/>
       <c r="E636" t="s" s="2">
@@ -75260,13 +75303,13 @@
         <v>73</v>
       </c>
       <c r="L636" t="s" s="2">
-        <v>1966</v>
+        <v>2061</v>
       </c>
       <c r="M636" t="s" s="2">
-        <v>2070</v>
+        <v>2065</v>
       </c>
       <c r="N636" t="s" s="2">
-        <v>2071</v>
+        <v>2066</v>
       </c>
       <c r="O636" s="2"/>
       <c r="P636" s="2"/>
@@ -75317,7 +75360,7 @@
         <v>73</v>
       </c>
       <c r="AG636" t="s" s="2">
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="AH636" t="s" s="2">
         <v>74</v>
@@ -75337,10 +75380,10 @@
         <v>1608</v>
       </c>
       <c r="B637" t="s" s="2">
-        <v>2072</v>
+        <v>2067</v>
       </c>
       <c r="C637" t="s" s="2">
-        <v>2072</v>
+        <v>2067</v>
       </c>
       <c r="D637" s="2"/>
       <c r="E637" t="s" s="2">
@@ -75363,18 +75406,20 @@
         <v>73</v>
       </c>
       <c r="L637" t="s" s="2">
-        <v>2054</v>
+        <v>184</v>
       </c>
       <c r="M637" t="s" s="2">
-        <v>2073</v>
+        <v>2068</v>
       </c>
       <c r="N637" t="s" s="2">
-        <v>2074</v>
+        <v>2069</v>
       </c>
       <c r="O637" t="s" s="2">
-        <v>2075</v>
-      </c>
-      <c r="P637" s="2"/>
+        <v>2070</v>
+      </c>
+      <c r="P637" t="s" s="2">
+        <v>2071</v>
+      </c>
       <c r="Q637" t="s" s="2">
         <v>73</v>
       </c>
@@ -75422,7 +75467,7 @@
         <v>73</v>
       </c>
       <c r="AG637" t="s" s="2">
-        <v>2072</v>
+        <v>2067</v>
       </c>
       <c r="AH637" t="s" s="2">
         <v>74</v>
@@ -75442,10 +75487,10 @@
         <v>1608</v>
       </c>
       <c r="B638" t="s" s="2">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="C638" t="s" s="2">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="D638" s="2"/>
       <c r="E638" t="s" s="2">
@@ -75468,15 +75513,17 @@
         <v>73</v>
       </c>
       <c r="L638" t="s" s="2">
-        <v>455</v>
+        <v>1895</v>
       </c>
       <c r="M638" t="s" s="2">
-        <v>2077</v>
+        <v>2073</v>
       </c>
       <c r="N638" t="s" s="2">
-        <v>2078</v>
-      </c>
-      <c r="O638" s="2"/>
+        <v>2074</v>
+      </c>
+      <c r="O638" t="s" s="2">
+        <v>2075</v>
+      </c>
       <c r="P638" s="2"/>
       <c r="Q638" t="s" s="2">
         <v>73</v>
@@ -75525,7 +75572,7 @@
         <v>73</v>
       </c>
       <c r="AG638" t="s" s="2">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="AH638" t="s" s="2">
         <v>74</v>
@@ -75545,10 +75592,10 @@
         <v>1608</v>
       </c>
       <c r="B639" t="s" s="2">
-        <v>2079</v>
+        <v>2076</v>
       </c>
       <c r="C639" t="s" s="2">
-        <v>2079</v>
+        <v>2076</v>
       </c>
       <c r="D639" s="2"/>
       <c r="E639" t="s" s="2">
@@ -75559,7 +75606,7 @@
         <v>74</v>
       </c>
       <c r="H639" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I639" t="s" s="2">
         <v>73</v>
@@ -75571,13 +75618,13 @@
         <v>73</v>
       </c>
       <c r="L639" t="s" s="2">
-        <v>1396</v>
+        <v>1966</v>
       </c>
       <c r="M639" t="s" s="2">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="N639" t="s" s="2">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="O639" s="2"/>
       <c r="P639" s="2"/>
@@ -75628,13 +75675,13 @@
         <v>73</v>
       </c>
       <c r="AG639" t="s" s="2">
-        <v>2079</v>
+        <v>2076</v>
       </c>
       <c r="AH639" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI639" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AJ639" t="s" s="2">
         <v>73</v>
@@ -75648,10 +75695,10 @@
         <v>1608</v>
       </c>
       <c r="B640" t="s" s="2">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="C640" t="s" s="2">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="D640" s="2"/>
       <c r="E640" t="s" s="2">
@@ -75674,15 +75721,17 @@
         <v>73</v>
       </c>
       <c r="L640" t="s" s="2">
-        <v>224</v>
+        <v>2061</v>
       </c>
       <c r="M640" t="s" s="2">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="N640" t="s" s="2">
-        <v>2084</v>
-      </c>
-      <c r="O640" s="2"/>
+        <v>2081</v>
+      </c>
+      <c r="O640" t="s" s="2">
+        <v>2082</v>
+      </c>
       <c r="P640" s="2"/>
       <c r="Q640" t="s" s="2">
         <v>73</v>
@@ -75707,11 +75756,13 @@
         <v>73</v>
       </c>
       <c r="Y640" t="s" s="2">
-        <v>1026</v>
-      </c>
-      <c r="Z640" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z640" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA640" t="s" s="2">
-        <v>2085</v>
+        <v>73</v>
       </c>
       <c r="AB640" t="s" s="2">
         <v>73</v>
@@ -75729,7 +75780,7 @@
         <v>73</v>
       </c>
       <c r="AG640" t="s" s="2">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="AH640" t="s" s="2">
         <v>74</v>
@@ -75749,10 +75800,10 @@
         <v>1608</v>
       </c>
       <c r="B641" t="s" s="2">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="C641" t="s" s="2">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="D641" s="2"/>
       <c r="E641" t="s" s="2">
@@ -75775,13 +75826,13 @@
         <v>73</v>
       </c>
       <c r="L641" t="s" s="2">
-        <v>762</v>
+        <v>455</v>
       </c>
       <c r="M641" t="s" s="2">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="N641" t="s" s="2">
-        <v>2088</v>
+        <v>2085</v>
       </c>
       <c r="O641" s="2"/>
       <c r="P641" s="2"/>
@@ -75832,7 +75883,7 @@
         <v>73</v>
       </c>
       <c r="AG641" t="s" s="2">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="AH641" t="s" s="2">
         <v>74</v>
@@ -75852,10 +75903,10 @@
         <v>1608</v>
       </c>
       <c r="B642" t="s" s="2">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="C642" t="s" s="2">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="D642" s="2"/>
       <c r="E642" t="s" s="2">
@@ -75866,7 +75917,7 @@
         <v>74</v>
       </c>
       <c r="H642" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I642" t="s" s="2">
         <v>73</v>
@@ -75878,13 +75929,13 @@
         <v>73</v>
       </c>
       <c r="L642" t="s" s="2">
-        <v>119</v>
+        <v>1396</v>
       </c>
       <c r="M642" t="s" s="2">
-        <v>84</v>
+        <v>2087</v>
       </c>
       <c r="N642" t="s" s="2">
-        <v>85</v>
+        <v>2088</v>
       </c>
       <c r="O642" s="2"/>
       <c r="P642" s="2"/>
@@ -75935,19 +75986,19 @@
         <v>73</v>
       </c>
       <c r="AG642" t="s" s="2">
-        <v>86</v>
+        <v>2086</v>
       </c>
       <c r="AH642" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI642" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ642" t="s" s="2">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="AK642" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="643">
@@ -75955,21 +76006,21 @@
         <v>1608</v>
       </c>
       <c r="B643" t="s" s="2">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="C643" t="s" s="2">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="D643" s="2"/>
       <c r="E643" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F643" s="2"/>
       <c r="G643" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H643" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I643" t="s" s="2">
         <v>73</v>
@@ -75981,17 +76032,15 @@
         <v>73</v>
       </c>
       <c r="L643" t="s" s="2">
-        <v>90</v>
+        <v>224</v>
       </c>
       <c r="M643" t="s" s="2">
-        <v>91</v>
+        <v>2090</v>
       </c>
       <c r="N643" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O643" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>2091</v>
+      </c>
+      <c r="O643" s="2"/>
       <c r="P643" s="2"/>
       <c r="Q643" t="s" s="2">
         <v>73</v>
@@ -76016,13 +76065,11 @@
         <v>73</v>
       </c>
       <c r="Y643" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z643" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>1026</v>
+      </c>
+      <c r="Z643" s="2"/>
       <c r="AA643" t="s" s="2">
-        <v>73</v>
+        <v>2092</v>
       </c>
       <c r="AB643" t="s" s="2">
         <v>73</v>
@@ -76040,19 +76087,19 @@
         <v>73</v>
       </c>
       <c r="AG643" t="s" s="2">
-        <v>97</v>
+        <v>2089</v>
       </c>
       <c r="AH643" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI643" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AJ643" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK643" t="s" s="2">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="644">
@@ -76060,46 +76107,42 @@
         <v>1608</v>
       </c>
       <c r="B644" t="s" s="2">
-        <v>2091</v>
+        <v>2093</v>
       </c>
       <c r="C644" t="s" s="2">
-        <v>2091</v>
+        <v>2093</v>
       </c>
       <c r="D644" s="2"/>
       <c r="E644" t="s" s="2">
-        <v>771</v>
+        <v>73</v>
       </c>
       <c r="F644" s="2"/>
       <c r="G644" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H644" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I644" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J644" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="K644" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="L644" t="s" s="2">
-        <v>90</v>
+        <v>762</v>
       </c>
       <c r="M644" t="s" s="2">
-        <v>772</v>
+        <v>2094</v>
       </c>
       <c r="N644" t="s" s="2">
-        <v>773</v>
-      </c>
-      <c r="O644" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="P644" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>2095</v>
+      </c>
+      <c r="O644" s="2"/>
+      <c r="P644" s="2"/>
       <c r="Q644" t="s" s="2">
         <v>73</v>
       </c>
@@ -76147,19 +76190,19 @@
         <v>73</v>
       </c>
       <c r="AG644" t="s" s="2">
-        <v>774</v>
+        <v>2093</v>
       </c>
       <c r="AH644" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI644" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AJ644" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK644" t="s" s="2">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="645">
@@ -76167,10 +76210,10 @@
         <v>1608</v>
       </c>
       <c r="B645" t="s" s="2">
-        <v>2092</v>
+        <v>2096</v>
       </c>
       <c r="C645" t="s" s="2">
-        <v>2092</v>
+        <v>2096</v>
       </c>
       <c r="D645" s="2"/>
       <c r="E645" t="s" s="2">
@@ -76178,7 +76221,7 @@
       </c>
       <c r="F645" s="2"/>
       <c r="G645" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H645" t="s" s="2">
         <v>82</v>
@@ -76193,17 +76236,15 @@
         <v>73</v>
       </c>
       <c r="L645" t="s" s="2">
-        <v>2093</v>
+        <v>119</v>
       </c>
       <c r="M645" t="s" s="2">
-        <v>2094</v>
+        <v>84</v>
       </c>
       <c r="N645" t="s" s="2">
-        <v>2095</v>
-      </c>
-      <c r="O645" t="s" s="2">
-        <v>2096</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="O645" s="2"/>
       <c r="P645" s="2"/>
       <c r="Q645" t="s" s="2">
         <v>73</v>
@@ -76228,13 +76269,13 @@
         <v>73</v>
       </c>
       <c r="Y645" t="s" s="2">
-        <v>1904</v>
+        <v>73</v>
       </c>
       <c r="Z645" t="s" s="2">
-        <v>2097</v>
+        <v>73</v>
       </c>
       <c r="AA645" t="s" s="2">
-        <v>2098</v>
+        <v>73</v>
       </c>
       <c r="AB645" t="s" s="2">
         <v>73</v>
@@ -76252,19 +76293,19 @@
         <v>73</v>
       </c>
       <c r="AG645" t="s" s="2">
-        <v>2092</v>
+        <v>86</v>
       </c>
       <c r="AH645" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AI645" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ645" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="AK645" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="646">
@@ -76272,21 +76313,21 @@
         <v>1608</v>
       </c>
       <c r="B646" t="s" s="2">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="C646" t="s" s="2">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="D646" s="2"/>
       <c r="E646" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F646" s="2"/>
       <c r="G646" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H646" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I646" t="s" s="2">
         <v>73</v>
@@ -76298,15 +76339,17 @@
         <v>73</v>
       </c>
       <c r="L646" t="s" s="2">
-        <v>224</v>
+        <v>90</v>
       </c>
       <c r="M646" t="s" s="2">
-        <v>2100</v>
+        <v>91</v>
       </c>
       <c r="N646" t="s" s="2">
-        <v>2101</v>
-      </c>
-      <c r="O646" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="O646" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="P646" s="2"/>
       <c r="Q646" t="s" s="2">
         <v>73</v>
@@ -76331,13 +76374,13 @@
         <v>73</v>
       </c>
       <c r="Y646" t="s" s="2">
-        <v>1026</v>
+        <v>73</v>
       </c>
       <c r="Z646" t="s" s="2">
-        <v>2102</v>
+        <v>73</v>
       </c>
       <c r="AA646" t="s" s="2">
-        <v>2103</v>
+        <v>73</v>
       </c>
       <c r="AB646" t="s" s="2">
         <v>73</v>
@@ -76355,19 +76398,19 @@
         <v>73</v>
       </c>
       <c r="AG646" t="s" s="2">
-        <v>2099</v>
+        <v>97</v>
       </c>
       <c r="AH646" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI646" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ646" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK646" t="s" s="2">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="647">
@@ -76375,14 +76418,14 @@
         <v>1608</v>
       </c>
       <c r="B647" t="s" s="2">
-        <v>2104</v>
+        <v>2098</v>
       </c>
       <c r="C647" t="s" s="2">
-        <v>2104</v>
+        <v>2098</v>
       </c>
       <c r="D647" s="2"/>
       <c r="E647" t="s" s="2">
-        <v>73</v>
+        <v>771</v>
       </c>
       <c r="F647" s="2"/>
       <c r="G647" t="s" s="2">
@@ -76395,24 +76438,26 @@
         <v>73</v>
       </c>
       <c r="J647" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="K647" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="L647" t="s" s="2">
-        <v>2105</v>
+        <v>90</v>
       </c>
       <c r="M647" t="s" s="2">
-        <v>2106</v>
+        <v>772</v>
       </c>
       <c r="N647" t="s" s="2">
-        <v>2107</v>
+        <v>773</v>
       </c>
       <c r="O647" t="s" s="2">
-        <v>2108</v>
-      </c>
-      <c r="P647" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="P647" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="Q647" t="s" s="2">
         <v>73</v>
       </c>
@@ -76460,7 +76505,7 @@
         <v>73</v>
       </c>
       <c r="AG647" t="s" s="2">
-        <v>2104</v>
+        <v>774</v>
       </c>
       <c r="AH647" t="s" s="2">
         <v>74</v>
@@ -76472,18 +76517,18 @@
         <v>73</v>
       </c>
       <c r="AK647" t="s" s="2">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="s" s="2">
-        <v>2109</v>
+        <v>1608</v>
       </c>
       <c r="B648" t="s" s="2">
-        <v>2114</v>
+        <v>2099</v>
       </c>
       <c r="C648" t="s" s="2">
-        <v>2114</v>
+        <v>2099</v>
       </c>
       <c r="D648" s="2"/>
       <c r="E648" t="s" s="2">
@@ -76491,10 +76536,10 @@
       </c>
       <c r="F648" s="2"/>
       <c r="G648" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H648" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I648" t="s" s="2">
         <v>73</v>
@@ -76506,15 +76551,17 @@
         <v>73</v>
       </c>
       <c r="L648" t="s" s="2">
-        <v>76</v>
+        <v>2100</v>
       </c>
       <c r="M648" t="s" s="2">
-        <v>2116</v>
+        <v>2101</v>
       </c>
       <c r="N648" t="s" s="2">
-        <v>2117</v>
-      </c>
-      <c r="O648" s="2"/>
+        <v>2102</v>
+      </c>
+      <c r="O648" t="s" s="2">
+        <v>2103</v>
+      </c>
       <c r="P648" s="2"/>
       <c r="Q648" t="s" s="2">
         <v>73</v>
@@ -76539,13 +76586,13 @@
         <v>73</v>
       </c>
       <c r="Y648" t="s" s="2">
-        <v>73</v>
+        <v>1904</v>
       </c>
       <c r="Z648" t="s" s="2">
-        <v>73</v>
+        <v>2104</v>
       </c>
       <c r="AA648" t="s" s="2">
-        <v>73</v>
+        <v>2105</v>
       </c>
       <c r="AB648" t="s" s="2">
         <v>73</v>
@@ -76563,30 +76610,30 @@
         <v>73</v>
       </c>
       <c r="AG648" t="s" s="2">
-        <v>2114</v>
+        <v>2099</v>
       </c>
       <c r="AH648" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AI648" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AJ648" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK648" t="s" s="2">
-        <v>2118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="s" s="2">
-        <v>2109</v>
+        <v>1608</v>
       </c>
       <c r="B649" t="s" s="2">
-        <v>2119</v>
+        <v>2106</v>
       </c>
       <c r="C649" t="s" s="2">
-        <v>2119</v>
+        <v>2106</v>
       </c>
       <c r="D649" s="2"/>
       <c r="E649" t="s" s="2">
@@ -76606,20 +76653,18 @@
         <v>73</v>
       </c>
       <c r="K649" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="L649" t="s" s="2">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="M649" t="s" s="2">
-        <v>312</v>
+        <v>2107</v>
       </c>
       <c r="N649" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O649" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>2108</v>
+      </c>
+      <c r="O649" s="2"/>
       <c r="P649" s="2"/>
       <c r="Q649" t="s" s="2">
         <v>73</v>
@@ -76644,13 +76689,13 @@
         <v>73</v>
       </c>
       <c r="Y649" t="s" s="2">
-        <v>73</v>
+        <v>1026</v>
       </c>
       <c r="Z649" t="s" s="2">
-        <v>73</v>
+        <v>2109</v>
       </c>
       <c r="AA649" t="s" s="2">
-        <v>73</v>
+        <v>2110</v>
       </c>
       <c r="AB649" t="s" s="2">
         <v>73</v>
@@ -76668,7 +76713,7 @@
         <v>73</v>
       </c>
       <c r="AG649" t="s" s="2">
-        <v>315</v>
+        <v>2106</v>
       </c>
       <c r="AH649" t="s" s="2">
         <v>74</v>
@@ -76680,18 +76725,18 @@
         <v>73</v>
       </c>
       <c r="AK649" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="s" s="2">
-        <v>2109</v>
+        <v>1608</v>
       </c>
       <c r="B650" t="s" s="2">
-        <v>2120</v>
+        <v>2111</v>
       </c>
       <c r="C650" t="s" s="2">
-        <v>2120</v>
+        <v>2111</v>
       </c>
       <c r="D650" s="2"/>
       <c r="E650" t="s" s="2">
@@ -76702,7 +76747,7 @@
         <v>74</v>
       </c>
       <c r="H650" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I650" t="s" s="2">
         <v>73</v>
@@ -76711,18 +76756,20 @@
         <v>73</v>
       </c>
       <c r="K650" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="L650" t="s" s="2">
-        <v>317</v>
+        <v>2112</v>
       </c>
       <c r="M650" t="s" s="2">
-        <v>318</v>
+        <v>2113</v>
       </c>
       <c r="N650" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O650" s="2"/>
+        <v>2114</v>
+      </c>
+      <c r="O650" t="s" s="2">
+        <v>2115</v>
+      </c>
       <c r="P650" s="2"/>
       <c r="Q650" t="s" s="2">
         <v>73</v>
@@ -76771,13 +76818,13 @@
         <v>73</v>
       </c>
       <c r="AG650" t="s" s="2">
-        <v>320</v>
+        <v>2111</v>
       </c>
       <c r="AH650" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI650" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ650" t="s" s="2">
         <v>73</v>
@@ -76788,7 +76835,7 @@
     </row>
     <row r="651">
       <c r="A651" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B651" t="s" s="2">
         <v>2121</v>
@@ -76805,29 +76852,27 @@
         <v>74</v>
       </c>
       <c r="H651" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I651" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J651" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="K651" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="L651" t="s" s="2">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="M651" t="s" s="2">
-        <v>322</v>
+        <v>2123</v>
       </c>
       <c r="N651" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O651" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>2124</v>
+      </c>
+      <c r="O651" s="2"/>
       <c r="P651" s="2"/>
       <c r="Q651" t="s" s="2">
         <v>73</v>
@@ -76876,30 +76921,30 @@
         <v>73</v>
       </c>
       <c r="AG651" t="s" s="2">
-        <v>325</v>
+        <v>2121</v>
       </c>
       <c r="AH651" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI651" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ651" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK651" t="s" s="2">
-        <v>110</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B652" t="s" s="2">
-        <v>2122</v>
+        <v>2126</v>
       </c>
       <c r="C652" t="s" s="2">
-        <v>2122</v>
+        <v>2126</v>
       </c>
       <c r="D652" s="2"/>
       <c r="E652" t="s" s="2">
@@ -76919,19 +76964,19 @@
         <v>73</v>
       </c>
       <c r="K652" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="L652" t="s" s="2">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="M652" t="s" s="2">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="N652" t="s" s="2">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="O652" t="s" s="2">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="P652" s="2"/>
       <c r="Q652" t="s" s="2">
@@ -76957,13 +77002,13 @@
         <v>73</v>
       </c>
       <c r="Y652" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="Z652" t="s" s="2">
-        <v>330</v>
+        <v>73</v>
       </c>
       <c r="AA652" t="s" s="2">
-        <v>331</v>
+        <v>73</v>
       </c>
       <c r="AB652" t="s" s="2">
         <v>73</v>
@@ -76981,7 +77026,7 @@
         <v>73</v>
       </c>
       <c r="AG652" t="s" s="2">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="AH652" t="s" s="2">
         <v>74</v>
@@ -76993,22 +77038,22 @@
         <v>73</v>
       </c>
       <c r="AK652" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B653" t="s" s="2">
-        <v>2123</v>
+        <v>2127</v>
       </c>
       <c r="C653" t="s" s="2">
-        <v>2123</v>
+        <v>2127</v>
       </c>
       <c r="D653" s="2"/>
       <c r="E653" t="s" s="2">
-        <v>334</v>
+        <v>73</v>
       </c>
       <c r="F653" s="2"/>
       <c r="G653" t="s" s="2">
@@ -77024,20 +77069,18 @@
         <v>73</v>
       </c>
       <c r="K653" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="L653" t="s" s="2">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="M653" t="s" s="2">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="N653" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O653" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="O653" s="2"/>
       <c r="P653" s="2"/>
       <c r="Q653" t="s" s="2">
         <v>73</v>
@@ -77086,7 +77129,7 @@
         <v>73</v>
       </c>
       <c r="AG653" t="s" s="2">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="AH653" t="s" s="2">
         <v>74</v>
@@ -77095,7 +77138,7 @@
         <v>82</v>
       </c>
       <c r="AJ653" t="s" s="2">
-        <v>340</v>
+        <v>73</v>
       </c>
       <c r="AK653" t="s" s="2">
         <v>110</v>
@@ -77103,45 +77146,45 @@
     </row>
     <row r="654">
       <c r="A654" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B654" t="s" s="2">
-        <v>2124</v>
+        <v>2128</v>
       </c>
       <c r="C654" t="s" s="2">
-        <v>2124</v>
+        <v>2128</v>
       </c>
       <c r="D654" s="2"/>
       <c r="E654" t="s" s="2">
-        <v>342</v>
+        <v>73</v>
       </c>
       <c r="F654" s="2"/>
       <c r="G654" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H654" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I654" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J654" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="K654" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="L654" t="s" s="2">
-        <v>343</v>
+        <v>200</v>
       </c>
       <c r="M654" t="s" s="2">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="N654" t="s" s="2">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="O654" t="s" s="2">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="P654" s="2"/>
       <c r="Q654" t="s" s="2">
@@ -77191,41 +77234,41 @@
         <v>73</v>
       </c>
       <c r="AG654" t="s" s="2">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="AH654" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI654" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AJ654" t="s" s="2">
-        <v>348</v>
+        <v>73</v>
       </c>
       <c r="AK654" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B655" t="s" s="2">
-        <v>2125</v>
+        <v>2129</v>
       </c>
       <c r="C655" t="s" s="2">
-        <v>2125</v>
+        <v>2129</v>
       </c>
       <c r="D655" s="2"/>
       <c r="E655" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F655" s="2"/>
       <c r="G655" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H655" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I655" t="s" s="2">
         <v>73</v>
@@ -77237,16 +77280,16 @@
         <v>73</v>
       </c>
       <c r="L655" t="s" s="2">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="M655" t="s" s="2">
-        <v>91</v>
+        <v>327</v>
       </c>
       <c r="N655" t="s" s="2">
-        <v>911</v>
+        <v>328</v>
       </c>
       <c r="O655" t="s" s="2">
-        <v>93</v>
+        <v>329</v>
       </c>
       <c r="P655" s="2"/>
       <c r="Q655" t="s" s="2">
@@ -77272,13 +77315,13 @@
         <v>73</v>
       </c>
       <c r="Y655" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="Z655" t="s" s="2">
-        <v>73</v>
+        <v>330</v>
       </c>
       <c r="AA655" t="s" s="2">
-        <v>73</v>
+        <v>331</v>
       </c>
       <c r="AB655" t="s" s="2">
         <v>73</v>
@@ -77296,66 +77339,64 @@
         <v>73</v>
       </c>
       <c r="AG655" t="s" s="2">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="AH655" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI655" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AJ655" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK655" t="s" s="2">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B656" t="s" s="2">
-        <v>2126</v>
+        <v>2130</v>
       </c>
       <c r="C656" t="s" s="2">
-        <v>2126</v>
+        <v>2130</v>
       </c>
       <c r="D656" s="2"/>
       <c r="E656" t="s" s="2">
-        <v>89</v>
+        <v>334</v>
       </c>
       <c r="F656" s="2"/>
       <c r="G656" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H656" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I656" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J656" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="K656" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="L656" t="s" s="2">
-        <v>90</v>
+        <v>335</v>
       </c>
       <c r="M656" t="s" s="2">
-        <v>409</v>
+        <v>336</v>
       </c>
       <c r="N656" t="s" s="2">
-        <v>410</v>
+        <v>337</v>
       </c>
       <c r="O656" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="P656" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="P656" s="2"/>
       <c r="Q656" t="s" s="2">
         <v>73</v>
       </c>
@@ -77403,34 +77444,34 @@
         <v>73</v>
       </c>
       <c r="AG656" t="s" s="2">
-        <v>412</v>
+        <v>339</v>
       </c>
       <c r="AH656" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI656" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AJ656" t="s" s="2">
-        <v>73</v>
+        <v>340</v>
       </c>
       <c r="AK656" t="s" s="2">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B657" t="s" s="2">
-        <v>2127</v>
+        <v>2131</v>
       </c>
       <c r="C657" t="s" s="2">
-        <v>2127</v>
+        <v>2131</v>
       </c>
       <c r="D657" s="2"/>
       <c r="E657" t="s" s="2">
-        <v>73</v>
+        <v>342</v>
       </c>
       <c r="F657" s="2"/>
       <c r="G657" t="s" s="2">
@@ -77449,16 +77490,16 @@
         <v>73</v>
       </c>
       <c r="L657" t="s" s="2">
-        <v>414</v>
+        <v>343</v>
       </c>
       <c r="M657" t="s" s="2">
-        <v>2128</v>
+        <v>344</v>
       </c>
       <c r="N657" t="s" s="2">
-        <v>2129</v>
+        <v>345</v>
       </c>
       <c r="O657" t="s" s="2">
-        <v>1626</v>
+        <v>346</v>
       </c>
       <c r="P657" s="2"/>
       <c r="Q657" t="s" s="2">
@@ -77508,7 +77549,7 @@
         <v>73</v>
       </c>
       <c r="AG657" t="s" s="2">
-        <v>2127</v>
+        <v>347</v>
       </c>
       <c r="AH657" t="s" s="2">
         <v>74</v>
@@ -77517,25 +77558,25 @@
         <v>75</v>
       </c>
       <c r="AJ657" t="s" s="2">
-        <v>73</v>
+        <v>348</v>
       </c>
       <c r="AK657" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B658" t="s" s="2">
-        <v>2130</v>
+        <v>2132</v>
       </c>
       <c r="C658" t="s" s="2">
-        <v>2130</v>
+        <v>2132</v>
       </c>
       <c r="D658" s="2"/>
       <c r="E658" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F658" s="2"/>
       <c r="G658" t="s" s="2">
@@ -77554,15 +77595,17 @@
         <v>73</v>
       </c>
       <c r="L658" t="s" s="2">
-        <v>2131</v>
+        <v>90</v>
       </c>
       <c r="M658" t="s" s="2">
-        <v>2132</v>
+        <v>91</v>
       </c>
       <c r="N658" t="s" s="2">
-        <v>2133</v>
-      </c>
-      <c r="O658" s="2"/>
+        <v>911</v>
+      </c>
+      <c r="O658" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="P658" s="2"/>
       <c r="Q658" t="s" s="2">
         <v>73</v>
@@ -77611,7 +77654,7 @@
         <v>73</v>
       </c>
       <c r="AG658" t="s" s="2">
-        <v>2130</v>
+        <v>350</v>
       </c>
       <c r="AH658" t="s" s="2">
         <v>74</v>
@@ -77623,22 +77666,22 @@
         <v>73</v>
       </c>
       <c r="AK658" t="s" s="2">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B659" t="s" s="2">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="C659" t="s" s="2">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="D659" s="2"/>
       <c r="E659" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F659" s="2"/>
       <c r="G659" t="s" s="2">
@@ -77651,24 +77694,26 @@
         <v>73</v>
       </c>
       <c r="J659" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="K659" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="L659" t="s" s="2">
-        <v>2135</v>
+        <v>90</v>
       </c>
       <c r="M659" t="s" s="2">
-        <v>2136</v>
+        <v>409</v>
       </c>
       <c r="N659" t="s" s="2">
-        <v>2137</v>
+        <v>410</v>
       </c>
       <c r="O659" t="s" s="2">
-        <v>2138</v>
-      </c>
-      <c r="P659" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="P659" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="Q659" t="s" s="2">
         <v>73</v>
       </c>
@@ -77716,7 +77761,7 @@
         <v>73</v>
       </c>
       <c r="AG659" t="s" s="2">
-        <v>2134</v>
+        <v>412</v>
       </c>
       <c r="AH659" t="s" s="2">
         <v>74</v>
@@ -77728,18 +77773,18 @@
         <v>73</v>
       </c>
       <c r="AK659" t="s" s="2">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B660" t="s" s="2">
-        <v>2139</v>
+        <v>2134</v>
       </c>
       <c r="C660" t="s" s="2">
-        <v>2139</v>
+        <v>2134</v>
       </c>
       <c r="D660" s="2"/>
       <c r="E660" t="s" s="2">
@@ -77747,31 +77792,31 @@
       </c>
       <c r="F660" s="2"/>
       <c r="G660" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H660" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I660" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J660" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="K660" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="L660" t="s" s="2">
-        <v>101</v>
+        <v>414</v>
       </c>
       <c r="M660" t="s" s="2">
-        <v>2140</v>
+        <v>2135</v>
       </c>
       <c r="N660" t="s" s="2">
-        <v>2141</v>
+        <v>2136</v>
       </c>
       <c r="O660" t="s" s="2">
-        <v>2142</v>
+        <v>1626</v>
       </c>
       <c r="P660" s="2"/>
       <c r="Q660" t="s" s="2">
@@ -77782,7 +77827,7 @@
         <v>73</v>
       </c>
       <c r="T660" t="s" s="2">
-        <v>1349</v>
+        <v>73</v>
       </c>
       <c r="U660" t="s" s="2">
         <v>73</v>
@@ -77797,13 +77842,13 @@
         <v>73</v>
       </c>
       <c r="Y660" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="Z660" t="s" s="2">
-        <v>2143</v>
+        <v>73</v>
       </c>
       <c r="AA660" t="s" s="2">
-        <v>2144</v>
+        <v>73</v>
       </c>
       <c r="AB660" t="s" s="2">
         <v>73</v>
@@ -77821,13 +77866,13 @@
         <v>73</v>
       </c>
       <c r="AG660" t="s" s="2">
-        <v>2139</v>
+        <v>2134</v>
       </c>
       <c r="AH660" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AI660" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ660" t="s" s="2">
         <v>73</v>
@@ -77838,13 +77883,13 @@
     </row>
     <row r="661">
       <c r="A661" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B661" t="s" s="2">
-        <v>2145</v>
+        <v>2137</v>
       </c>
       <c r="C661" t="s" s="2">
-        <v>2145</v>
+        <v>2137</v>
       </c>
       <c r="D661" s="2"/>
       <c r="E661" t="s" s="2">
@@ -77855,7 +77900,7 @@
         <v>74</v>
       </c>
       <c r="H661" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I661" t="s" s="2">
         <v>73</v>
@@ -77867,13 +77912,13 @@
         <v>73</v>
       </c>
       <c r="L661" t="s" s="2">
-        <v>2146</v>
+        <v>2138</v>
       </c>
       <c r="M661" t="s" s="2">
-        <v>2147</v>
+        <v>2139</v>
       </c>
       <c r="N661" t="s" s="2">
-        <v>2148</v>
+        <v>2140</v>
       </c>
       <c r="O661" s="2"/>
       <c r="P661" s="2"/>
@@ -77900,11 +77945,13 @@
         <v>73</v>
       </c>
       <c r="Y661" t="s" s="2">
-        <v>1026</v>
-      </c>
-      <c r="Z661" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Z661" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AA661" t="s" s="2">
-        <v>2149</v>
+        <v>73</v>
       </c>
       <c r="AB661" t="s" s="2">
         <v>73</v>
@@ -77922,13 +77969,13 @@
         <v>73</v>
       </c>
       <c r="AG661" t="s" s="2">
-        <v>2145</v>
+        <v>2137</v>
       </c>
       <c r="AH661" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI661" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ661" t="s" s="2">
         <v>73</v>
@@ -77939,13 +77986,13 @@
     </row>
     <row r="662">
       <c r="A662" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B662" t="s" s="2">
-        <v>2150</v>
+        <v>2141</v>
       </c>
       <c r="C662" t="s" s="2">
-        <v>2150</v>
+        <v>2141</v>
       </c>
       <c r="D662" s="2"/>
       <c r="E662" t="s" s="2">
@@ -77956,7 +78003,7 @@
         <v>74</v>
       </c>
       <c r="H662" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I662" t="s" s="2">
         <v>73</v>
@@ -77968,15 +78015,17 @@
         <v>73</v>
       </c>
       <c r="L662" t="s" s="2">
-        <v>703</v>
+        <v>2142</v>
       </c>
       <c r="M662" t="s" s="2">
-        <v>2151</v>
+        <v>2143</v>
       </c>
       <c r="N662" t="s" s="2">
-        <v>2152</v>
-      </c>
-      <c r="O662" s="2"/>
+        <v>2144</v>
+      </c>
+      <c r="O662" t="s" s="2">
+        <v>2145</v>
+      </c>
       <c r="P662" s="2"/>
       <c r="Q662" t="s" s="2">
         <v>73</v>
@@ -78025,13 +78074,13 @@
         <v>73</v>
       </c>
       <c r="AG662" t="s" s="2">
-        <v>2150</v>
+        <v>2141</v>
       </c>
       <c r="AH662" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI662" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ662" t="s" s="2">
         <v>73</v>
@@ -78042,13 +78091,13 @@
     </row>
     <row r="663">
       <c r="A663" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B663" t="s" s="2">
-        <v>2153</v>
+        <v>2146</v>
       </c>
       <c r="C663" t="s" s="2">
-        <v>2153</v>
+        <v>2146</v>
       </c>
       <c r="D663" s="2"/>
       <c r="E663" t="s" s="2">
@@ -78056,31 +78105,31 @@
       </c>
       <c r="F663" s="2"/>
       <c r="G663" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H663" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I663" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J663" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="K663" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="L663" t="s" s="2">
-        <v>224</v>
+        <v>101</v>
       </c>
       <c r="M663" t="s" s="2">
-        <v>2154</v>
+        <v>2147</v>
       </c>
       <c r="N663" t="s" s="2">
-        <v>2155</v>
+        <v>2148</v>
       </c>
       <c r="O663" t="s" s="2">
-        <v>2156</v>
+        <v>2149</v>
       </c>
       <c r="P663" s="2"/>
       <c r="Q663" t="s" s="2">
@@ -78091,7 +78140,7 @@
         <v>73</v>
       </c>
       <c r="T663" t="s" s="2">
-        <v>73</v>
+        <v>1349</v>
       </c>
       <c r="U663" t="s" s="2">
         <v>73</v>
@@ -78106,13 +78155,13 @@
         <v>73</v>
       </c>
       <c r="Y663" t="s" s="2">
-        <v>1026</v>
+        <v>107</v>
       </c>
       <c r="Z663" t="s" s="2">
-        <v>2157</v>
+        <v>2150</v>
       </c>
       <c r="AA663" t="s" s="2">
-        <v>2158</v>
+        <v>2151</v>
       </c>
       <c r="AB663" t="s" s="2">
         <v>73</v>
@@ -78130,13 +78179,13 @@
         <v>73</v>
       </c>
       <c r="AG663" t="s" s="2">
-        <v>2153</v>
+        <v>2146</v>
       </c>
       <c r="AH663" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AI663" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AJ663" t="s" s="2">
         <v>73</v>
@@ -78147,13 +78196,13 @@
     </row>
     <row r="664">
       <c r="A664" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B664" t="s" s="2">
-        <v>2159</v>
+        <v>2152</v>
       </c>
       <c r="C664" t="s" s="2">
-        <v>2159</v>
+        <v>2152</v>
       </c>
       <c r="D664" s="2"/>
       <c r="E664" t="s" s="2">
@@ -78161,7 +78210,7 @@
       </c>
       <c r="F664" s="2"/>
       <c r="G664" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H664" t="s" s="2">
         <v>82</v>
@@ -78173,20 +78222,18 @@
         <v>73</v>
       </c>
       <c r="K664" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="L664" t="s" s="2">
-        <v>1670</v>
+        <v>2153</v>
       </c>
       <c r="M664" t="s" s="2">
-        <v>1671</v>
+        <v>2154</v>
       </c>
       <c r="N664" t="s" s="2">
-        <v>2160</v>
-      </c>
-      <c r="O664" t="s" s="2">
-        <v>2161</v>
-      </c>
+        <v>2155</v>
+      </c>
+      <c r="O664" s="2"/>
       <c r="P664" s="2"/>
       <c r="Q664" t="s" s="2">
         <v>73</v>
@@ -78211,11 +78258,11 @@
         <v>73</v>
       </c>
       <c r="Y664" t="s" s="2">
-        <v>107</v>
+        <v>1026</v>
       </c>
       <c r="Z664" s="2"/>
       <c r="AA664" t="s" s="2">
-        <v>1674</v>
+        <v>2156</v>
       </c>
       <c r="AB664" t="s" s="2">
         <v>73</v>
@@ -78233,10 +78280,10 @@
         <v>73</v>
       </c>
       <c r="AG664" t="s" s="2">
-        <v>2159</v>
+        <v>2152</v>
       </c>
       <c r="AH664" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AI664" t="s" s="2">
         <v>82</v>
@@ -78250,13 +78297,13 @@
     </row>
     <row r="665">
       <c r="A665" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B665" t="s" s="2">
-        <v>2162</v>
+        <v>2157</v>
       </c>
       <c r="C665" t="s" s="2">
-        <v>2162</v>
+        <v>2157</v>
       </c>
       <c r="D665" s="2"/>
       <c r="E665" t="s" s="2">
@@ -78279,13 +78326,13 @@
         <v>73</v>
       </c>
       <c r="L665" t="s" s="2">
-        <v>83</v>
+        <v>703</v>
       </c>
       <c r="M665" t="s" s="2">
-        <v>84</v>
+        <v>2158</v>
       </c>
       <c r="N665" t="s" s="2">
-        <v>85</v>
+        <v>2159</v>
       </c>
       <c r="O665" s="2"/>
       <c r="P665" s="2"/>
@@ -78336,7 +78383,7 @@
         <v>73</v>
       </c>
       <c r="AG665" t="s" s="2">
-        <v>86</v>
+        <v>2157</v>
       </c>
       <c r="AH665" t="s" s="2">
         <v>74</v>
@@ -78345,25 +78392,25 @@
         <v>82</v>
       </c>
       <c r="AJ665" t="s" s="2">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="AK665" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B666" t="s" s="2">
-        <v>2163</v>
+        <v>2160</v>
       </c>
       <c r="C666" t="s" s="2">
-        <v>2163</v>
+        <v>2160</v>
       </c>
       <c r="D666" s="2"/>
       <c r="E666" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F666" s="2"/>
       <c r="G666" t="s" s="2">
@@ -78382,16 +78429,16 @@
         <v>73</v>
       </c>
       <c r="L666" t="s" s="2">
-        <v>90</v>
+        <v>224</v>
       </c>
       <c r="M666" t="s" s="2">
-        <v>91</v>
+        <v>2161</v>
       </c>
       <c r="N666" t="s" s="2">
-        <v>92</v>
+        <v>2162</v>
       </c>
       <c r="O666" t="s" s="2">
-        <v>93</v>
+        <v>2163</v>
       </c>
       <c r="P666" s="2"/>
       <c r="Q666" t="s" s="2">
@@ -78417,31 +78464,31 @@
         <v>73</v>
       </c>
       <c r="Y666" t="s" s="2">
-        <v>73</v>
+        <v>1026</v>
       </c>
       <c r="Z666" t="s" s="2">
-        <v>73</v>
+        <v>2164</v>
       </c>
       <c r="AA666" t="s" s="2">
-        <v>73</v>
+        <v>2165</v>
       </c>
       <c r="AB666" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AC666" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AD666" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AE666" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF666" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AG666" t="s" s="2">
-        <v>97</v>
+        <v>2160</v>
       </c>
       <c r="AH666" t="s" s="2">
         <v>74</v>
@@ -78453,18 +78500,18 @@
         <v>73</v>
       </c>
       <c r="AK666" t="s" s="2">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B667" t="s" s="2">
-        <v>2164</v>
+        <v>2166</v>
       </c>
       <c r="C667" t="s" s="2">
-        <v>2164</v>
+        <v>2166</v>
       </c>
       <c r="D667" s="2"/>
       <c r="E667" t="s" s="2">
@@ -78487,15 +78534,17 @@
         <v>100</v>
       </c>
       <c r="L667" t="s" s="2">
-        <v>224</v>
+        <v>1670</v>
       </c>
       <c r="M667" t="s" s="2">
-        <v>1678</v>
+        <v>1671</v>
       </c>
       <c r="N667" t="s" s="2">
-        <v>1679</v>
-      </c>
-      <c r="O667" s="2"/>
+        <v>2167</v>
+      </c>
+      <c r="O667" t="s" s="2">
+        <v>2168</v>
+      </c>
       <c r="P667" s="2"/>
       <c r="Q667" t="s" s="2">
         <v>73</v>
@@ -78520,13 +78569,11 @@
         <v>73</v>
       </c>
       <c r="Y667" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z667" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="Z667" s="2"/>
       <c r="AA667" t="s" s="2">
-        <v>73</v>
+        <v>1674</v>
       </c>
       <c r="AB667" t="s" s="2">
         <v>73</v>
@@ -78544,10 +78591,10 @@
         <v>73</v>
       </c>
       <c r="AG667" t="s" s="2">
-        <v>1680</v>
+        <v>2166</v>
       </c>
       <c r="AH667" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AI667" t="s" s="2">
         <v>82</v>
@@ -78561,13 +78608,13 @@
     </row>
     <row r="668">
       <c r="A668" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B668" t="s" s="2">
-        <v>2165</v>
+        <v>2169</v>
       </c>
       <c r="C668" t="s" s="2">
-        <v>2165</v>
+        <v>2169</v>
       </c>
       <c r="D668" s="2"/>
       <c r="E668" t="s" s="2">
@@ -78578,7 +78625,7 @@
         <v>74</v>
       </c>
       <c r="H668" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I668" t="s" s="2">
         <v>73</v>
@@ -78587,16 +78634,16 @@
         <v>73</v>
       </c>
       <c r="K668" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="L668" t="s" s="2">
-        <v>1682</v>
+        <v>83</v>
       </c>
       <c r="M668" t="s" s="2">
-        <v>1683</v>
+        <v>84</v>
       </c>
       <c r="N668" t="s" s="2">
-        <v>1684</v>
+        <v>85</v>
       </c>
       <c r="O668" s="2"/>
       <c r="P668" s="2"/>
@@ -78647,7 +78694,7 @@
         <v>73</v>
       </c>
       <c r="AG668" t="s" s="2">
-        <v>1685</v>
+        <v>86</v>
       </c>
       <c r="AH668" t="s" s="2">
         <v>74</v>
@@ -78656,32 +78703,32 @@
         <v>82</v>
       </c>
       <c r="AJ668" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="AK668" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B669" t="s" s="2">
-        <v>2166</v>
+        <v>2170</v>
       </c>
       <c r="C669" t="s" s="2">
-        <v>2166</v>
+        <v>2170</v>
       </c>
       <c r="D669" s="2"/>
       <c r="E669" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F669" s="2"/>
       <c r="G669" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H669" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I669" t="s" s="2">
         <v>73</v>
@@ -78690,19 +78737,19 @@
         <v>73</v>
       </c>
       <c r="K669" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="L669" t="s" s="2">
-        <v>1372</v>
+        <v>90</v>
       </c>
       <c r="M669" t="s" s="2">
-        <v>2167</v>
+        <v>91</v>
       </c>
       <c r="N669" t="s" s="2">
-        <v>2168</v>
+        <v>92</v>
       </c>
       <c r="O669" t="s" s="2">
-        <v>2169</v>
+        <v>93</v>
       </c>
       <c r="P669" s="2"/>
       <c r="Q669" t="s" s="2">
@@ -78740,42 +78787,42 @@
         <v>73</v>
       </c>
       <c r="AC669" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AD669" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AE669" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF669" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AG669" t="s" s="2">
-        <v>2166</v>
+        <v>97</v>
       </c>
       <c r="AH669" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AI669" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ669" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK669" t="s" s="2">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B670" t="s" s="2">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="C670" t="s" s="2">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="D670" s="2"/>
       <c r="E670" t="s" s="2">
@@ -78783,7 +78830,7 @@
       </c>
       <c r="F670" s="2"/>
       <c r="G670" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H670" t="s" s="2">
         <v>82</v>
@@ -78795,16 +78842,16 @@
         <v>73</v>
       </c>
       <c r="K670" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="L670" t="s" s="2">
-        <v>1376</v>
+        <v>224</v>
       </c>
       <c r="M670" t="s" s="2">
-        <v>2171</v>
+        <v>1678</v>
       </c>
       <c r="N670" t="s" s="2">
-        <v>2172</v>
+        <v>1679</v>
       </c>
       <c r="O670" s="2"/>
       <c r="P670" s="2"/>
@@ -78855,7 +78902,7 @@
         <v>73</v>
       </c>
       <c r="AG670" t="s" s="2">
-        <v>2170</v>
+        <v>1680</v>
       </c>
       <c r="AH670" t="s" s="2">
         <v>74</v>
@@ -78872,13 +78919,13 @@
     </row>
     <row r="671">
       <c r="A671" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B671" t="s" s="2">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="C671" t="s" s="2">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="D671" s="2"/>
       <c r="E671" t="s" s="2">
@@ -78889,7 +78936,7 @@
         <v>74</v>
       </c>
       <c r="H671" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I671" t="s" s="2">
         <v>73</v>
@@ -78898,16 +78945,16 @@
         <v>73</v>
       </c>
       <c r="K671" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="L671" t="s" s="2">
-        <v>1330</v>
+        <v>1682</v>
       </c>
       <c r="M671" t="s" s="2">
-        <v>2174</v>
+        <v>1683</v>
       </c>
       <c r="N671" t="s" s="2">
-        <v>2175</v>
+        <v>1684</v>
       </c>
       <c r="O671" s="2"/>
       <c r="P671" s="2"/>
@@ -78958,13 +79005,13 @@
         <v>73</v>
       </c>
       <c r="AG671" t="s" s="2">
-        <v>2173</v>
+        <v>1685</v>
       </c>
       <c r="AH671" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI671" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AJ671" t="s" s="2">
         <v>73</v>
@@ -78975,13 +79022,13 @@
     </row>
     <row r="672">
       <c r="A672" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B672" t="s" s="2">
-        <v>2176</v>
+        <v>2173</v>
       </c>
       <c r="C672" t="s" s="2">
-        <v>2176</v>
+        <v>2173</v>
       </c>
       <c r="D672" s="2"/>
       <c r="E672" t="s" s="2">
@@ -78989,10 +79036,10 @@
       </c>
       <c r="F672" s="2"/>
       <c r="G672" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H672" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I672" t="s" s="2">
         <v>73</v>
@@ -79001,18 +79048,20 @@
         <v>73</v>
       </c>
       <c r="K672" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="L672" t="s" s="2">
-        <v>762</v>
+        <v>1372</v>
       </c>
       <c r="M672" t="s" s="2">
-        <v>2177</v>
+        <v>2174</v>
       </c>
       <c r="N672" t="s" s="2">
-        <v>2178</v>
-      </c>
-      <c r="O672" s="2"/>
+        <v>2175</v>
+      </c>
+      <c r="O672" t="s" s="2">
+        <v>2176</v>
+      </c>
       <c r="P672" s="2"/>
       <c r="Q672" t="s" s="2">
         <v>73</v>
@@ -79061,13 +79110,13 @@
         <v>73</v>
       </c>
       <c r="AG672" t="s" s="2">
-        <v>2176</v>
+        <v>2173</v>
       </c>
       <c r="AH672" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AI672" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AJ672" t="s" s="2">
         <v>73</v>
@@ -79078,13 +79127,13 @@
     </row>
     <row r="673">
       <c r="A673" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B673" t="s" s="2">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="C673" t="s" s="2">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="D673" s="2"/>
       <c r="E673" t="s" s="2">
@@ -79107,13 +79156,13 @@
         <v>73</v>
       </c>
       <c r="L673" t="s" s="2">
-        <v>119</v>
+        <v>1376</v>
       </c>
       <c r="M673" t="s" s="2">
-        <v>84</v>
+        <v>2178</v>
       </c>
       <c r="N673" t="s" s="2">
-        <v>85</v>
+        <v>2179</v>
       </c>
       <c r="O673" s="2"/>
       <c r="P673" s="2"/>
@@ -79164,7 +79213,7 @@
         <v>73</v>
       </c>
       <c r="AG673" t="s" s="2">
-        <v>86</v>
+        <v>2177</v>
       </c>
       <c r="AH673" t="s" s="2">
         <v>74</v>
@@ -79173,15 +79222,15 @@
         <v>82</v>
       </c>
       <c r="AJ673" t="s" s="2">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="AK673" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B674" t="s" s="2">
         <v>2180</v>
@@ -79191,7 +79240,7 @@
       </c>
       <c r="D674" s="2"/>
       <c r="E674" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F674" s="2"/>
       <c r="G674" t="s" s="2">
@@ -79210,17 +79259,15 @@
         <v>73</v>
       </c>
       <c r="L674" t="s" s="2">
-        <v>90</v>
+        <v>1330</v>
       </c>
       <c r="M674" t="s" s="2">
-        <v>91</v>
+        <v>2181</v>
       </c>
       <c r="N674" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O674" t="s" s="2">
-        <v>93</v>
-      </c>
+        <v>2182</v>
+      </c>
+      <c r="O674" s="2"/>
       <c r="P674" s="2"/>
       <c r="Q674" t="s" s="2">
         <v>73</v>
@@ -79269,7 +79316,7 @@
         <v>73</v>
       </c>
       <c r="AG674" t="s" s="2">
-        <v>97</v>
+        <v>2180</v>
       </c>
       <c r="AH674" t="s" s="2">
         <v>74</v>
@@ -79281,22 +79328,22 @@
         <v>73</v>
       </c>
       <c r="AK674" t="s" s="2">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B675" t="s" s="2">
-        <v>2181</v>
+        <v>2183</v>
       </c>
       <c r="C675" t="s" s="2">
-        <v>2181</v>
+        <v>2183</v>
       </c>
       <c r="D675" s="2"/>
       <c r="E675" t="s" s="2">
-        <v>771</v>
+        <v>73</v>
       </c>
       <c r="F675" s="2"/>
       <c r="G675" t="s" s="2">
@@ -79309,26 +79356,22 @@
         <v>73</v>
       </c>
       <c r="J675" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="K675" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="L675" t="s" s="2">
-        <v>90</v>
+        <v>762</v>
       </c>
       <c r="M675" t="s" s="2">
-        <v>772</v>
+        <v>2184</v>
       </c>
       <c r="N675" t="s" s="2">
-        <v>773</v>
-      </c>
-      <c r="O675" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="P675" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>2185</v>
+      </c>
+      <c r="O675" s="2"/>
+      <c r="P675" s="2"/>
       <c r="Q675" t="s" s="2">
         <v>73</v>
       </c>
@@ -79376,7 +79419,7 @@
         <v>73</v>
       </c>
       <c r="AG675" t="s" s="2">
-        <v>774</v>
+        <v>2183</v>
       </c>
       <c r="AH675" t="s" s="2">
         <v>74</v>
@@ -79388,18 +79431,18 @@
         <v>73</v>
       </c>
       <c r="AK675" t="s" s="2">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B676" t="s" s="2">
-        <v>2182</v>
+        <v>2186</v>
       </c>
       <c r="C676" t="s" s="2">
-        <v>2182</v>
+        <v>2186</v>
       </c>
       <c r="D676" s="2"/>
       <c r="E676" t="s" s="2">
@@ -79422,18 +79465,16 @@
         <v>73</v>
       </c>
       <c r="L676" t="s" s="2">
-        <v>224</v>
+        <v>119</v>
       </c>
       <c r="M676" t="s" s="2">
-        <v>2183</v>
+        <v>84</v>
       </c>
       <c r="N676" t="s" s="2">
-        <v>2184</v>
+        <v>85</v>
       </c>
       <c r="O676" s="2"/>
-      <c r="P676" t="s" s="2">
-        <v>2185</v>
-      </c>
+      <c r="P676" s="2"/>
       <c r="Q676" t="s" s="2">
         <v>73</v>
       </c>
@@ -79457,13 +79498,13 @@
         <v>73</v>
       </c>
       <c r="Y676" t="s" s="2">
-        <v>1026</v>
+        <v>73</v>
       </c>
       <c r="Z676" t="s" s="2">
-        <v>2186</v>
+        <v>73</v>
       </c>
       <c r="AA676" t="s" s="2">
-        <v>2187</v>
+        <v>73</v>
       </c>
       <c r="AB676" t="s" s="2">
         <v>73</v>
@@ -79481,7 +79522,7 @@
         <v>73</v>
       </c>
       <c r="AG676" t="s" s="2">
-        <v>2182</v>
+        <v>86</v>
       </c>
       <c r="AH676" t="s" s="2">
         <v>74</v>
@@ -79490,32 +79531,32 @@
         <v>82</v>
       </c>
       <c r="AJ676" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="AK676" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B677" t="s" s="2">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="C677" t="s" s="2">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="D677" s="2"/>
       <c r="E677" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F677" s="2"/>
       <c r="G677" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H677" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I677" t="s" s="2">
         <v>73</v>
@@ -79527,15 +79568,17 @@
         <v>73</v>
       </c>
       <c r="L677" t="s" s="2">
-        <v>455</v>
+        <v>90</v>
       </c>
       <c r="M677" t="s" s="2">
-        <v>2189</v>
+        <v>91</v>
       </c>
       <c r="N677" t="s" s="2">
-        <v>2190</v>
-      </c>
-      <c r="O677" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="O677" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="P677" s="2"/>
       <c r="Q677" t="s" s="2">
         <v>73</v>
@@ -79584,62 +79627,66 @@
         <v>73</v>
       </c>
       <c r="AG677" t="s" s="2">
-        <v>2188</v>
+        <v>97</v>
       </c>
       <c r="AH677" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AI677" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ677" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK677" t="s" s="2">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B678" t="s" s="2">
-        <v>2191</v>
+        <v>2188</v>
       </c>
       <c r="C678" t="s" s="2">
-        <v>2191</v>
+        <v>2188</v>
       </c>
       <c r="D678" s="2"/>
       <c r="E678" t="s" s="2">
-        <v>73</v>
+        <v>771</v>
       </c>
       <c r="F678" s="2"/>
       <c r="G678" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H678" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I678" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J678" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="K678" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="L678" t="s" s="2">
-        <v>2192</v>
+        <v>90</v>
       </c>
       <c r="M678" t="s" s="2">
-        <v>2193</v>
+        <v>772</v>
       </c>
       <c r="N678" t="s" s="2">
-        <v>2194</v>
-      </c>
-      <c r="O678" s="2"/>
-      <c r="P678" s="2"/>
+        <v>773</v>
+      </c>
+      <c r="O678" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="P678" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="Q678" t="s" s="2">
         <v>73</v>
       </c>
@@ -79687,30 +79734,30 @@
         <v>73</v>
       </c>
       <c r="AG678" t="s" s="2">
-        <v>2191</v>
+        <v>774</v>
       </c>
       <c r="AH678" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI678" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ678" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK678" t="s" s="2">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B679" t="s" s="2">
-        <v>2195</v>
+        <v>2189</v>
       </c>
       <c r="C679" t="s" s="2">
-        <v>2195</v>
+        <v>2189</v>
       </c>
       <c r="D679" s="2"/>
       <c r="E679" t="s" s="2">
@@ -79718,7 +79765,7 @@
       </c>
       <c r="F679" s="2"/>
       <c r="G679" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H679" t="s" s="2">
         <v>82</v>
@@ -79733,18 +79780,18 @@
         <v>73</v>
       </c>
       <c r="L679" t="s" s="2">
-        <v>2196</v>
+        <v>224</v>
       </c>
       <c r="M679" t="s" s="2">
-        <v>2197</v>
+        <v>2190</v>
       </c>
       <c r="N679" t="s" s="2">
-        <v>2198</v>
-      </c>
-      <c r="O679" t="s" s="2">
-        <v>2199</v>
-      </c>
-      <c r="P679" s="2"/>
+        <v>2191</v>
+      </c>
+      <c r="O679" s="2"/>
+      <c r="P679" t="s" s="2">
+        <v>2192</v>
+      </c>
       <c r="Q679" t="s" s="2">
         <v>73</v>
       </c>
@@ -79768,13 +79815,13 @@
         <v>73</v>
       </c>
       <c r="Y679" t="s" s="2">
-        <v>73</v>
+        <v>1026</v>
       </c>
       <c r="Z679" t="s" s="2">
-        <v>73</v>
+        <v>2193</v>
       </c>
       <c r="AA679" t="s" s="2">
-        <v>73</v>
+        <v>2194</v>
       </c>
       <c r="AB679" t="s" s="2">
         <v>73</v>
@@ -79792,13 +79839,13 @@
         <v>73</v>
       </c>
       <c r="AG679" t="s" s="2">
-        <v>2195</v>
+        <v>2189</v>
       </c>
       <c r="AH679" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI679" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AJ679" t="s" s="2">
         <v>73</v>
@@ -79809,13 +79856,13 @@
     </row>
     <row r="680">
       <c r="A680" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B680" t="s" s="2">
-        <v>2200</v>
+        <v>2195</v>
       </c>
       <c r="C680" t="s" s="2">
-        <v>2200</v>
+        <v>2195</v>
       </c>
       <c r="D680" s="2"/>
       <c r="E680" t="s" s="2">
@@ -79823,7 +79870,7 @@
       </c>
       <c r="F680" s="2"/>
       <c r="G680" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H680" t="s" s="2">
         <v>82</v>
@@ -79838,13 +79885,13 @@
         <v>73</v>
       </c>
       <c r="L680" t="s" s="2">
-        <v>224</v>
+        <v>455</v>
       </c>
       <c r="M680" t="s" s="2">
-        <v>2201</v>
+        <v>2196</v>
       </c>
       <c r="N680" t="s" s="2">
-        <v>2202</v>
+        <v>2197</v>
       </c>
       <c r="O680" s="2"/>
       <c r="P680" s="2"/>
@@ -79871,13 +79918,13 @@
         <v>73</v>
       </c>
       <c r="Y680" t="s" s="2">
-        <v>1026</v>
+        <v>73</v>
       </c>
       <c r="Z680" t="s" s="2">
-        <v>2203</v>
+        <v>73</v>
       </c>
       <c r="AA680" t="s" s="2">
-        <v>2204</v>
+        <v>73</v>
       </c>
       <c r="AB680" t="s" s="2">
         <v>73</v>
@@ -79895,10 +79942,10 @@
         <v>73</v>
       </c>
       <c r="AG680" t="s" s="2">
-        <v>2200</v>
+        <v>2195</v>
       </c>
       <c r="AH680" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AI680" t="s" s="2">
         <v>82</v>
@@ -79912,13 +79959,13 @@
     </row>
     <row r="681">
       <c r="A681" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B681" t="s" s="2">
-        <v>2205</v>
+        <v>2198</v>
       </c>
       <c r="C681" t="s" s="2">
-        <v>2205</v>
+        <v>2198</v>
       </c>
       <c r="D681" s="2"/>
       <c r="E681" t="s" s="2">
@@ -79941,13 +79988,13 @@
         <v>73</v>
       </c>
       <c r="L681" t="s" s="2">
-        <v>1966</v>
+        <v>2199</v>
       </c>
       <c r="M681" t="s" s="2">
-        <v>2206</v>
+        <v>2200</v>
       </c>
       <c r="N681" t="s" s="2">
-        <v>2207</v>
+        <v>2201</v>
       </c>
       <c r="O681" s="2"/>
       <c r="P681" s="2"/>
@@ -79998,7 +80045,7 @@
         <v>73</v>
       </c>
       <c r="AG681" t="s" s="2">
-        <v>2205</v>
+        <v>2198</v>
       </c>
       <c r="AH681" t="s" s="2">
         <v>74</v>
@@ -80015,13 +80062,13 @@
     </row>
     <row r="682">
       <c r="A682" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B682" t="s" s="2">
-        <v>2208</v>
+        <v>2202</v>
       </c>
       <c r="C682" t="s" s="2">
-        <v>2208</v>
+        <v>2202</v>
       </c>
       <c r="D682" s="2"/>
       <c r="E682" t="s" s="2">
@@ -80029,7 +80076,7 @@
       </c>
       <c r="F682" s="2"/>
       <c r="G682" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H682" t="s" s="2">
         <v>82</v>
@@ -80044,15 +80091,17 @@
         <v>73</v>
       </c>
       <c r="L682" t="s" s="2">
-        <v>1966</v>
+        <v>2203</v>
       </c>
       <c r="M682" t="s" s="2">
-        <v>2209</v>
+        <v>2204</v>
       </c>
       <c r="N682" t="s" s="2">
-        <v>2210</v>
-      </c>
-      <c r="O682" s="2"/>
+        <v>2205</v>
+      </c>
+      <c r="O682" t="s" s="2">
+        <v>2206</v>
+      </c>
       <c r="P682" s="2"/>
       <c r="Q682" t="s" s="2">
         <v>73</v>
@@ -80101,13 +80150,13 @@
         <v>73</v>
       </c>
       <c r="AG682" t="s" s="2">
-        <v>2208</v>
+        <v>2202</v>
       </c>
       <c r="AH682" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI682" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ682" t="s" s="2">
         <v>73</v>
@@ -80118,13 +80167,13 @@
     </row>
     <row r="683">
       <c r="A683" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B683" t="s" s="2">
-        <v>2211</v>
+        <v>2207</v>
       </c>
       <c r="C683" t="s" s="2">
-        <v>2211</v>
+        <v>2207</v>
       </c>
       <c r="D683" s="2"/>
       <c r="E683" t="s" s="2">
@@ -80147,13 +80196,13 @@
         <v>73</v>
       </c>
       <c r="L683" t="s" s="2">
-        <v>703</v>
+        <v>224</v>
       </c>
       <c r="M683" t="s" s="2">
-        <v>2212</v>
+        <v>2208</v>
       </c>
       <c r="N683" t="s" s="2">
-        <v>2213</v>
+        <v>2209</v>
       </c>
       <c r="O683" s="2"/>
       <c r="P683" s="2"/>
@@ -80180,13 +80229,13 @@
         <v>73</v>
       </c>
       <c r="Y683" t="s" s="2">
-        <v>73</v>
+        <v>1026</v>
       </c>
       <c r="Z683" t="s" s="2">
-        <v>73</v>
+        <v>2210</v>
       </c>
       <c r="AA683" t="s" s="2">
-        <v>73</v>
+        <v>2211</v>
       </c>
       <c r="AB683" t="s" s="2">
         <v>73</v>
@@ -80204,7 +80253,7 @@
         <v>73</v>
       </c>
       <c r="AG683" t="s" s="2">
-        <v>2211</v>
+        <v>2207</v>
       </c>
       <c r="AH683" t="s" s="2">
         <v>74</v>
@@ -80221,13 +80270,13 @@
     </row>
     <row r="684">
       <c r="A684" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B684" t="s" s="2">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="C684" t="s" s="2">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="D684" s="2"/>
       <c r="E684" t="s" s="2">
@@ -80247,16 +80296,16 @@
         <v>73</v>
       </c>
       <c r="K684" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="L684" t="s" s="2">
-        <v>703</v>
+        <v>1966</v>
       </c>
       <c r="M684" t="s" s="2">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="N684" t="s" s="2">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="O684" s="2"/>
       <c r="P684" s="2"/>
@@ -80307,7 +80356,7 @@
         <v>73</v>
       </c>
       <c r="AG684" t="s" s="2">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="AH684" t="s" s="2">
         <v>74</v>
@@ -80316,7 +80365,7 @@
         <v>82</v>
       </c>
       <c r="AJ684" t="s" s="2">
-        <v>2217</v>
+        <v>73</v>
       </c>
       <c r="AK684" t="s" s="2">
         <v>110</v>
@@ -80324,13 +80373,13 @@
     </row>
     <row r="685">
       <c r="A685" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B685" t="s" s="2">
-        <v>2218</v>
+        <v>2215</v>
       </c>
       <c r="C685" t="s" s="2">
-        <v>2218</v>
+        <v>2215</v>
       </c>
       <c r="D685" s="2"/>
       <c r="E685" t="s" s="2">
@@ -80353,13 +80402,13 @@
         <v>73</v>
       </c>
       <c r="L685" t="s" s="2">
-        <v>703</v>
+        <v>1966</v>
       </c>
       <c r="M685" t="s" s="2">
-        <v>2219</v>
+        <v>2216</v>
       </c>
       <c r="N685" t="s" s="2">
-        <v>2220</v>
+        <v>2217</v>
       </c>
       <c r="O685" s="2"/>
       <c r="P685" s="2"/>
@@ -80410,7 +80459,7 @@
         <v>73</v>
       </c>
       <c r="AG685" t="s" s="2">
-        <v>2218</v>
+        <v>2215</v>
       </c>
       <c r="AH685" t="s" s="2">
         <v>74</v>
@@ -80419,7 +80468,7 @@
         <v>82</v>
       </c>
       <c r="AJ685" t="s" s="2">
-        <v>2217</v>
+        <v>73</v>
       </c>
       <c r="AK685" t="s" s="2">
         <v>110</v>
@@ -80427,13 +80476,13 @@
     </row>
     <row r="686">
       <c r="A686" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B686" t="s" s="2">
-        <v>2221</v>
+        <v>2218</v>
       </c>
       <c r="C686" t="s" s="2">
-        <v>2221</v>
+        <v>2218</v>
       </c>
       <c r="D686" s="2"/>
       <c r="E686" t="s" s="2">
@@ -80456,13 +80505,13 @@
         <v>73</v>
       </c>
       <c r="L686" t="s" s="2">
-        <v>2192</v>
+        <v>703</v>
       </c>
       <c r="M686" t="s" s="2">
-        <v>2222</v>
+        <v>2219</v>
       </c>
       <c r="N686" t="s" s="2">
-        <v>2223</v>
+        <v>2220</v>
       </c>
       <c r="O686" s="2"/>
       <c r="P686" s="2"/>
@@ -80513,7 +80562,7 @@
         <v>73</v>
       </c>
       <c r="AG686" t="s" s="2">
-        <v>2221</v>
+        <v>2218</v>
       </c>
       <c r="AH686" t="s" s="2">
         <v>74</v>
@@ -80530,13 +80579,13 @@
     </row>
     <row r="687">
       <c r="A687" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B687" t="s" s="2">
-        <v>2224</v>
+        <v>2221</v>
       </c>
       <c r="C687" t="s" s="2">
-        <v>2224</v>
+        <v>2221</v>
       </c>
       <c r="D687" s="2"/>
       <c r="E687" t="s" s="2">
@@ -80547,7 +80596,7 @@
         <v>74</v>
       </c>
       <c r="H687" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I687" t="s" s="2">
         <v>73</v>
@@ -80556,16 +80605,16 @@
         <v>73</v>
       </c>
       <c r="K687" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="L687" t="s" s="2">
-        <v>2225</v>
+        <v>703</v>
       </c>
       <c r="M687" t="s" s="2">
-        <v>2226</v>
+        <v>2222</v>
       </c>
       <c r="N687" t="s" s="2">
-        <v>2227</v>
+        <v>2223</v>
       </c>
       <c r="O687" s="2"/>
       <c r="P687" s="2"/>
@@ -80616,16 +80665,16 @@
         <v>73</v>
       </c>
       <c r="AG687" t="s" s="2">
+        <v>2221</v>
+      </c>
+      <c r="AH687" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI687" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ687" t="s" s="2">
         <v>2224</v>
-      </c>
-      <c r="AH687" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI687" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ687" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="AK687" t="s" s="2">
         <v>110</v>
@@ -80633,13 +80682,13 @@
     </row>
     <row r="688">
       <c r="A688" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B688" t="s" s="2">
-        <v>2228</v>
+        <v>2225</v>
       </c>
       <c r="C688" t="s" s="2">
-        <v>2228</v>
+        <v>2225</v>
       </c>
       <c r="D688" s="2"/>
       <c r="E688" t="s" s="2">
@@ -80650,7 +80699,7 @@
         <v>74</v>
       </c>
       <c r="H688" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I688" t="s" s="2">
         <v>73</v>
@@ -80662,13 +80711,13 @@
         <v>73</v>
       </c>
       <c r="L688" t="s" s="2">
-        <v>1396</v>
+        <v>703</v>
       </c>
       <c r="M688" t="s" s="2">
-        <v>2229</v>
+        <v>2226</v>
       </c>
       <c r="N688" t="s" s="2">
-        <v>2230</v>
+        <v>2227</v>
       </c>
       <c r="O688" s="2"/>
       <c r="P688" s="2"/>
@@ -80719,16 +80768,16 @@
         <v>73</v>
       </c>
       <c r="AG688" t="s" s="2">
-        <v>2228</v>
+        <v>2225</v>
       </c>
       <c r="AH688" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI688" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AJ688" t="s" s="2">
-        <v>73</v>
+        <v>2224</v>
       </c>
       <c r="AK688" t="s" s="2">
         <v>110</v>
@@ -80736,13 +80785,13 @@
     </row>
     <row r="689">
       <c r="A689" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B689" t="s" s="2">
-        <v>2231</v>
+        <v>2228</v>
       </c>
       <c r="C689" t="s" s="2">
-        <v>2231</v>
+        <v>2228</v>
       </c>
       <c r="D689" s="2"/>
       <c r="E689" t="s" s="2">
@@ -80765,17 +80814,15 @@
         <v>73</v>
       </c>
       <c r="L689" t="s" s="2">
-        <v>972</v>
+        <v>2199</v>
       </c>
       <c r="M689" t="s" s="2">
-        <v>1751</v>
+        <v>2229</v>
       </c>
       <c r="N689" t="s" s="2">
-        <v>1752</v>
-      </c>
-      <c r="O689" t="s" s="2">
-        <v>1753</v>
-      </c>
+        <v>2230</v>
+      </c>
+      <c r="O689" s="2"/>
       <c r="P689" s="2"/>
       <c r="Q689" t="s" s="2">
         <v>73</v>
@@ -80824,7 +80871,7 @@
         <v>73</v>
       </c>
       <c r="AG689" t="s" s="2">
-        <v>2231</v>
+        <v>2228</v>
       </c>
       <c r="AH689" t="s" s="2">
         <v>74</v>
@@ -80841,13 +80888,13 @@
     </row>
     <row r="690">
       <c r="A690" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B690" t="s" s="2">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="C690" t="s" s="2">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="D690" s="2"/>
       <c r="E690" t="s" s="2">
@@ -80870,7 +80917,7 @@
         <v>73</v>
       </c>
       <c r="L690" t="s" s="2">
-        <v>1758</v>
+        <v>2232</v>
       </c>
       <c r="M690" t="s" s="2">
         <v>2233</v>
@@ -80878,9 +80925,7 @@
       <c r="N690" t="s" s="2">
         <v>2234</v>
       </c>
-      <c r="O690" t="s" s="2">
-        <v>2235</v>
-      </c>
+      <c r="O690" s="2"/>
       <c r="P690" s="2"/>
       <c r="Q690" t="s" s="2">
         <v>73</v>
@@ -80929,7 +80974,7 @@
         <v>73</v>
       </c>
       <c r="AG690" t="s" s="2">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="AH690" t="s" s="2">
         <v>74</v>
@@ -80946,13 +80991,13 @@
     </row>
     <row r="691">
       <c r="A691" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B691" t="s" s="2">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="C691" t="s" s="2">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="D691" s="2"/>
       <c r="E691" t="s" s="2">
@@ -80963,7 +81008,7 @@
         <v>74</v>
       </c>
       <c r="H691" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I691" t="s" s="2">
         <v>73</v>
@@ -80975,13 +81020,13 @@
         <v>73</v>
       </c>
       <c r="L691" t="s" s="2">
-        <v>83</v>
+        <v>1396</v>
       </c>
       <c r="M691" t="s" s="2">
-        <v>84</v>
+        <v>2236</v>
       </c>
       <c r="N691" t="s" s="2">
-        <v>85</v>
+        <v>2237</v>
       </c>
       <c r="O691" s="2"/>
       <c r="P691" s="2"/>
@@ -81032,41 +81077,41 @@
         <v>73</v>
       </c>
       <c r="AG691" t="s" s="2">
-        <v>86</v>
+        <v>2235</v>
       </c>
       <c r="AH691" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI691" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ691" t="s" s="2">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="AK691" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B692" t="s" s="2">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="C692" t="s" s="2">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="D692" s="2"/>
       <c r="E692" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F692" s="2"/>
       <c r="G692" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H692" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I692" t="s" s="2">
         <v>73</v>
@@ -81078,16 +81123,16 @@
         <v>73</v>
       </c>
       <c r="L692" t="s" s="2">
-        <v>90</v>
+        <v>972</v>
       </c>
       <c r="M692" t="s" s="2">
-        <v>91</v>
+        <v>1751</v>
       </c>
       <c r="N692" t="s" s="2">
-        <v>92</v>
+        <v>1752</v>
       </c>
       <c r="O692" t="s" s="2">
-        <v>93</v>
+        <v>1753</v>
       </c>
       <c r="P692" s="2"/>
       <c r="Q692" t="s" s="2">
@@ -81125,46 +81170,46 @@
         <v>73</v>
       </c>
       <c r="AC692" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AD692" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AE692" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF692" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AG692" t="s" s="2">
-        <v>97</v>
+        <v>2238</v>
       </c>
       <c r="AH692" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI692" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AJ692" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK692" t="s" s="2">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B693" t="s" s="2">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="C693" t="s" s="2">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="D693" s="2"/>
       <c r="E693" t="s" s="2">
-        <v>771</v>
+        <v>73</v>
       </c>
       <c r="F693" s="2"/>
       <c r="G693" t="s" s="2">
@@ -81177,26 +81222,24 @@
         <v>73</v>
       </c>
       <c r="J693" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="K693" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="L693" t="s" s="2">
-        <v>90</v>
+        <v>1758</v>
       </c>
       <c r="M693" t="s" s="2">
-        <v>772</v>
+        <v>2240</v>
       </c>
       <c r="N693" t="s" s="2">
-        <v>773</v>
+        <v>2241</v>
       </c>
       <c r="O693" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="P693" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>2242</v>
+      </c>
+      <c r="P693" s="2"/>
       <c r="Q693" t="s" s="2">
         <v>73</v>
       </c>
@@ -81244,7 +81287,7 @@
         <v>73</v>
       </c>
       <c r="AG693" t="s" s="2">
-        <v>1765</v>
+        <v>2239</v>
       </c>
       <c r="AH693" t="s" s="2">
         <v>74</v>
@@ -81256,18 +81299,18 @@
         <v>73</v>
       </c>
       <c r="AK693" t="s" s="2">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B694" t="s" s="2">
-        <v>2239</v>
+        <v>2243</v>
       </c>
       <c r="C694" t="s" s="2">
-        <v>2239</v>
+        <v>2243</v>
       </c>
       <c r="D694" s="2"/>
       <c r="E694" t="s" s="2">
@@ -81287,21 +81330,19 @@
         <v>73</v>
       </c>
       <c r="K694" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="L694" t="s" s="2">
-        <v>754</v>
+        <v>83</v>
       </c>
       <c r="M694" t="s" s="2">
-        <v>1767</v>
+        <v>84</v>
       </c>
       <c r="N694" t="s" s="2">
-        <v>1768</v>
+        <v>85</v>
       </c>
       <c r="O694" s="2"/>
-      <c r="P694" t="s" s="2">
-        <v>1769</v>
-      </c>
+      <c r="P694" s="2"/>
       <c r="Q694" t="s" s="2">
         <v>73</v>
       </c>
@@ -81349,7 +81390,7 @@
         <v>73</v>
       </c>
       <c r="AG694" t="s" s="2">
-        <v>1770</v>
+        <v>86</v>
       </c>
       <c r="AH694" t="s" s="2">
         <v>74</v>
@@ -81358,32 +81399,32 @@
         <v>82</v>
       </c>
       <c r="AJ694" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="AK694" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B695" t="s" s="2">
-        <v>2240</v>
+        <v>2244</v>
       </c>
       <c r="C695" t="s" s="2">
-        <v>2240</v>
+        <v>2244</v>
       </c>
       <c r="D695" s="2"/>
       <c r="E695" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F695" s="2"/>
       <c r="G695" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H695" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I695" t="s" s="2">
         <v>73</v>
@@ -81392,21 +81433,21 @@
         <v>73</v>
       </c>
       <c r="K695" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="L695" t="s" s="2">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="M695" t="s" s="2">
-        <v>1772</v>
+        <v>91</v>
       </c>
       <c r="N695" t="s" s="2">
-        <v>1773</v>
-      </c>
-      <c r="O695" s="2"/>
-      <c r="P695" t="s" s="2">
-        <v>1774</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="O695" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="P695" s="2"/>
       <c r="Q695" t="s" s="2">
         <v>73</v>
       </c>
@@ -81442,46 +81483,46 @@
         <v>73</v>
       </c>
       <c r="AC695" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AD695" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AE695" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF695" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AG695" t="s" s="2">
-        <v>1775</v>
+        <v>97</v>
       </c>
       <c r="AH695" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI695" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ695" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK695" t="s" s="2">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B696" t="s" s="2">
-        <v>2241</v>
+        <v>2245</v>
       </c>
       <c r="C696" t="s" s="2">
-        <v>2241</v>
+        <v>2245</v>
       </c>
       <c r="D696" s="2"/>
       <c r="E696" t="s" s="2">
-        <v>73</v>
+        <v>771</v>
       </c>
       <c r="F696" s="2"/>
       <c r="G696" t="s" s="2">
@@ -81494,25 +81535,25 @@
         <v>73</v>
       </c>
       <c r="J696" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="K696" t="s" s="2">
         <v>100</v>
       </c>
       <c r="L696" t="s" s="2">
-        <v>224</v>
+        <v>90</v>
       </c>
       <c r="M696" t="s" s="2">
-        <v>1777</v>
+        <v>772</v>
       </c>
       <c r="N696" t="s" s="2">
-        <v>1778</v>
+        <v>773</v>
       </c>
       <c r="O696" t="s" s="2">
-        <v>1779</v>
+        <v>93</v>
       </c>
       <c r="P696" t="s" s="2">
-        <v>1780</v>
+        <v>411</v>
       </c>
       <c r="Q696" t="s" s="2">
         <v>73</v>
@@ -81537,13 +81578,13 @@
         <v>73</v>
       </c>
       <c r="Y696" t="s" s="2">
-        <v>1026</v>
+        <v>73</v>
       </c>
       <c r="Z696" t="s" s="2">
-        <v>1781</v>
+        <v>73</v>
       </c>
       <c r="AA696" t="s" s="2">
-        <v>1782</v>
+        <v>73</v>
       </c>
       <c r="AB696" t="s" s="2">
         <v>73</v>
@@ -81561,7 +81602,7 @@
         <v>73</v>
       </c>
       <c r="AG696" t="s" s="2">
-        <v>1783</v>
+        <v>1765</v>
       </c>
       <c r="AH696" t="s" s="2">
         <v>74</v>
@@ -81573,18 +81614,18 @@
         <v>73</v>
       </c>
       <c r="AK696" t="s" s="2">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B697" t="s" s="2">
-        <v>2242</v>
+        <v>2246</v>
       </c>
       <c r="C697" t="s" s="2">
-        <v>2242</v>
+        <v>2246</v>
       </c>
       <c r="D697" s="2"/>
       <c r="E697" t="s" s="2">
@@ -81607,16 +81648,18 @@
         <v>100</v>
       </c>
       <c r="L697" t="s" s="2">
-        <v>119</v>
+        <v>754</v>
       </c>
       <c r="M697" t="s" s="2">
-        <v>1785</v>
+        <v>1767</v>
       </c>
       <c r="N697" t="s" s="2">
-        <v>1786</v>
+        <v>1768</v>
       </c>
       <c r="O697" s="2"/>
-      <c r="P697" s="2"/>
+      <c r="P697" t="s" s="2">
+        <v>1769</v>
+      </c>
       <c r="Q697" t="s" s="2">
         <v>73</v>
       </c>
@@ -81664,7 +81707,7 @@
         <v>73</v>
       </c>
       <c r="AG697" t="s" s="2">
-        <v>1787</v>
+        <v>1770</v>
       </c>
       <c r="AH697" t="s" s="2">
         <v>74</v>
@@ -81681,13 +81724,13 @@
     </row>
     <row r="698">
       <c r="A698" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B698" t="s" s="2">
-        <v>2243</v>
+        <v>2247</v>
       </c>
       <c r="C698" t="s" s="2">
-        <v>2243</v>
+        <v>2247</v>
       </c>
       <c r="D698" s="2"/>
       <c r="E698" t="s" s="2">
@@ -81710,19 +81753,17 @@
         <v>100</v>
       </c>
       <c r="L698" t="s" s="2">
-        <v>1789</v>
+        <v>119</v>
       </c>
       <c r="M698" t="s" s="2">
-        <v>2244</v>
+        <v>1772</v>
       </c>
       <c r="N698" t="s" s="2">
-        <v>1791</v>
-      </c>
-      <c r="O698" t="s" s="2">
-        <v>1792</v>
-      </c>
+        <v>1773</v>
+      </c>
+      <c r="O698" s="2"/>
       <c r="P698" t="s" s="2">
-        <v>1793</v>
+        <v>1774</v>
       </c>
       <c r="Q698" t="s" s="2">
         <v>73</v>
@@ -81771,7 +81812,7 @@
         <v>73</v>
       </c>
       <c r="AG698" t="s" s="2">
-        <v>1794</v>
+        <v>1775</v>
       </c>
       <c r="AH698" t="s" s="2">
         <v>74</v>
@@ -81788,13 +81829,13 @@
     </row>
     <row r="699">
       <c r="A699" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B699" t="s" s="2">
-        <v>2245</v>
+        <v>2248</v>
       </c>
       <c r="C699" t="s" s="2">
-        <v>2245</v>
+        <v>2248</v>
       </c>
       <c r="D699" s="2"/>
       <c r="E699" t="s" s="2">
@@ -81805,7 +81846,7 @@
         <v>74</v>
       </c>
       <c r="H699" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I699" t="s" s="2">
         <v>73</v>
@@ -81817,18 +81858,20 @@
         <v>100</v>
       </c>
       <c r="L699" t="s" s="2">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="M699" t="s" s="2">
-        <v>1909</v>
+        <v>1777</v>
       </c>
       <c r="N699" t="s" s="2">
-        <v>1910</v>
+        <v>1778</v>
       </c>
       <c r="O699" t="s" s="2">
-        <v>1911</v>
-      </c>
-      <c r="P699" s="2"/>
+        <v>1779</v>
+      </c>
+      <c r="P699" t="s" s="2">
+        <v>1780</v>
+      </c>
       <c r="Q699" t="s" s="2">
         <v>73</v>
       </c>
@@ -81852,13 +81895,13 @@
         <v>73</v>
       </c>
       <c r="Y699" t="s" s="2">
-        <v>73</v>
+        <v>1026</v>
       </c>
       <c r="Z699" t="s" s="2">
-        <v>73</v>
+        <v>1781</v>
       </c>
       <c r="AA699" t="s" s="2">
-        <v>73</v>
+        <v>1782</v>
       </c>
       <c r="AB699" t="s" s="2">
         <v>73</v>
@@ -81876,16 +81919,16 @@
         <v>73</v>
       </c>
       <c r="AG699" t="s" s="2">
-        <v>1912</v>
+        <v>1783</v>
       </c>
       <c r="AH699" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI699" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ699" t="s" s="2">
-        <v>1913</v>
+        <v>73</v>
       </c>
       <c r="AK699" t="s" s="2">
         <v>110</v>
@@ -81893,13 +81936,13 @@
     </row>
     <row r="700">
       <c r="A700" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B700" t="s" s="2">
-        <v>2246</v>
+        <v>2249</v>
       </c>
       <c r="C700" t="s" s="2">
-        <v>2246</v>
+        <v>2249</v>
       </c>
       <c r="D700" s="2"/>
       <c r="E700" t="s" s="2">
@@ -81910,7 +81953,7 @@
         <v>74</v>
       </c>
       <c r="H700" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I700" t="s" s="2">
         <v>73</v>
@@ -81922,17 +81965,15 @@
         <v>100</v>
       </c>
       <c r="L700" t="s" s="2">
-        <v>224</v>
+        <v>119</v>
       </c>
       <c r="M700" t="s" s="2">
-        <v>1915</v>
+        <v>2250</v>
       </c>
       <c r="N700" t="s" s="2">
-        <v>1916</v>
-      </c>
-      <c r="O700" t="s" s="2">
-        <v>1917</v>
-      </c>
+        <v>1786</v>
+      </c>
+      <c r="O700" s="2"/>
       <c r="P700" s="2"/>
       <c r="Q700" t="s" s="2">
         <v>73</v>
@@ -81957,13 +81998,13 @@
         <v>73</v>
       </c>
       <c r="Y700" t="s" s="2">
-        <v>1026</v>
+        <v>73</v>
       </c>
       <c r="Z700" t="s" s="2">
-        <v>1918</v>
+        <v>73</v>
       </c>
       <c r="AA700" t="s" s="2">
-        <v>1919</v>
+        <v>73</v>
       </c>
       <c r="AB700" t="s" s="2">
         <v>73</v>
@@ -81981,16 +82022,16 @@
         <v>73</v>
       </c>
       <c r="AG700" t="s" s="2">
-        <v>1920</v>
+        <v>1787</v>
       </c>
       <c r="AH700" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI700" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AJ700" t="s" s="2">
-        <v>1913</v>
+        <v>73</v>
       </c>
       <c r="AK700" t="s" s="2">
         <v>110</v>
@@ -81998,13 +82039,13 @@
     </row>
     <row r="701">
       <c r="A701" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B701" t="s" s="2">
-        <v>2247</v>
+        <v>2251</v>
       </c>
       <c r="C701" t="s" s="2">
-        <v>2247</v>
+        <v>2251</v>
       </c>
       <c r="D701" s="2"/>
       <c r="E701" t="s" s="2">
@@ -82027,19 +82068,19 @@
         <v>100</v>
       </c>
       <c r="L701" t="s" s="2">
-        <v>224</v>
+        <v>1789</v>
       </c>
       <c r="M701" t="s" s="2">
-        <v>1922</v>
+        <v>1790</v>
       </c>
       <c r="N701" t="s" s="2">
-        <v>1923</v>
+        <v>1791</v>
       </c>
       <c r="O701" t="s" s="2">
-        <v>1924</v>
+        <v>1792</v>
       </c>
       <c r="P701" t="s" s="2">
-        <v>1925</v>
+        <v>1793</v>
       </c>
       <c r="Q701" t="s" s="2">
         <v>73</v>
@@ -82064,13 +82105,13 @@
         <v>73</v>
       </c>
       <c r="Y701" t="s" s="2">
-        <v>1026</v>
+        <v>73</v>
       </c>
       <c r="Z701" t="s" s="2">
-        <v>1926</v>
+        <v>73</v>
       </c>
       <c r="AA701" t="s" s="2">
-        <v>1927</v>
+        <v>73</v>
       </c>
       <c r="AB701" t="s" s="2">
         <v>73</v>
@@ -82088,7 +82129,7 @@
         <v>73</v>
       </c>
       <c r="AG701" t="s" s="2">
-        <v>1928</v>
+        <v>1794</v>
       </c>
       <c r="AH701" t="s" s="2">
         <v>74</v>
@@ -82105,13 +82146,13 @@
     </row>
     <row r="702">
       <c r="A702" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B702" t="s" s="2">
-        <v>2248</v>
+        <v>2252</v>
       </c>
       <c r="C702" t="s" s="2">
-        <v>2248</v>
+        <v>2252</v>
       </c>
       <c r="D702" s="2"/>
       <c r="E702" t="s" s="2">
@@ -82134,18 +82175,18 @@
         <v>100</v>
       </c>
       <c r="L702" t="s" s="2">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="M702" t="s" s="2">
-        <v>1930</v>
+        <v>2253</v>
       </c>
       <c r="N702" t="s" s="2">
-        <v>1931</v>
-      </c>
-      <c r="O702" s="2"/>
-      <c r="P702" t="s" s="2">
-        <v>1932</v>
-      </c>
+        <v>1910</v>
+      </c>
+      <c r="O702" t="s" s="2">
+        <v>1911</v>
+      </c>
+      <c r="P702" s="2"/>
       <c r="Q702" t="s" s="2">
         <v>73</v>
       </c>
@@ -82169,13 +82210,13 @@
         <v>73</v>
       </c>
       <c r="Y702" t="s" s="2">
-        <v>1026</v>
+        <v>73</v>
       </c>
       <c r="Z702" t="s" s="2">
-        <v>1933</v>
+        <v>73</v>
       </c>
       <c r="AA702" t="s" s="2">
-        <v>1934</v>
+        <v>73</v>
       </c>
       <c r="AB702" t="s" s="2">
         <v>73</v>
@@ -82193,7 +82234,7 @@
         <v>73</v>
       </c>
       <c r="AG702" t="s" s="2">
-        <v>1935</v>
+        <v>1912</v>
       </c>
       <c r="AH702" t="s" s="2">
         <v>74</v>
@@ -82202,7 +82243,7 @@
         <v>82</v>
       </c>
       <c r="AJ702" t="s" s="2">
-        <v>73</v>
+        <v>1913</v>
       </c>
       <c r="AK702" t="s" s="2">
         <v>110</v>
@@ -82210,13 +82251,13 @@
     </row>
     <row r="703">
       <c r="A703" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B703" t="s" s="2">
-        <v>2249</v>
+        <v>2254</v>
       </c>
       <c r="C703" t="s" s="2">
-        <v>2249</v>
+        <v>2254</v>
       </c>
       <c r="D703" s="2"/>
       <c r="E703" t="s" s="2">
@@ -82227,7 +82268,7 @@
         <v>74</v>
       </c>
       <c r="H703" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I703" t="s" s="2">
         <v>73</v>
@@ -82242,17 +82283,15 @@
         <v>224</v>
       </c>
       <c r="M703" t="s" s="2">
-        <v>1937</v>
+        <v>1915</v>
       </c>
       <c r="N703" t="s" s="2">
-        <v>1938</v>
+        <v>1916</v>
       </c>
       <c r="O703" t="s" s="2">
-        <v>1939</v>
-      </c>
-      <c r="P703" t="s" s="2">
-        <v>1940</v>
-      </c>
+        <v>1917</v>
+      </c>
+      <c r="P703" s="2"/>
       <c r="Q703" t="s" s="2">
         <v>73</v>
       </c>
@@ -82279,10 +82318,10 @@
         <v>1026</v>
       </c>
       <c r="Z703" t="s" s="2">
-        <v>1941</v>
+        <v>1918</v>
       </c>
       <c r="AA703" t="s" s="2">
-        <v>1942</v>
+        <v>1919</v>
       </c>
       <c r="AB703" t="s" s="2">
         <v>73</v>
@@ -82300,16 +82339,16 @@
         <v>73</v>
       </c>
       <c r="AG703" t="s" s="2">
-        <v>1943</v>
+        <v>1920</v>
       </c>
       <c r="AH703" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI703" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ703" t="s" s="2">
-        <v>73</v>
+        <v>1913</v>
       </c>
       <c r="AK703" t="s" s="2">
         <v>110</v>
@@ -82317,13 +82356,13 @@
     </row>
     <row r="704">
       <c r="A704" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B704" t="s" s="2">
-        <v>2250</v>
+        <v>2255</v>
       </c>
       <c r="C704" t="s" s="2">
-        <v>2250</v>
+        <v>2255</v>
       </c>
       <c r="D704" s="2"/>
       <c r="E704" t="s" s="2">
@@ -82334,7 +82373,7 @@
         <v>74</v>
       </c>
       <c r="H704" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I704" t="s" s="2">
         <v>73</v>
@@ -82346,16 +82385,20 @@
         <v>100</v>
       </c>
       <c r="L704" t="s" s="2">
-        <v>1804</v>
+        <v>224</v>
       </c>
       <c r="M704" t="s" s="2">
-        <v>1945</v>
+        <v>1922</v>
       </c>
       <c r="N704" t="s" s="2">
-        <v>1946</v>
-      </c>
-      <c r="O704" s="2"/>
-      <c r="P704" s="2"/>
+        <v>1923</v>
+      </c>
+      <c r="O704" t="s" s="2">
+        <v>1924</v>
+      </c>
+      <c r="P704" t="s" s="2">
+        <v>1925</v>
+      </c>
       <c r="Q704" t="s" s="2">
         <v>73</v>
       </c>
@@ -82379,13 +82422,13 @@
         <v>73</v>
       </c>
       <c r="Y704" t="s" s="2">
-        <v>73</v>
+        <v>1026</v>
       </c>
       <c r="Z704" t="s" s="2">
-        <v>73</v>
+        <v>1926</v>
       </c>
       <c r="AA704" t="s" s="2">
-        <v>73</v>
+        <v>1927</v>
       </c>
       <c r="AB704" t="s" s="2">
         <v>73</v>
@@ -82403,13 +82446,13 @@
         <v>73</v>
       </c>
       <c r="AG704" t="s" s="2">
-        <v>1947</v>
+        <v>1928</v>
       </c>
       <c r="AH704" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI704" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AJ704" t="s" s="2">
         <v>73</v>
@@ -82420,13 +82463,13 @@
     </row>
     <row r="705">
       <c r="A705" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B705" t="s" s="2">
-        <v>2251</v>
+        <v>2256</v>
       </c>
       <c r="C705" t="s" s="2">
-        <v>2251</v>
+        <v>2256</v>
       </c>
       <c r="D705" s="2"/>
       <c r="E705" t="s" s="2">
@@ -82446,19 +82489,21 @@
         <v>73</v>
       </c>
       <c r="K705" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="L705" t="s" s="2">
-        <v>119</v>
+        <v>224</v>
       </c>
       <c r="M705" t="s" s="2">
-        <v>84</v>
+        <v>1930</v>
       </c>
       <c r="N705" t="s" s="2">
-        <v>85</v>
+        <v>1931</v>
       </c>
       <c r="O705" s="2"/>
-      <c r="P705" s="2"/>
+      <c r="P705" t="s" s="2">
+        <v>1932</v>
+      </c>
       <c r="Q705" t="s" s="2">
         <v>73</v>
       </c>
@@ -82482,13 +82527,13 @@
         <v>73</v>
       </c>
       <c r="Y705" t="s" s="2">
-        <v>73</v>
+        <v>1026</v>
       </c>
       <c r="Z705" t="s" s="2">
-        <v>73</v>
+        <v>1933</v>
       </c>
       <c r="AA705" t="s" s="2">
-        <v>73</v>
+        <v>1934</v>
       </c>
       <c r="AB705" t="s" s="2">
         <v>73</v>
@@ -82506,7 +82551,7 @@
         <v>73</v>
       </c>
       <c r="AG705" t="s" s="2">
-        <v>86</v>
+        <v>1935</v>
       </c>
       <c r="AH705" t="s" s="2">
         <v>74</v>
@@ -82515,32 +82560,32 @@
         <v>82</v>
       </c>
       <c r="AJ705" t="s" s="2">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="AK705" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B706" t="s" s="2">
-        <v>2252</v>
+        <v>2257</v>
       </c>
       <c r="C706" t="s" s="2">
-        <v>2252</v>
+        <v>2257</v>
       </c>
       <c r="D706" s="2"/>
       <c r="E706" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F706" s="2"/>
       <c r="G706" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H706" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I706" t="s" s="2">
         <v>73</v>
@@ -82549,21 +82594,23 @@
         <v>73</v>
       </c>
       <c r="K706" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="L706" t="s" s="2">
-        <v>90</v>
+        <v>224</v>
       </c>
       <c r="M706" t="s" s="2">
-        <v>91</v>
+        <v>1937</v>
       </c>
       <c r="N706" t="s" s="2">
-        <v>92</v>
+        <v>1938</v>
       </c>
       <c r="O706" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="P706" s="2"/>
+        <v>1939</v>
+      </c>
+      <c r="P706" t="s" s="2">
+        <v>1940</v>
+      </c>
       <c r="Q706" t="s" s="2">
         <v>73</v>
       </c>
@@ -82587,54 +82634,54 @@
         <v>73</v>
       </c>
       <c r="Y706" t="s" s="2">
-        <v>73</v>
+        <v>1026</v>
       </c>
       <c r="Z706" t="s" s="2">
-        <v>73</v>
+        <v>1941</v>
       </c>
       <c r="AA706" t="s" s="2">
-        <v>73</v>
+        <v>1942</v>
       </c>
       <c r="AB706" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AC706" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AD706" t="s" s="2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="AE706" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF706" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AG706" t="s" s="2">
-        <v>97</v>
+        <v>1943</v>
       </c>
       <c r="AH706" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI706" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AJ706" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK706" t="s" s="2">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B707" t="s" s="2">
-        <v>2253</v>
+        <v>2258</v>
       </c>
       <c r="C707" t="s" s="2">
-        <v>2253</v>
+        <v>2258</v>
       </c>
       <c r="D707" s="2"/>
       <c r="E707" t="s" s="2">
@@ -82645,7 +82692,7 @@
         <v>74</v>
       </c>
       <c r="H707" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I707" t="s" s="2">
         <v>73</v>
@@ -82657,18 +82704,16 @@
         <v>100</v>
       </c>
       <c r="L707" t="s" s="2">
-        <v>224</v>
+        <v>1804</v>
       </c>
       <c r="M707" t="s" s="2">
-        <v>1951</v>
+        <v>1945</v>
       </c>
       <c r="N707" t="s" s="2">
-        <v>1952</v>
+        <v>1946</v>
       </c>
       <c r="O707" s="2"/>
-      <c r="P707" t="s" s="2">
-        <v>1953</v>
-      </c>
+      <c r="P707" s="2"/>
       <c r="Q707" t="s" s="2">
         <v>73</v>
       </c>
@@ -82692,13 +82737,13 @@
         <v>73</v>
       </c>
       <c r="Y707" t="s" s="2">
-        <v>1026</v>
+        <v>73</v>
       </c>
       <c r="Z707" t="s" s="2">
-        <v>1954</v>
+        <v>73</v>
       </c>
       <c r="AA707" t="s" s="2">
-        <v>1955</v>
+        <v>73</v>
       </c>
       <c r="AB707" t="s" s="2">
         <v>73</v>
@@ -82716,13 +82761,13 @@
         <v>73</v>
       </c>
       <c r="AG707" t="s" s="2">
-        <v>1956</v>
+        <v>1947</v>
       </c>
       <c r="AH707" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI707" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ707" t="s" s="2">
         <v>73</v>
@@ -82733,13 +82778,13 @@
     </row>
     <row r="708">
       <c r="A708" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B708" t="s" s="2">
-        <v>2254</v>
+        <v>2259</v>
       </c>
       <c r="C708" t="s" s="2">
-        <v>2254</v>
+        <v>2259</v>
       </c>
       <c r="D708" s="2"/>
       <c r="E708" t="s" s="2">
@@ -82759,23 +82804,19 @@
         <v>73</v>
       </c>
       <c r="K708" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="L708" t="s" s="2">
-        <v>1958</v>
+        <v>119</v>
       </c>
       <c r="M708" t="s" s="2">
-        <v>1959</v>
+        <v>84</v>
       </c>
       <c r="N708" t="s" s="2">
-        <v>1960</v>
-      </c>
-      <c r="O708" t="s" s="2">
-        <v>1961</v>
-      </c>
-      <c r="P708" t="s" s="2">
-        <v>1962</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="O708" s="2"/>
+      <c r="P708" s="2"/>
       <c r="Q708" t="s" s="2">
         <v>73</v>
       </c>
@@ -82811,17 +82852,19 @@
         <v>73</v>
       </c>
       <c r="AC708" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="AD708" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="AD708" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="AE708" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF708" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="AG708" t="s" s="2">
-        <v>1963</v>
+        <v>86</v>
       </c>
       <c r="AH708" t="s" s="2">
         <v>74</v>
@@ -82830,34 +82873,32 @@
         <v>82</v>
       </c>
       <c r="AJ708" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="AK708" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B709" t="s" s="2">
-        <v>2255</v>
+        <v>2260</v>
       </c>
       <c r="C709" t="s" s="2">
-        <v>2254</v>
-      </c>
-      <c r="D709" t="s" s="2">
-        <v>1965</v>
-      </c>
+        <v>2260</v>
+      </c>
+      <c r="D709" s="2"/>
       <c r="E709" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F709" s="2"/>
       <c r="G709" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H709" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I709" t="s" s="2">
         <v>73</v>
@@ -82869,20 +82910,18 @@
         <v>73</v>
       </c>
       <c r="L709" t="s" s="2">
-        <v>1966</v>
+        <v>90</v>
       </c>
       <c r="M709" t="s" s="2">
-        <v>1967</v>
+        <v>91</v>
       </c>
       <c r="N709" t="s" s="2">
-        <v>1968</v>
+        <v>92</v>
       </c>
       <c r="O709" t="s" s="2">
-        <v>1969</v>
-      </c>
-      <c r="P709" t="s" s="2">
-        <v>1962</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="P709" s="2"/>
       <c r="Q709" t="s" s="2">
         <v>73</v>
       </c>
@@ -82918,42 +82957,42 @@
         <v>73</v>
       </c>
       <c r="AC709" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AD709" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AE709" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF709" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AG709" t="s" s="2">
-        <v>1963</v>
+        <v>97</v>
       </c>
       <c r="AH709" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI709" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ709" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK709" t="s" s="2">
-        <v>1970</v>
+        <v>98</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B710" t="s" s="2">
-        <v>2256</v>
+        <v>2261</v>
       </c>
       <c r="C710" t="s" s="2">
-        <v>2257</v>
+        <v>2261</v>
       </c>
       <c r="D710" s="2"/>
       <c r="E710" t="s" s="2">
@@ -82973,19 +83012,21 @@
         <v>73</v>
       </c>
       <c r="K710" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="L710" t="s" s="2">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="M710" t="s" s="2">
-        <v>84</v>
+        <v>1951</v>
       </c>
       <c r="N710" t="s" s="2">
-        <v>85</v>
+        <v>1952</v>
       </c>
       <c r="O710" s="2"/>
-      <c r="P710" s="2"/>
+      <c r="P710" t="s" s="2">
+        <v>1953</v>
+      </c>
       <c r="Q710" t="s" s="2">
         <v>73</v>
       </c>
@@ -83009,13 +83050,13 @@
         <v>73</v>
       </c>
       <c r="Y710" t="s" s="2">
-        <v>73</v>
+        <v>1026</v>
       </c>
       <c r="Z710" t="s" s="2">
-        <v>73</v>
+        <v>1954</v>
       </c>
       <c r="AA710" t="s" s="2">
-        <v>73</v>
+        <v>1955</v>
       </c>
       <c r="AB710" t="s" s="2">
         <v>73</v>
@@ -83033,7 +83074,7 @@
         <v>73</v>
       </c>
       <c r="AG710" t="s" s="2">
-        <v>86</v>
+        <v>1956</v>
       </c>
       <c r="AH710" t="s" s="2">
         <v>74</v>
@@ -83042,32 +83083,32 @@
         <v>82</v>
       </c>
       <c r="AJ710" t="s" s="2">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="AK710" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B711" t="s" s="2">
-        <v>2258</v>
+        <v>2262</v>
       </c>
       <c r="C711" t="s" s="2">
-        <v>2259</v>
+        <v>2262</v>
       </c>
       <c r="D711" s="2"/>
       <c r="E711" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F711" s="2"/>
       <c r="G711" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H711" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I711" t="s" s="2">
         <v>73</v>
@@ -83076,21 +83117,23 @@
         <v>73</v>
       </c>
       <c r="K711" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="L711" t="s" s="2">
-        <v>90</v>
+        <v>1958</v>
       </c>
       <c r="M711" t="s" s="2">
-        <v>91</v>
+        <v>1959</v>
       </c>
       <c r="N711" t="s" s="2">
-        <v>92</v>
+        <v>1960</v>
       </c>
       <c r="O711" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="P711" s="2"/>
+        <v>1961</v>
+      </c>
+      <c r="P711" t="s" s="2">
+        <v>1962</v>
+      </c>
       <c r="Q711" t="s" s="2">
         <v>73</v>
       </c>
@@ -83126,11 +83169,9 @@
         <v>73</v>
       </c>
       <c r="AC711" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AD711" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>697</v>
+      </c>
+      <c r="AD711" s="2"/>
       <c r="AE711" t="s" s="2">
         <v>73</v>
       </c>
@@ -83138,32 +83179,34 @@
         <v>96</v>
       </c>
       <c r="AG711" t="s" s="2">
-        <v>97</v>
+        <v>1963</v>
       </c>
       <c r="AH711" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI711" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AJ711" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK711" t="s" s="2">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B712" t="s" s="2">
-        <v>2260</v>
+        <v>2263</v>
       </c>
       <c r="C712" t="s" s="2">
-        <v>2261</v>
-      </c>
-      <c r="D712" s="2"/>
+        <v>2262</v>
+      </c>
+      <c r="D712" t="s" s="2">
+        <v>1965</v>
+      </c>
       <c r="E712" t="s" s="2">
         <v>73</v>
       </c>
@@ -83181,22 +83224,22 @@
         <v>73</v>
       </c>
       <c r="K712" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="L712" t="s" s="2">
-        <v>1829</v>
+        <v>1966</v>
       </c>
       <c r="M712" t="s" s="2">
-        <v>1977</v>
+        <v>1967</v>
       </c>
       <c r="N712" t="s" s="2">
-        <v>1978</v>
+        <v>1968</v>
       </c>
       <c r="O712" t="s" s="2">
-        <v>1979</v>
+        <v>1969</v>
       </c>
       <c r="P712" t="s" s="2">
-        <v>1980</v>
+        <v>1962</v>
       </c>
       <c r="Q712" t="s" s="2">
         <v>73</v>
@@ -83245,7 +83288,7 @@
         <v>73</v>
       </c>
       <c r="AG712" t="s" s="2">
-        <v>1981</v>
+        <v>1963</v>
       </c>
       <c r="AH712" t="s" s="2">
         <v>74</v>
@@ -83257,18 +83300,18 @@
         <v>73</v>
       </c>
       <c r="AK712" t="s" s="2">
-        <v>110</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B713" t="s" s="2">
-        <v>2262</v>
+        <v>2264</v>
       </c>
       <c r="C713" t="s" s="2">
-        <v>2263</v>
+        <v>2265</v>
       </c>
       <c r="D713" s="2"/>
       <c r="E713" t="s" s="2">
@@ -83279,36 +83322,32 @@
         <v>74</v>
       </c>
       <c r="H713" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I713" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J713" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="K713" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="L713" t="s" s="2">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="M713" t="s" s="2">
-        <v>1984</v>
+        <v>84</v>
       </c>
       <c r="N713" t="s" s="2">
-        <v>1985</v>
+        <v>85</v>
       </c>
       <c r="O713" s="2"/>
-      <c r="P713" t="s" s="2">
-        <v>1986</v>
-      </c>
+      <c r="P713" s="2"/>
       <c r="Q713" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="R713" t="s" s="2">
-        <v>1987</v>
-      </c>
+      <c r="R713" s="2"/>
       <c r="S713" t="s" s="2">
         <v>73</v>
       </c>
@@ -83328,13 +83367,13 @@
         <v>73</v>
       </c>
       <c r="Y713" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="Z713" t="s" s="2">
-        <v>1988</v>
+        <v>73</v>
       </c>
       <c r="AA713" t="s" s="2">
-        <v>1989</v>
+        <v>73</v>
       </c>
       <c r="AB713" t="s" s="2">
         <v>73</v>
@@ -83352,7 +83391,7 @@
         <v>73</v>
       </c>
       <c r="AG713" t="s" s="2">
-        <v>1990</v>
+        <v>86</v>
       </c>
       <c r="AH713" t="s" s="2">
         <v>74</v>
@@ -83361,32 +83400,32 @@
         <v>82</v>
       </c>
       <c r="AJ713" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="AK713" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B714" t="s" s="2">
-        <v>2264</v>
+        <v>2266</v>
       </c>
       <c r="C714" t="s" s="2">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="D714" s="2"/>
       <c r="E714" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F714" s="2"/>
       <c r="G714" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H714" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I714" t="s" s="2">
         <v>73</v>
@@ -83395,21 +83434,21 @@
         <v>73</v>
       </c>
       <c r="K714" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="L714" t="s" s="2">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="M714" t="s" s="2">
-        <v>1993</v>
+        <v>91</v>
       </c>
       <c r="N714" t="s" s="2">
-        <v>1994</v>
-      </c>
-      <c r="O714" s="2"/>
-      <c r="P714" t="s" s="2">
-        <v>1995</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="O714" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="P714" s="2"/>
       <c r="Q714" t="s" s="2">
         <v>73</v>
       </c>
@@ -83445,42 +83484,42 @@
         <v>73</v>
       </c>
       <c r="AC714" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AD714" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AE714" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AF714" t="s" s="2">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AG714" t="s" s="2">
-        <v>1996</v>
+        <v>97</v>
       </c>
       <c r="AH714" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI714" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ714" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK714" t="s" s="2">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B715" t="s" s="2">
-        <v>2266</v>
+        <v>2268</v>
       </c>
       <c r="C715" t="s" s="2">
-        <v>2267</v>
+        <v>2269</v>
       </c>
       <c r="D715" s="2"/>
       <c r="E715" t="s" s="2">
@@ -83503,17 +83542,19 @@
         <v>100</v>
       </c>
       <c r="L715" t="s" s="2">
-        <v>200</v>
+        <v>1829</v>
       </c>
       <c r="M715" t="s" s="2">
-        <v>1999</v>
+        <v>2270</v>
       </c>
       <c r="N715" t="s" s="2">
-        <v>2000</v>
-      </c>
-      <c r="O715" s="2"/>
+        <v>1978</v>
+      </c>
+      <c r="O715" t="s" s="2">
+        <v>1979</v>
+      </c>
       <c r="P715" t="s" s="2">
-        <v>2001</v>
+        <v>1980</v>
       </c>
       <c r="Q715" t="s" s="2">
         <v>73</v>
@@ -83562,7 +83603,7 @@
         <v>73</v>
       </c>
       <c r="AG715" t="s" s="2">
-        <v>2002</v>
+        <v>1981</v>
       </c>
       <c r="AH715" t="s" s="2">
         <v>74</v>
@@ -83571,7 +83612,7 @@
         <v>82</v>
       </c>
       <c r="AJ715" t="s" s="2">
-        <v>2003</v>
+        <v>73</v>
       </c>
       <c r="AK715" t="s" s="2">
         <v>110</v>
@@ -83579,13 +83620,13 @@
     </row>
     <row r="716">
       <c r="A716" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B716" t="s" s="2">
-        <v>2268</v>
+        <v>2271</v>
       </c>
       <c r="C716" t="s" s="2">
-        <v>2269</v>
+        <v>2272</v>
       </c>
       <c r="D716" s="2"/>
       <c r="E716" t="s" s="2">
@@ -83596,13 +83637,13 @@
         <v>74</v>
       </c>
       <c r="H716" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I716" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J716" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="K716" t="s" s="2">
         <v>100</v>
@@ -83611,21 +83652,21 @@
         <v>101</v>
       </c>
       <c r="M716" t="s" s="2">
-        <v>2270</v>
+        <v>1984</v>
       </c>
       <c r="N716" t="s" s="2">
-        <v>2007</v>
-      </c>
-      <c r="O716" t="s" s="2">
-        <v>2008</v>
-      </c>
+        <v>1985</v>
+      </c>
+      <c r="O716" s="2"/>
       <c r="P716" t="s" s="2">
-        <v>2009</v>
+        <v>1986</v>
       </c>
       <c r="Q716" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="R716" s="2"/>
+      <c r="R716" t="s" s="2">
+        <v>1987</v>
+      </c>
       <c r="S716" t="s" s="2">
         <v>73</v>
       </c>
@@ -83647,9 +83688,11 @@
       <c r="Y716" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="Z716" s="2"/>
+      <c r="Z716" t="s" s="2">
+        <v>1988</v>
+      </c>
       <c r="AA716" t="s" s="2">
-        <v>2010</v>
+        <v>1989</v>
       </c>
       <c r="AB716" t="s" s="2">
         <v>73</v>
@@ -83667,7 +83710,7 @@
         <v>73</v>
       </c>
       <c r="AG716" t="s" s="2">
-        <v>2011</v>
+        <v>1990</v>
       </c>
       <c r="AH716" t="s" s="2">
         <v>74</v>
@@ -83676,7 +83719,7 @@
         <v>82</v>
       </c>
       <c r="AJ716" t="s" s="2">
-        <v>2003</v>
+        <v>73</v>
       </c>
       <c r="AK716" t="s" s="2">
         <v>110</v>
@@ -83684,13 +83727,13 @@
     </row>
     <row r="717">
       <c r="A717" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B717" t="s" s="2">
-        <v>2271</v>
+        <v>2273</v>
       </c>
       <c r="C717" t="s" s="2">
-        <v>2271</v>
+        <v>2274</v>
       </c>
       <c r="D717" s="2"/>
       <c r="E717" t="s" s="2">
@@ -83713,19 +83756,17 @@
         <v>100</v>
       </c>
       <c r="L717" t="s" s="2">
-        <v>2013</v>
+        <v>119</v>
       </c>
       <c r="M717" t="s" s="2">
-        <v>2014</v>
+        <v>2275</v>
       </c>
       <c r="N717" t="s" s="2">
-        <v>2015</v>
-      </c>
-      <c r="O717" t="s" s="2">
-        <v>2016</v>
-      </c>
+        <v>1994</v>
+      </c>
+      <c r="O717" s="2"/>
       <c r="P717" t="s" s="2">
-        <v>2017</v>
+        <v>1995</v>
       </c>
       <c r="Q717" t="s" s="2">
         <v>73</v>
@@ -83774,7 +83815,7 @@
         <v>73</v>
       </c>
       <c r="AG717" t="s" s="2">
-        <v>2018</v>
+        <v>1996</v>
       </c>
       <c r="AH717" t="s" s="2">
         <v>74</v>
@@ -83791,13 +83832,13 @@
     </row>
     <row r="718">
       <c r="A718" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B718" t="s" s="2">
-        <v>2272</v>
+        <v>2276</v>
       </c>
       <c r="C718" t="s" s="2">
-        <v>2272</v>
+        <v>2277</v>
       </c>
       <c r="D718" s="2"/>
       <c r="E718" t="s" s="2">
@@ -83808,7 +83849,7 @@
         <v>74</v>
       </c>
       <c r="H718" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I718" t="s" s="2">
         <v>73</v>
@@ -83820,19 +83861,17 @@
         <v>100</v>
       </c>
       <c r="L718" t="s" s="2">
-        <v>2020</v>
+        <v>200</v>
       </c>
       <c r="M718" t="s" s="2">
-        <v>2021</v>
+        <v>1999</v>
       </c>
       <c r="N718" t="s" s="2">
-        <v>2022</v>
-      </c>
-      <c r="O718" t="s" s="2">
-        <v>2023</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="O718" s="2"/>
       <c r="P718" t="s" s="2">
-        <v>2024</v>
+        <v>2001</v>
       </c>
       <c r="Q718" t="s" s="2">
         <v>73</v>
@@ -83881,16 +83920,16 @@
         <v>73</v>
       </c>
       <c r="AG718" t="s" s="2">
-        <v>2025</v>
+        <v>2002</v>
       </c>
       <c r="AH718" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI718" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AJ718" t="s" s="2">
-        <v>73</v>
+        <v>2003</v>
       </c>
       <c r="AK718" t="s" s="2">
         <v>110</v>
@@ -83898,13 +83937,13 @@
     </row>
     <row r="719">
       <c r="A719" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B719" t="s" s="2">
-        <v>2273</v>
+        <v>2278</v>
       </c>
       <c r="C719" t="s" s="2">
-        <v>2273</v>
+        <v>2279</v>
       </c>
       <c r="D719" s="2"/>
       <c r="E719" t="s" s="2">
@@ -83927,19 +83966,19 @@
         <v>100</v>
       </c>
       <c r="L719" t="s" s="2">
-        <v>1966</v>
+        <v>101</v>
       </c>
       <c r="M719" t="s" s="2">
-        <v>2027</v>
+        <v>2006</v>
       </c>
       <c r="N719" t="s" s="2">
-        <v>2028</v>
+        <v>2007</v>
       </c>
       <c r="O719" t="s" s="2">
-        <v>2029</v>
+        <v>2008</v>
       </c>
       <c r="P719" t="s" s="2">
-        <v>2030</v>
+        <v>2009</v>
       </c>
       <c r="Q719" t="s" s="2">
         <v>73</v>
@@ -83964,13 +84003,11 @@
         <v>73</v>
       </c>
       <c r="Y719" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z719" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="Z719" s="2"/>
       <c r="AA719" t="s" s="2">
-        <v>73</v>
+        <v>2280</v>
       </c>
       <c r="AB719" t="s" s="2">
         <v>73</v>
@@ -83988,7 +84025,7 @@
         <v>73</v>
       </c>
       <c r="AG719" t="s" s="2">
-        <v>2031</v>
+        <v>2010</v>
       </c>
       <c r="AH719" t="s" s="2">
         <v>74</v>
@@ -83997,7 +84034,7 @@
         <v>82</v>
       </c>
       <c r="AJ719" t="s" s="2">
-        <v>73</v>
+        <v>2003</v>
       </c>
       <c r="AK719" t="s" s="2">
         <v>110</v>
@@ -84005,13 +84042,13 @@
     </row>
     <row r="720">
       <c r="A720" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B720" t="s" s="2">
-        <v>2274</v>
+        <v>2281</v>
       </c>
       <c r="C720" t="s" s="2">
-        <v>2274</v>
+        <v>2281</v>
       </c>
       <c r="D720" s="2"/>
       <c r="E720" t="s" s="2">
@@ -84034,17 +84071,19 @@
         <v>100</v>
       </c>
       <c r="L720" t="s" s="2">
-        <v>1966</v>
+        <v>2012</v>
       </c>
       <c r="M720" t="s" s="2">
-        <v>2033</v>
+        <v>2013</v>
       </c>
       <c r="N720" t="s" s="2">
-        <v>2034</v>
-      </c>
-      <c r="O720" s="2"/>
+        <v>2014</v>
+      </c>
+      <c r="O720" t="s" s="2">
+        <v>2015</v>
+      </c>
       <c r="P720" t="s" s="2">
-        <v>2035</v>
+        <v>2016</v>
       </c>
       <c r="Q720" t="s" s="2">
         <v>73</v>
@@ -84093,7 +84132,7 @@
         <v>73</v>
       </c>
       <c r="AG720" t="s" s="2">
-        <v>2036</v>
+        <v>2017</v>
       </c>
       <c r="AH720" t="s" s="2">
         <v>74</v>
@@ -84110,13 +84149,13 @@
     </row>
     <row r="721">
       <c r="A721" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B721" t="s" s="2">
-        <v>2275</v>
+        <v>2282</v>
       </c>
       <c r="C721" t="s" s="2">
-        <v>2275</v>
+        <v>2282</v>
       </c>
       <c r="D721" s="2"/>
       <c r="E721" t="s" s="2">
@@ -84127,7 +84166,7 @@
         <v>74</v>
       </c>
       <c r="H721" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I721" t="s" s="2">
         <v>73</v>
@@ -84136,19 +84175,23 @@
         <v>73</v>
       </c>
       <c r="K721" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="L721" t="s" s="2">
-        <v>762</v>
+        <v>2020</v>
       </c>
       <c r="M721" t="s" s="2">
-        <v>2276</v>
+        <v>2028</v>
       </c>
       <c r="N721" t="s" s="2">
-        <v>2277</v>
-      </c>
-      <c r="O721" s="2"/>
-      <c r="P721" s="2"/>
+        <v>2029</v>
+      </c>
+      <c r="O721" t="s" s="2">
+        <v>2030</v>
+      </c>
+      <c r="P721" t="s" s="2">
+        <v>2031</v>
+      </c>
       <c r="Q721" t="s" s="2">
         <v>73</v>
       </c>
@@ -84196,13 +84239,13 @@
         <v>73</v>
       </c>
       <c r="AG721" t="s" s="2">
-        <v>2275</v>
+        <v>2032</v>
       </c>
       <c r="AH721" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI721" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ721" t="s" s="2">
         <v>73</v>
@@ -84213,13 +84256,13 @@
     </row>
     <row r="722">
       <c r="A722" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B722" t="s" s="2">
-        <v>2278</v>
+        <v>2283</v>
       </c>
       <c r="C722" t="s" s="2">
-        <v>2278</v>
+        <v>2283</v>
       </c>
       <c r="D722" s="2"/>
       <c r="E722" t="s" s="2">
@@ -84239,19 +84282,23 @@
         <v>73</v>
       </c>
       <c r="K722" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="L722" t="s" s="2">
-        <v>119</v>
+        <v>1966</v>
       </c>
       <c r="M722" t="s" s="2">
-        <v>84</v>
+        <v>2034</v>
       </c>
       <c r="N722" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="O722" s="2"/>
-      <c r="P722" s="2"/>
+        <v>2035</v>
+      </c>
+      <c r="O722" t="s" s="2">
+        <v>2036</v>
+      </c>
+      <c r="P722" t="s" s="2">
+        <v>2037</v>
+      </c>
       <c r="Q722" t="s" s="2">
         <v>73</v>
       </c>
@@ -84299,7 +84346,7 @@
         <v>73</v>
       </c>
       <c r="AG722" t="s" s="2">
-        <v>86</v>
+        <v>2038</v>
       </c>
       <c r="AH722" t="s" s="2">
         <v>74</v>
@@ -84308,32 +84355,32 @@
         <v>82</v>
       </c>
       <c r="AJ722" t="s" s="2">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="AK722" t="s" s="2">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B723" t="s" s="2">
-        <v>2279</v>
+        <v>2284</v>
       </c>
       <c r="C723" t="s" s="2">
-        <v>2279</v>
+        <v>2284</v>
       </c>
       <c r="D723" s="2"/>
       <c r="E723" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F723" s="2"/>
       <c r="G723" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H723" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I723" t="s" s="2">
         <v>73</v>
@@ -84342,21 +84389,21 @@
         <v>73</v>
       </c>
       <c r="K723" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="L723" t="s" s="2">
-        <v>90</v>
+        <v>1966</v>
       </c>
       <c r="M723" t="s" s="2">
-        <v>91</v>
+        <v>2040</v>
       </c>
       <c r="N723" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="O723" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="P723" s="2"/>
+        <v>2041</v>
+      </c>
+      <c r="O723" s="2"/>
+      <c r="P723" t="s" s="2">
+        <v>2042</v>
+      </c>
       <c r="Q723" t="s" s="2">
         <v>73</v>
       </c>
@@ -84404,66 +84451,62 @@
         <v>73</v>
       </c>
       <c r="AG723" t="s" s="2">
-        <v>97</v>
+        <v>2043</v>
       </c>
       <c r="AH723" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI723" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AJ723" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK723" t="s" s="2">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B724" t="s" s="2">
-        <v>2280</v>
+        <v>2285</v>
       </c>
       <c r="C724" t="s" s="2">
-        <v>2280</v>
+        <v>2285</v>
       </c>
       <c r="D724" s="2"/>
       <c r="E724" t="s" s="2">
-        <v>771</v>
+        <v>73</v>
       </c>
       <c r="F724" s="2"/>
       <c r="G724" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H724" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I724" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J724" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="K724" t="s" s="2">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="L724" t="s" s="2">
-        <v>90</v>
+        <v>762</v>
       </c>
       <c r="M724" t="s" s="2">
-        <v>772</v>
+        <v>2286</v>
       </c>
       <c r="N724" t="s" s="2">
-        <v>773</v>
-      </c>
-      <c r="O724" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="P724" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>2287</v>
+      </c>
+      <c r="O724" s="2"/>
+      <c r="P724" s="2"/>
       <c r="Q724" t="s" s="2">
         <v>73</v>
       </c>
@@ -84511,30 +84554,30 @@
         <v>73</v>
       </c>
       <c r="AG724" t="s" s="2">
-        <v>774</v>
+        <v>2285</v>
       </c>
       <c r="AH724" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI724" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AJ724" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK724" t="s" s="2">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B725" t="s" s="2">
-        <v>2281</v>
+        <v>2288</v>
       </c>
       <c r="C725" t="s" s="2">
-        <v>2281</v>
+        <v>2288</v>
       </c>
       <c r="D725" s="2"/>
       <c r="E725" t="s" s="2">
@@ -84542,7 +84585,7 @@
       </c>
       <c r="F725" s="2"/>
       <c r="G725" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="H725" t="s" s="2">
         <v>82</v>
@@ -84557,13 +84600,13 @@
         <v>73</v>
       </c>
       <c r="L725" t="s" s="2">
-        <v>272</v>
+        <v>119</v>
       </c>
       <c r="M725" t="s" s="2">
-        <v>2282</v>
+        <v>84</v>
       </c>
       <c r="N725" t="s" s="2">
-        <v>2283</v>
+        <v>85</v>
       </c>
       <c r="O725" s="2"/>
       <c r="P725" s="2"/>
@@ -84614,41 +84657,41 @@
         <v>73</v>
       </c>
       <c r="AG725" t="s" s="2">
-        <v>2281</v>
+        <v>86</v>
       </c>
       <c r="AH725" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AI725" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ725" t="s" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="AK725" t="s" s="2">
-        <v>110</v>
+        <v>73</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B726" t="s" s="2">
-        <v>2284</v>
+        <v>2289</v>
       </c>
       <c r="C726" t="s" s="2">
-        <v>2284</v>
+        <v>2289</v>
       </c>
       <c r="D726" s="2"/>
       <c r="E726" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F726" s="2"/>
       <c r="G726" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H726" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I726" t="s" s="2">
         <v>73</v>
@@ -84660,15 +84703,17 @@
         <v>73</v>
       </c>
       <c r="L726" t="s" s="2">
-        <v>224</v>
+        <v>90</v>
       </c>
       <c r="M726" t="s" s="2">
-        <v>2285</v>
+        <v>91</v>
       </c>
       <c r="N726" t="s" s="2">
-        <v>2286</v>
-      </c>
-      <c r="O726" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="O726" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="P726" s="2"/>
       <c r="Q726" t="s" s="2">
         <v>73</v>
@@ -84693,13 +84738,13 @@
         <v>73</v>
       </c>
       <c r="Y726" t="s" s="2">
-        <v>1026</v>
+        <v>73</v>
       </c>
       <c r="Z726" t="s" s="2">
-        <v>2287</v>
+        <v>73</v>
       </c>
       <c r="AA726" t="s" s="2">
-        <v>2098</v>
+        <v>73</v>
       </c>
       <c r="AB726" t="s" s="2">
         <v>73</v>
@@ -84717,34 +84762,34 @@
         <v>73</v>
       </c>
       <c r="AG726" t="s" s="2">
-        <v>2284</v>
+        <v>97</v>
       </c>
       <c r="AH726" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI726" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AJ726" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AK726" t="s" s="2">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B727" t="s" s="2">
-        <v>2288</v>
+        <v>2290</v>
       </c>
       <c r="C727" t="s" s="2">
-        <v>2288</v>
+        <v>2290</v>
       </c>
       <c r="D727" s="2"/>
       <c r="E727" t="s" s="2">
-        <v>73</v>
+        <v>771</v>
       </c>
       <c r="F727" s="2"/>
       <c r="G727" t="s" s="2">
@@ -84757,22 +84802,26 @@
         <v>73</v>
       </c>
       <c r="J727" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="K727" t="s" s="2">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="L727" t="s" s="2">
-        <v>224</v>
+        <v>90</v>
       </c>
       <c r="M727" t="s" s="2">
-        <v>2289</v>
+        <v>772</v>
       </c>
       <c r="N727" t="s" s="2">
-        <v>2290</v>
-      </c>
-      <c r="O727" s="2"/>
-      <c r="P727" s="2"/>
+        <v>773</v>
+      </c>
+      <c r="O727" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="P727" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="Q727" t="s" s="2">
         <v>73</v>
       </c>
@@ -84796,13 +84845,13 @@
         <v>73</v>
       </c>
       <c r="Y727" t="s" s="2">
-        <v>1026</v>
+        <v>73</v>
       </c>
       <c r="Z727" t="s" s="2">
-        <v>2102</v>
+        <v>73</v>
       </c>
       <c r="AA727" t="s" s="2">
-        <v>2103</v>
+        <v>73</v>
       </c>
       <c r="AB727" t="s" s="2">
         <v>73</v>
@@ -84820,7 +84869,7 @@
         <v>73</v>
       </c>
       <c r="AG727" t="s" s="2">
-        <v>2288</v>
+        <v>774</v>
       </c>
       <c r="AH727" t="s" s="2">
         <v>74</v>
@@ -84832,12 +84881,12 @@
         <v>73</v>
       </c>
       <c r="AK727" t="s" s="2">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B728" t="s" s="2">
         <v>2291</v>
@@ -84851,7 +84900,7 @@
       </c>
       <c r="F728" s="2"/>
       <c r="G728" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H728" t="s" s="2">
         <v>82</v>
@@ -84866,13 +84915,13 @@
         <v>73</v>
       </c>
       <c r="L728" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M728" t="s" s="2">
         <v>2292</v>
       </c>
-      <c r="M728" t="s" s="2">
+      <c r="N728" t="s" s="2">
         <v>2293</v>
-      </c>
-      <c r="N728" t="s" s="2">
-        <v>2294</v>
       </c>
       <c r="O728" s="2"/>
       <c r="P728" s="2"/>
@@ -84926,7 +84975,7 @@
         <v>2291</v>
       </c>
       <c r="AH728" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AI728" t="s" s="2">
         <v>82</v>
@@ -84940,13 +84989,13 @@
     </row>
     <row r="729">
       <c r="A729" t="s" s="2">
-        <v>2109</v>
+        <v>2116</v>
       </c>
       <c r="B729" t="s" s="2">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="C729" t="s" s="2">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="D729" s="2"/>
       <c r="E729" t="s" s="2">
@@ -84957,7 +85006,7 @@
         <v>74</v>
       </c>
       <c r="H729" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I729" t="s" s="2">
         <v>73</v>
@@ -84969,17 +85018,15 @@
         <v>73</v>
       </c>
       <c r="L729" t="s" s="2">
-        <v>2105</v>
+        <v>224</v>
       </c>
       <c r="M729" t="s" s="2">
+        <v>2295</v>
+      </c>
+      <c r="N729" t="s" s="2">
         <v>2296</v>
       </c>
-      <c r="N729" t="s" s="2">
-        <v>2297</v>
-      </c>
-      <c r="O729" t="s" s="2">
-        <v>2298</v>
-      </c>
+      <c r="O729" s="2"/>
       <c r="P729" s="2"/>
       <c r="Q729" t="s" s="2">
         <v>73</v>
@@ -85004,13 +85051,13 @@
         <v>73</v>
       </c>
       <c r="Y729" t="s" s="2">
-        <v>73</v>
+        <v>1026</v>
       </c>
       <c r="Z729" t="s" s="2">
-        <v>73</v>
+        <v>2297</v>
       </c>
       <c r="AA729" t="s" s="2">
-        <v>73</v>
+        <v>2105</v>
       </c>
       <c r="AB729" t="s" s="2">
         <v>73</v>
@@ -85028,18 +85075,329 @@
         <v>73</v>
       </c>
       <c r="AG729" t="s" s="2">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="AH729" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI729" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ729" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK729" t="s" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="s" s="2">
+        <v>2116</v>
+      </c>
+      <c r="B730" t="s" s="2">
+        <v>2298</v>
+      </c>
+      <c r="C730" t="s" s="2">
+        <v>2298</v>
+      </c>
+      <c r="D730" s="2"/>
+      <c r="E730" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F730" s="2"/>
+      <c r="G730" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H730" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AJ729" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK729" t="s" s="2">
+      <c r="I730" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J730" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K730" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L730" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M730" t="s" s="2">
+        <v>2299</v>
+      </c>
+      <c r="N730" t="s" s="2">
+        <v>2300</v>
+      </c>
+      <c r="O730" s="2"/>
+      <c r="P730" s="2"/>
+      <c r="Q730" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R730" s="2"/>
+      <c r="S730" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T730" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U730" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V730" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W730" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X730" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y730" t="s" s="2">
+        <v>1026</v>
+      </c>
+      <c r="Z730" t="s" s="2">
+        <v>2109</v>
+      </c>
+      <c r="AA730" t="s" s="2">
+        <v>2110</v>
+      </c>
+      <c r="AB730" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC730" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD730" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE730" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF730" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG730" t="s" s="2">
+        <v>2298</v>
+      </c>
+      <c r="AH730" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI730" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ730" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK730" t="s" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="s" s="2">
+        <v>2116</v>
+      </c>
+      <c r="B731" t="s" s="2">
+        <v>2301</v>
+      </c>
+      <c r="C731" t="s" s="2">
+        <v>2301</v>
+      </c>
+      <c r="D731" s="2"/>
+      <c r="E731" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F731" s="2"/>
+      <c r="G731" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H731" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I731" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J731" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K731" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L731" t="s" s="2">
+        <v>2302</v>
+      </c>
+      <c r="M731" t="s" s="2">
+        <v>2303</v>
+      </c>
+      <c r="N731" t="s" s="2">
+        <v>2304</v>
+      </c>
+      <c r="O731" s="2"/>
+      <c r="P731" s="2"/>
+      <c r="Q731" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R731" s="2"/>
+      <c r="S731" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T731" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U731" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V731" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W731" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X731" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y731" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z731" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA731" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB731" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC731" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD731" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE731" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF731" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG731" t="s" s="2">
+        <v>2301</v>
+      </c>
+      <c r="AH731" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI731" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ731" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK731" t="s" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="s" s="2">
+        <v>2116</v>
+      </c>
+      <c r="B732" t="s" s="2">
+        <v>2305</v>
+      </c>
+      <c r="C732" t="s" s="2">
+        <v>2305</v>
+      </c>
+      <c r="D732" s="2"/>
+      <c r="E732" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F732" s="2"/>
+      <c r="G732" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H732" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I732" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J732" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K732" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L732" t="s" s="2">
+        <v>2112</v>
+      </c>
+      <c r="M732" t="s" s="2">
+        <v>2306</v>
+      </c>
+      <c r="N732" t="s" s="2">
+        <v>2307</v>
+      </c>
+      <c r="O732" t="s" s="2">
+        <v>2308</v>
+      </c>
+      <c r="P732" s="2"/>
+      <c r="Q732" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R732" s="2"/>
+      <c r="S732" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T732" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U732" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V732" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W732" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X732" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y732" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z732" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA732" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB732" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC732" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD732" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE732" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF732" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG732" t="s" s="2">
+        <v>2305</v>
+      </c>
+      <c r="AH732" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI732" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ732" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK732" t="s" s="2">
         <v>110</v>
       </c>
     </row>

--- a/r5-ELGA-e-medikation-main/all-profiles.xlsx
+++ b/r5-ELGA-e-medikation-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T04:58:04+00:00</t>
+    <t>2024-04-30T05:08:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4083,7 +4083,7 @@
 Order</t>
   </si>
   <si>
-    <t xml:space="preserve">MedicationRequest {http://fhir.hl7.at/elga-e-medikation-R5/StructureDefinition/eMed-requests}
+    <t xml:space="preserve">MedicationRequest {http://fhir.hl7.at/elga-e-medikation-R5/StructureDefinition/eMed-request}
 </t>
   </si>
   <si>
@@ -5001,16 +5001,16 @@
     <t>Sub actions.</t>
   </si>
   <si>
-    <t>eMed-requests</t>
-  </si>
-  <si>
-    <t>http://fhir.hl7.at/elga-e-medikation-R5/StructureDefinition/eMed-requests</t>
+    <t>eMed-request</t>
+  </si>
+  <si>
+    <t>http://fhir.hl7.at/elga-e-medikation-R5/StructureDefinition/eMed-request</t>
   </si>
   <si>
     <t>eMedRequest</t>
   </si>
   <si>
-    <t>2 ELGA e-Medication MedicationRequests (eMedRequest)</t>
+    <t>2 ELGA e-Medication MedicationRequest (eMedRequest)</t>
   </si>
   <si>
     <t>MedicationRequest</t>
@@ -6846,7 +6846,7 @@
     <t>MedicationDispense.authorizingPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.hl7.at/elga-e-medikation-R5/StructureDefinition/eMed-requests)
+    <t xml:space="preserve">Reference(http://fhir.hl7.at/elga-e-medikation-R5/StructureDefinition/eMed-request)
 </t>
   </si>
   <si>

--- a/r5-ELGA-e-medikation-main/all-profiles.xlsx
+++ b/r5-ELGA-e-medikation-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T05:08:54+00:00</t>
+    <t>2024-04-30T09:05:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -6264,7 +6264,7 @@
 RangeQuantity {SimpleQuantity}</t>
   </si>
   <si>
-    <t>Amount of medication per unit of time</t>
+    <t>Do not use any rate element for repetitions, period or any other time related information. Use timing instead. | Verwenden Sie für Wiederholungen, Perioden oder andere zeitbezogene Informationen keine der rate-Elemente. Verwenden Sie stattdessen timing.</t>
   </si>
   <si>
     <t>Amount of medication per unit of time.</t>
@@ -6291,7 +6291,7 @@
 </t>
   </si>
   <si>
-    <t>Do not use any rate element for repetitions, period or any other time related information. Use timing instead. | Verwenden Sie für Wiederholungen, Perioden oder andere zeitbezogene Informationen keine der rate-Elemente. Verwenden Sie stattdessen timing.</t>
+    <t>Amount of medication per unit of time</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.rate[x]:rateRange</t>
@@ -73727,7 +73727,7 @@
         <v>2024</v>
       </c>
       <c r="M621" t="s" s="2">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="N621" t="s" s="2">
         <v>2014</v>
@@ -84074,7 +84074,7 @@
         <v>2012</v>
       </c>
       <c r="M720" t="s" s="2">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="N720" t="s" s="2">
         <v>2014</v>

--- a/r5-ELGA-e-medikation-main/all-profiles.xlsx
+++ b/r5-ELGA-e-medikation-main/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24414" uniqueCount="2309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24413" uniqueCount="2308">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T09:05:02+00:00</t>
+    <t>2024-05-06T07:04:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4296,7 +4296,7 @@
     <t>RequestOrchestration.authoredOn</t>
   </si>
   <si>
-    <t>When the request orchestration was authored</t>
+    <t>When the prescription was authored | Wann das Rezept verfasst wurde</t>
   </si>
   <si>
     <t>Indicates when the request orchestration was created.</t>
@@ -5886,10 +5886,7 @@
     <t>Timings are frequently determined by occurrences such as waking, eating and sleep.</t>
   </si>
   <si>
-    <t>Real-world event relating to the schedule.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/event-timing|5.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/event-timing</t>
   </si>
   <si>
     <t>Timing.repeat.when</t>
@@ -8579,7 +8576,7 @@
         <v>2</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="166">
@@ -8587,7 +8584,7 @@
         <v>4</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="167">
@@ -8603,7 +8600,7 @@
         <v>8</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="169">
@@ -8611,7 +8608,7 @@
         <v>10</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="170">
@@ -8657,7 +8654,7 @@
         <v>21</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="176">
@@ -8693,7 +8690,7 @@
         <v>29</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="181">
@@ -8701,7 +8698,7 @@
         <v>31</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="182">
@@ -56179,7 +56176,7 @@
       </c>
       <c r="F453" s="2"/>
       <c r="G453" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H453" t="s" s="2">
         <v>82</v>
@@ -71334,29 +71331,27 @@
       <c r="Y598" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="Z598" t="s" s="2">
+      <c r="Z598" s="2"/>
+      <c r="AA598" t="s" s="2">
         <v>1890</v>
       </c>
-      <c r="AA598" t="s" s="2">
+      <c r="AB598" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC598" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD598" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE598" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF598" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG598" t="s" s="2">
         <v>1891</v>
-      </c>
-      <c r="AB598" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC598" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD598" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE598" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF598" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG598" t="s" s="2">
-        <v>1892</v>
       </c>
       <c r="AH598" t="s" s="2">
         <v>74</v>
@@ -71365,7 +71360,7 @@
         <v>75</v>
       </c>
       <c r="AJ598" t="s" s="2">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="AK598" t="s" s="2">
         <v>110</v>
@@ -71376,10 +71371,10 @@
         <v>1608</v>
       </c>
       <c r="B599" t="s" s="2">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="C599" t="s" s="2">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="D599" s="2"/>
       <c r="E599" t="s" s="2">
@@ -71402,13 +71397,13 @@
         <v>100</v>
       </c>
       <c r="L599" t="s" s="2">
+        <v>1894</v>
+      </c>
+      <c r="M599" t="s" s="2">
         <v>1895</v>
       </c>
-      <c r="M599" t="s" s="2">
+      <c r="N599" t="s" s="2">
         <v>1896</v>
-      </c>
-      <c r="N599" t="s" s="2">
-        <v>1897</v>
       </c>
       <c r="O599" s="2"/>
       <c r="P599" s="2"/>
@@ -71459,16 +71454,16 @@
         <v>73</v>
       </c>
       <c r="AG599" t="s" s="2">
+        <v>1897</v>
+      </c>
+      <c r="AH599" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI599" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ599" t="s" s="2">
         <v>1898</v>
-      </c>
-      <c r="AH599" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI599" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ599" t="s" s="2">
-        <v>1899</v>
       </c>
       <c r="AK599" t="s" s="2">
         <v>110</v>
@@ -71479,10 +71474,10 @@
         <v>1608</v>
       </c>
       <c r="B600" t="s" s="2">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="C600" t="s" s="2">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="D600" s="2"/>
       <c r="E600" t="s" s="2">
@@ -71508,13 +71503,13 @@
         <v>224</v>
       </c>
       <c r="M600" t="s" s="2">
+        <v>1900</v>
+      </c>
+      <c r="N600" t="s" s="2">
         <v>1901</v>
       </c>
-      <c r="N600" t="s" s="2">
+      <c r="O600" t="s" s="2">
         <v>1902</v>
-      </c>
-      <c r="O600" t="s" s="2">
-        <v>1903</v>
       </c>
       <c r="P600" s="2"/>
       <c r="Q600" t="s" s="2">
@@ -71540,31 +71535,31 @@
         <v>73</v>
       </c>
       <c r="Y600" t="s" s="2">
+        <v>1903</v>
+      </c>
+      <c r="Z600" t="s" s="2">
         <v>1904</v>
       </c>
-      <c r="Z600" t="s" s="2">
+      <c r="AA600" t="s" s="2">
         <v>1905</v>
       </c>
-      <c r="AA600" t="s" s="2">
+      <c r="AB600" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC600" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD600" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE600" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF600" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG600" t="s" s="2">
         <v>1906</v>
-      </c>
-      <c r="AB600" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC600" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD600" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE600" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF600" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG600" t="s" s="2">
-        <v>1907</v>
       </c>
       <c r="AH600" t="s" s="2">
         <v>74</v>
@@ -71584,10 +71579,10 @@
         <v>1608</v>
       </c>
       <c r="B601" t="s" s="2">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="C601" t="s" s="2">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="D601" s="2"/>
       <c r="E601" t="s" s="2">
@@ -71613,13 +71608,13 @@
         <v>272</v>
       </c>
       <c r="M601" t="s" s="2">
+        <v>1908</v>
+      </c>
+      <c r="N601" t="s" s="2">
         <v>1909</v>
       </c>
-      <c r="N601" t="s" s="2">
+      <c r="O601" t="s" s="2">
         <v>1910</v>
-      </c>
-      <c r="O601" t="s" s="2">
-        <v>1911</v>
       </c>
       <c r="P601" s="2"/>
       <c r="Q601" t="s" s="2">
@@ -71669,16 +71664,16 @@
         <v>73</v>
       </c>
       <c r="AG601" t="s" s="2">
+        <v>1911</v>
+      </c>
+      <c r="AH601" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI601" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ601" t="s" s="2">
         <v>1912</v>
-      </c>
-      <c r="AH601" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI601" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ601" t="s" s="2">
-        <v>1913</v>
       </c>
       <c r="AK601" t="s" s="2">
         <v>110</v>
@@ -71689,10 +71684,10 @@
         <v>1608</v>
       </c>
       <c r="B602" t="s" s="2">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="C602" t="s" s="2">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="D602" s="2"/>
       <c r="E602" t="s" s="2">
@@ -71718,13 +71713,13 @@
         <v>224</v>
       </c>
       <c r="M602" t="s" s="2">
+        <v>1914</v>
+      </c>
+      <c r="N602" t="s" s="2">
         <v>1915</v>
       </c>
-      <c r="N602" t="s" s="2">
+      <c r="O602" t="s" s="2">
         <v>1916</v>
-      </c>
-      <c r="O602" t="s" s="2">
-        <v>1917</v>
       </c>
       <c r="P602" s="2"/>
       <c r="Q602" t="s" s="2">
@@ -71753,28 +71748,28 @@
         <v>1026</v>
       </c>
       <c r="Z602" t="s" s="2">
+        <v>1917</v>
+      </c>
+      <c r="AA602" t="s" s="2">
         <v>1918</v>
       </c>
-      <c r="AA602" t="s" s="2">
+      <c r="AB602" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC602" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD602" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE602" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF602" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG602" t="s" s="2">
         <v>1919</v>
-      </c>
-      <c r="AB602" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC602" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD602" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE602" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF602" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG602" t="s" s="2">
-        <v>1920</v>
       </c>
       <c r="AH602" t="s" s="2">
         <v>74</v>
@@ -71783,7 +71778,7 @@
         <v>75</v>
       </c>
       <c r="AJ602" t="s" s="2">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="AK602" t="s" s="2">
         <v>110</v>
@@ -71794,10 +71789,10 @@
         <v>1608</v>
       </c>
       <c r="B603" t="s" s="2">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="C603" t="s" s="2">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="D603" s="2"/>
       <c r="E603" t="s" s="2">
@@ -71823,16 +71818,16 @@
         <v>224</v>
       </c>
       <c r="M603" t="s" s="2">
+        <v>1921</v>
+      </c>
+      <c r="N603" t="s" s="2">
         <v>1922</v>
       </c>
-      <c r="N603" t="s" s="2">
+      <c r="O603" t="s" s="2">
         <v>1923</v>
       </c>
-      <c r="O603" t="s" s="2">
+      <c r="P603" t="s" s="2">
         <v>1924</v>
-      </c>
-      <c r="P603" t="s" s="2">
-        <v>1925</v>
       </c>
       <c r="Q603" t="s" s="2">
         <v>73</v>
@@ -71860,28 +71855,28 @@
         <v>1026</v>
       </c>
       <c r="Z603" t="s" s="2">
+        <v>1925</v>
+      </c>
+      <c r="AA603" t="s" s="2">
         <v>1926</v>
       </c>
-      <c r="AA603" t="s" s="2">
+      <c r="AB603" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC603" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD603" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE603" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF603" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG603" t="s" s="2">
         <v>1927</v>
-      </c>
-      <c r="AB603" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC603" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD603" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE603" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF603" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG603" t="s" s="2">
-        <v>1928</v>
       </c>
       <c r="AH603" t="s" s="2">
         <v>74</v>
@@ -71901,10 +71896,10 @@
         <v>1608</v>
       </c>
       <c r="B604" t="s" s="2">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="C604" t="s" s="2">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="D604" s="2"/>
       <c r="E604" t="s" s="2">
@@ -71930,14 +71925,14 @@
         <v>224</v>
       </c>
       <c r="M604" t="s" s="2">
+        <v>1929</v>
+      </c>
+      <c r="N604" t="s" s="2">
         <v>1930</v>
-      </c>
-      <c r="N604" t="s" s="2">
-        <v>1931</v>
       </c>
       <c r="O604" s="2"/>
       <c r="P604" t="s" s="2">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="Q604" t="s" s="2">
         <v>73</v>
@@ -71965,28 +71960,28 @@
         <v>1026</v>
       </c>
       <c r="Z604" t="s" s="2">
+        <v>1932</v>
+      </c>
+      <c r="AA604" t="s" s="2">
         <v>1933</v>
       </c>
-      <c r="AA604" t="s" s="2">
+      <c r="AB604" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC604" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD604" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE604" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF604" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG604" t="s" s="2">
         <v>1934</v>
-      </c>
-      <c r="AB604" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC604" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD604" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE604" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF604" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG604" t="s" s="2">
-        <v>1935</v>
       </c>
       <c r="AH604" t="s" s="2">
         <v>74</v>
@@ -72006,10 +72001,10 @@
         <v>1608</v>
       </c>
       <c r="B605" t="s" s="2">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="C605" t="s" s="2">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="D605" s="2"/>
       <c r="E605" t="s" s="2">
@@ -72035,16 +72030,16 @@
         <v>224</v>
       </c>
       <c r="M605" t="s" s="2">
+        <v>1936</v>
+      </c>
+      <c r="N605" t="s" s="2">
         <v>1937</v>
       </c>
-      <c r="N605" t="s" s="2">
+      <c r="O605" t="s" s="2">
         <v>1938</v>
       </c>
-      <c r="O605" t="s" s="2">
+      <c r="P605" t="s" s="2">
         <v>1939</v>
-      </c>
-      <c r="P605" t="s" s="2">
-        <v>1940</v>
       </c>
       <c r="Q605" t="s" s="2">
         <v>73</v>
@@ -72072,28 +72067,28 @@
         <v>1026</v>
       </c>
       <c r="Z605" t="s" s="2">
+        <v>1940</v>
+      </c>
+      <c r="AA605" t="s" s="2">
         <v>1941</v>
       </c>
-      <c r="AA605" t="s" s="2">
+      <c r="AB605" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC605" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD605" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE605" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF605" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG605" t="s" s="2">
         <v>1942</v>
-      </c>
-      <c r="AB605" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC605" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD605" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE605" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF605" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG605" t="s" s="2">
-        <v>1943</v>
       </c>
       <c r="AH605" t="s" s="2">
         <v>74</v>
@@ -72113,10 +72108,10 @@
         <v>1608</v>
       </c>
       <c r="B606" t="s" s="2">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="C606" t="s" s="2">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="D606" s="2"/>
       <c r="E606" t="s" s="2">
@@ -72142,10 +72137,10 @@
         <v>1804</v>
       </c>
       <c r="M606" t="s" s="2">
+        <v>1944</v>
+      </c>
+      <c r="N606" t="s" s="2">
         <v>1945</v>
-      </c>
-      <c r="N606" t="s" s="2">
-        <v>1946</v>
       </c>
       <c r="O606" s="2"/>
       <c r="P606" s="2"/>
@@ -72196,7 +72191,7 @@
         <v>73</v>
       </c>
       <c r="AG606" t="s" s="2">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="AH606" t="s" s="2">
         <v>74</v>
@@ -72216,10 +72211,10 @@
         <v>1608</v>
       </c>
       <c r="B607" t="s" s="2">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="C607" t="s" s="2">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="D607" s="2"/>
       <c r="E607" t="s" s="2">
@@ -72319,10 +72314,10 @@
         <v>1608</v>
       </c>
       <c r="B608" t="s" s="2">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="C608" t="s" s="2">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="D608" s="2"/>
       <c r="E608" t="s" s="2">
@@ -72424,10 +72419,10 @@
         <v>1608</v>
       </c>
       <c r="B609" t="s" s="2">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="C609" t="s" s="2">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="D609" s="2"/>
       <c r="E609" t="s" s="2">
@@ -72453,14 +72448,14 @@
         <v>224</v>
       </c>
       <c r="M609" t="s" s="2">
+        <v>1950</v>
+      </c>
+      <c r="N609" t="s" s="2">
         <v>1951</v>
-      </c>
-      <c r="N609" t="s" s="2">
-        <v>1952</v>
       </c>
       <c r="O609" s="2"/>
       <c r="P609" t="s" s="2">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="Q609" t="s" s="2">
         <v>73</v>
@@ -72488,28 +72483,28 @@
         <v>1026</v>
       </c>
       <c r="Z609" t="s" s="2">
+        <v>1953</v>
+      </c>
+      <c r="AA609" t="s" s="2">
         <v>1954</v>
       </c>
-      <c r="AA609" t="s" s="2">
+      <c r="AB609" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC609" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD609" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE609" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF609" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG609" t="s" s="2">
         <v>1955</v>
-      </c>
-      <c r="AB609" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC609" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD609" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE609" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF609" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG609" t="s" s="2">
-        <v>1956</v>
       </c>
       <c r="AH609" t="s" s="2">
         <v>74</v>
@@ -72529,10 +72524,10 @@
         <v>1608</v>
       </c>
       <c r="B610" t="s" s="2">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="C610" t="s" s="2">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D610" s="2"/>
       <c r="E610" t="s" s="2">
@@ -72555,19 +72550,19 @@
         <v>100</v>
       </c>
       <c r="L610" t="s" s="2">
+        <v>1957</v>
+      </c>
+      <c r="M610" t="s" s="2">
         <v>1958</v>
       </c>
-      <c r="M610" t="s" s="2">
+      <c r="N610" t="s" s="2">
         <v>1959</v>
       </c>
-      <c r="N610" t="s" s="2">
+      <c r="O610" t="s" s="2">
         <v>1960</v>
       </c>
-      <c r="O610" t="s" s="2">
+      <c r="P610" t="s" s="2">
         <v>1961</v>
-      </c>
-      <c r="P610" t="s" s="2">
-        <v>1962</v>
       </c>
       <c r="Q610" t="s" s="2">
         <v>73</v>
@@ -72614,7 +72609,7 @@
         <v>96</v>
       </c>
       <c r="AG610" t="s" s="2">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="AH610" t="s" s="2">
         <v>74</v>
@@ -72634,13 +72629,13 @@
         <v>1608</v>
       </c>
       <c r="B611" t="s" s="2">
+        <v>1963</v>
+      </c>
+      <c r="C611" t="s" s="2">
+        <v>1956</v>
+      </c>
+      <c r="D611" t="s" s="2">
         <v>1964</v>
-      </c>
-      <c r="C611" t="s" s="2">
-        <v>1957</v>
-      </c>
-      <c r="D611" t="s" s="2">
-        <v>1965</v>
       </c>
       <c r="E611" t="s" s="2">
         <v>73</v>
@@ -72662,19 +72657,19 @@
         <v>73</v>
       </c>
       <c r="L611" t="s" s="2">
+        <v>1965</v>
+      </c>
+      <c r="M611" t="s" s="2">
         <v>1966</v>
       </c>
-      <c r="M611" t="s" s="2">
+      <c r="N611" t="s" s="2">
         <v>1967</v>
       </c>
-      <c r="N611" t="s" s="2">
+      <c r="O611" t="s" s="2">
         <v>1968</v>
       </c>
-      <c r="O611" t="s" s="2">
-        <v>1969</v>
-      </c>
       <c r="P611" t="s" s="2">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="Q611" t="s" s="2">
         <v>73</v>
@@ -72723,7 +72718,7 @@
         <v>73</v>
       </c>
       <c r="AG611" t="s" s="2">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="AH611" t="s" s="2">
         <v>74</v>
@@ -72735,7 +72730,7 @@
         <v>73</v>
       </c>
       <c r="AK611" t="s" s="2">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="612">
@@ -72743,10 +72738,10 @@
         <v>1608</v>
       </c>
       <c r="B612" t="s" s="2">
+        <v>1970</v>
+      </c>
+      <c r="C612" t="s" s="2">
         <v>1971</v>
-      </c>
-      <c r="C612" t="s" s="2">
-        <v>1972</v>
       </c>
       <c r="D612" s="2"/>
       <c r="E612" t="s" s="2">
@@ -72846,10 +72841,10 @@
         <v>1608</v>
       </c>
       <c r="B613" t="s" s="2">
+        <v>1972</v>
+      </c>
+      <c r="C613" t="s" s="2">
         <v>1973</v>
-      </c>
-      <c r="C613" t="s" s="2">
-        <v>1974</v>
       </c>
       <c r="D613" s="2"/>
       <c r="E613" t="s" s="2">
@@ -72951,10 +72946,10 @@
         <v>1608</v>
       </c>
       <c r="B614" t="s" s="2">
+        <v>1974</v>
+      </c>
+      <c r="C614" t="s" s="2">
         <v>1975</v>
-      </c>
-      <c r="C614" t="s" s="2">
-        <v>1976</v>
       </c>
       <c r="D614" s="2"/>
       <c r="E614" t="s" s="2">
@@ -72980,16 +72975,16 @@
         <v>1829</v>
       </c>
       <c r="M614" t="s" s="2">
+        <v>1976</v>
+      </c>
+      <c r="N614" t="s" s="2">
         <v>1977</v>
       </c>
-      <c r="N614" t="s" s="2">
+      <c r="O614" t="s" s="2">
         <v>1978</v>
       </c>
-      <c r="O614" t="s" s="2">
+      <c r="P614" t="s" s="2">
         <v>1979</v>
-      </c>
-      <c r="P614" t="s" s="2">
-        <v>1980</v>
       </c>
       <c r="Q614" t="s" s="2">
         <v>73</v>
@@ -73038,7 +73033,7 @@
         <v>73</v>
       </c>
       <c r="AG614" t="s" s="2">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="AH614" t="s" s="2">
         <v>74</v>
@@ -73058,10 +73053,10 @@
         <v>1608</v>
       </c>
       <c r="B615" t="s" s="2">
+        <v>1981</v>
+      </c>
+      <c r="C615" t="s" s="2">
         <v>1982</v>
-      </c>
-      <c r="C615" t="s" s="2">
-        <v>1983</v>
       </c>
       <c r="D615" s="2"/>
       <c r="E615" t="s" s="2">
@@ -73087,20 +73082,20 @@
         <v>101</v>
       </c>
       <c r="M615" t="s" s="2">
+        <v>1983</v>
+      </c>
+      <c r="N615" t="s" s="2">
         <v>1984</v>
-      </c>
-      <c r="N615" t="s" s="2">
-        <v>1985</v>
       </c>
       <c r="O615" s="2"/>
       <c r="P615" t="s" s="2">
+        <v>1985</v>
+      </c>
+      <c r="Q615" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R615" t="s" s="2">
         <v>1986</v>
-      </c>
-      <c r="Q615" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R615" t="s" s="2">
-        <v>1987</v>
       </c>
       <c r="S615" t="s" s="2">
         <v>73</v>
@@ -73124,28 +73119,28 @@
         <v>107</v>
       </c>
       <c r="Z615" t="s" s="2">
+        <v>1987</v>
+      </c>
+      <c r="AA615" t="s" s="2">
         <v>1988</v>
       </c>
-      <c r="AA615" t="s" s="2">
+      <c r="AB615" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC615" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD615" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE615" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF615" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG615" t="s" s="2">
         <v>1989</v>
-      </c>
-      <c r="AB615" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC615" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD615" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE615" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF615" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG615" t="s" s="2">
-        <v>1990</v>
       </c>
       <c r="AH615" t="s" s="2">
         <v>74</v>
@@ -73165,10 +73160,10 @@
         <v>1608</v>
       </c>
       <c r="B616" t="s" s="2">
+        <v>1990</v>
+      </c>
+      <c r="C616" t="s" s="2">
         <v>1991</v>
-      </c>
-      <c r="C616" t="s" s="2">
-        <v>1992</v>
       </c>
       <c r="D616" s="2"/>
       <c r="E616" t="s" s="2">
@@ -73194,14 +73189,14 @@
         <v>119</v>
       </c>
       <c r="M616" t="s" s="2">
+        <v>1992</v>
+      </c>
+      <c r="N616" t="s" s="2">
         <v>1993</v>
-      </c>
-      <c r="N616" t="s" s="2">
-        <v>1994</v>
       </c>
       <c r="O616" s="2"/>
       <c r="P616" t="s" s="2">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="Q616" t="s" s="2">
         <v>73</v>
@@ -73250,7 +73245,7 @@
         <v>73</v>
       </c>
       <c r="AG616" t="s" s="2">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="AH616" t="s" s="2">
         <v>74</v>
@@ -73270,10 +73265,10 @@
         <v>1608</v>
       </c>
       <c r="B617" t="s" s="2">
+        <v>1996</v>
+      </c>
+      <c r="C617" t="s" s="2">
         <v>1997</v>
-      </c>
-      <c r="C617" t="s" s="2">
-        <v>1998</v>
       </c>
       <c r="D617" s="2"/>
       <c r="E617" t="s" s="2">
@@ -73299,14 +73294,14 @@
         <v>200</v>
       </c>
       <c r="M617" t="s" s="2">
+        <v>1998</v>
+      </c>
+      <c r="N617" t="s" s="2">
         <v>1999</v>
-      </c>
-      <c r="N617" t="s" s="2">
-        <v>2000</v>
       </c>
       <c r="O617" s="2"/>
       <c r="P617" t="s" s="2">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="Q617" t="s" s="2">
         <v>73</v>
@@ -73355,16 +73350,16 @@
         <v>73</v>
       </c>
       <c r="AG617" t="s" s="2">
+        <v>2001</v>
+      </c>
+      <c r="AH617" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI617" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ617" t="s" s="2">
         <v>2002</v>
-      </c>
-      <c r="AH617" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI617" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ617" t="s" s="2">
-        <v>2003</v>
       </c>
       <c r="AK617" t="s" s="2">
         <v>110</v>
@@ -73375,10 +73370,10 @@
         <v>1608</v>
       </c>
       <c r="B618" t="s" s="2">
+        <v>2003</v>
+      </c>
+      <c r="C618" t="s" s="2">
         <v>2004</v>
-      </c>
-      <c r="C618" t="s" s="2">
-        <v>2005</v>
       </c>
       <c r="D618" s="2"/>
       <c r="E618" t="s" s="2">
@@ -73404,16 +73399,16 @@
         <v>101</v>
       </c>
       <c r="M618" t="s" s="2">
+        <v>2005</v>
+      </c>
+      <c r="N618" t="s" s="2">
         <v>2006</v>
       </c>
-      <c r="N618" t="s" s="2">
+      <c r="O618" t="s" s="2">
         <v>2007</v>
       </c>
-      <c r="O618" t="s" s="2">
+      <c r="P618" t="s" s="2">
         <v>2008</v>
-      </c>
-      <c r="P618" t="s" s="2">
-        <v>2009</v>
       </c>
       <c r="Q618" t="s" s="2">
         <v>73</v>
@@ -73462,7 +73457,7 @@
         <v>73</v>
       </c>
       <c r="AG618" t="s" s="2">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="AH618" t="s" s="2">
         <v>74</v>
@@ -73471,7 +73466,7 @@
         <v>82</v>
       </c>
       <c r="AJ618" t="s" s="2">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="AK618" t="s" s="2">
         <v>110</v>
@@ -73482,10 +73477,10 @@
         <v>1608</v>
       </c>
       <c r="B619" t="s" s="2">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C619" t="s" s="2">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D619" s="2"/>
       <c r="E619" t="s" s="2">
@@ -73508,19 +73503,19 @@
         <v>100</v>
       </c>
       <c r="L619" t="s" s="2">
+        <v>2011</v>
+      </c>
+      <c r="M619" t="s" s="2">
         <v>2012</v>
       </c>
-      <c r="M619" t="s" s="2">
+      <c r="N619" t="s" s="2">
         <v>2013</v>
       </c>
-      <c r="N619" t="s" s="2">
+      <c r="O619" t="s" s="2">
         <v>2014</v>
       </c>
-      <c r="O619" t="s" s="2">
+      <c r="P619" t="s" s="2">
         <v>2015</v>
-      </c>
-      <c r="P619" t="s" s="2">
-        <v>2016</v>
       </c>
       <c r="Q619" t="s" s="2">
         <v>73</v>
@@ -73567,7 +73562,7 @@
         <v>698</v>
       </c>
       <c r="AG619" t="s" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="AH619" t="s" s="2">
         <v>74</v>
@@ -73587,13 +73582,13 @@
         <v>1608</v>
       </c>
       <c r="B620" t="s" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C620" t="s" s="2">
+        <v>2010</v>
+      </c>
+      <c r="D620" t="s" s="2">
         <v>2018</v>
-      </c>
-      <c r="C620" t="s" s="2">
-        <v>2011</v>
-      </c>
-      <c r="D620" t="s" s="2">
-        <v>2019</v>
       </c>
       <c r="E620" t="s" s="2">
         <v>73</v>
@@ -73615,19 +73610,19 @@
         <v>100</v>
       </c>
       <c r="L620" t="s" s="2">
+        <v>2019</v>
+      </c>
+      <c r="M620" t="s" s="2">
         <v>2020</v>
       </c>
-      <c r="M620" t="s" s="2">
-        <v>2021</v>
-      </c>
       <c r="N620" t="s" s="2">
+        <v>2013</v>
+      </c>
+      <c r="O620" t="s" s="2">
         <v>2014</v>
       </c>
-      <c r="O620" t="s" s="2">
+      <c r="P620" t="s" s="2">
         <v>2015</v>
-      </c>
-      <c r="P620" t="s" s="2">
-        <v>2016</v>
       </c>
       <c r="Q620" t="s" s="2">
         <v>73</v>
@@ -73676,7 +73671,7 @@
         <v>73</v>
       </c>
       <c r="AG620" t="s" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="AH620" t="s" s="2">
         <v>74</v>
@@ -73696,13 +73691,13 @@
         <v>1608</v>
       </c>
       <c r="B621" t="s" s="2">
+        <v>2021</v>
+      </c>
+      <c r="C621" t="s" s="2">
+        <v>2010</v>
+      </c>
+      <c r="D621" t="s" s="2">
         <v>2022</v>
-      </c>
-      <c r="C621" t="s" s="2">
-        <v>2011</v>
-      </c>
-      <c r="D621" t="s" s="2">
-        <v>2023</v>
       </c>
       <c r="E621" t="s" s="2">
         <v>73</v>
@@ -73724,19 +73719,19 @@
         <v>100</v>
       </c>
       <c r="L621" t="s" s="2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M621" t="s" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="N621" t="s" s="2">
+        <v>2013</v>
+      </c>
+      <c r="O621" t="s" s="2">
         <v>2014</v>
       </c>
-      <c r="O621" t="s" s="2">
+      <c r="P621" t="s" s="2">
         <v>2015</v>
-      </c>
-      <c r="P621" t="s" s="2">
-        <v>2016</v>
       </c>
       <c r="Q621" t="s" s="2">
         <v>73</v>
@@ -73785,7 +73780,7 @@
         <v>73</v>
       </c>
       <c r="AG621" t="s" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="AH621" t="s" s="2">
         <v>74</v>
@@ -73805,13 +73800,13 @@
         <v>1608</v>
       </c>
       <c r="B622" t="s" s="2">
+        <v>2024</v>
+      </c>
+      <c r="C622" t="s" s="2">
+        <v>2010</v>
+      </c>
+      <c r="D622" t="s" s="2">
         <v>2025</v>
-      </c>
-      <c r="C622" t="s" s="2">
-        <v>2011</v>
-      </c>
-      <c r="D622" t="s" s="2">
-        <v>2026</v>
       </c>
       <c r="E622" t="s" s="2">
         <v>73</v>
@@ -73833,19 +73828,19 @@
         <v>73</v>
       </c>
       <c r="L622" t="s" s="2">
+        <v>1965</v>
+      </c>
+      <c r="M622" t="s" s="2">
         <v>1966</v>
       </c>
-      <c r="M622" t="s" s="2">
+      <c r="N622" t="s" s="2">
         <v>1967</v>
       </c>
-      <c r="N622" t="s" s="2">
+      <c r="O622" t="s" s="2">
         <v>1968</v>
       </c>
-      <c r="O622" t="s" s="2">
-        <v>1969</v>
-      </c>
       <c r="P622" t="s" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="Q622" t="s" s="2">
         <v>73</v>
@@ -73894,7 +73889,7 @@
         <v>73</v>
       </c>
       <c r="AG622" t="s" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="AH622" t="s" s="2">
         <v>74</v>
@@ -73906,7 +73901,7 @@
         <v>73</v>
       </c>
       <c r="AK622" t="s" s="2">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="623">
@@ -73914,10 +73909,10 @@
         <v>1608</v>
       </c>
       <c r="B623" t="s" s="2">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="C623" t="s" s="2">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="D623" s="2"/>
       <c r="E623" t="s" s="2">
@@ -73940,19 +73935,19 @@
         <v>100</v>
       </c>
       <c r="L623" t="s" s="2">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M623" t="s" s="2">
+        <v>2027</v>
+      </c>
+      <c r="N623" t="s" s="2">
         <v>2028</v>
       </c>
-      <c r="N623" t="s" s="2">
+      <c r="O623" t="s" s="2">
         <v>2029</v>
       </c>
-      <c r="O623" t="s" s="2">
+      <c r="P623" t="s" s="2">
         <v>2030</v>
-      </c>
-      <c r="P623" t="s" s="2">
-        <v>2031</v>
       </c>
       <c r="Q623" t="s" s="2">
         <v>73</v>
@@ -74001,7 +73996,7 @@
         <v>73</v>
       </c>
       <c r="AG623" t="s" s="2">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="AH623" t="s" s="2">
         <v>74</v>
@@ -74021,10 +74016,10 @@
         <v>1608</v>
       </c>
       <c r="B624" t="s" s="2">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="C624" t="s" s="2">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="D624" s="2"/>
       <c r="E624" t="s" s="2">
@@ -74047,19 +74042,19 @@
         <v>100</v>
       </c>
       <c r="L624" t="s" s="2">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="M624" t="s" s="2">
+        <v>2033</v>
+      </c>
+      <c r="N624" t="s" s="2">
         <v>2034</v>
       </c>
-      <c r="N624" t="s" s="2">
+      <c r="O624" t="s" s="2">
         <v>2035</v>
       </c>
-      <c r="O624" t="s" s="2">
+      <c r="P624" t="s" s="2">
         <v>2036</v>
-      </c>
-      <c r="P624" t="s" s="2">
-        <v>2037</v>
       </c>
       <c r="Q624" t="s" s="2">
         <v>73</v>
@@ -74108,7 +74103,7 @@
         <v>73</v>
       </c>
       <c r="AG624" t="s" s="2">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="AH624" t="s" s="2">
         <v>74</v>
@@ -74128,10 +74123,10 @@
         <v>1608</v>
       </c>
       <c r="B625" t="s" s="2">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="C625" t="s" s="2">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="D625" s="2"/>
       <c r="E625" t="s" s="2">
@@ -74154,17 +74149,17 @@
         <v>100</v>
       </c>
       <c r="L625" t="s" s="2">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="M625" t="s" s="2">
+        <v>2039</v>
+      </c>
+      <c r="N625" t="s" s="2">
         <v>2040</v>
-      </c>
-      <c r="N625" t="s" s="2">
-        <v>2041</v>
       </c>
       <c r="O625" s="2"/>
       <c r="P625" t="s" s="2">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="Q625" t="s" s="2">
         <v>73</v>
@@ -74213,7 +74208,7 @@
         <v>73</v>
       </c>
       <c r="AG625" t="s" s="2">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="AH625" t="s" s="2">
         <v>74</v>
@@ -74233,10 +74228,10 @@
         <v>1608</v>
       </c>
       <c r="B626" t="s" s="2">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="C626" t="s" s="2">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="D626" s="2"/>
       <c r="E626" t="s" s="2">
@@ -74262,10 +74257,10 @@
         <v>762</v>
       </c>
       <c r="M626" t="s" s="2">
+        <v>2044</v>
+      </c>
+      <c r="N626" t="s" s="2">
         <v>2045</v>
-      </c>
-      <c r="N626" t="s" s="2">
-        <v>2046</v>
       </c>
       <c r="O626" s="2"/>
       <c r="P626" s="2"/>
@@ -74316,7 +74311,7 @@
         <v>73</v>
       </c>
       <c r="AG626" t="s" s="2">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="AH626" t="s" s="2">
         <v>74</v>
@@ -74336,10 +74331,10 @@
         <v>1608</v>
       </c>
       <c r="B627" t="s" s="2">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="C627" t="s" s="2">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="D627" s="2"/>
       <c r="E627" t="s" s="2">
@@ -74439,10 +74434,10 @@
         <v>1608</v>
       </c>
       <c r="B628" t="s" s="2">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="C628" t="s" s="2">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="D628" s="2"/>
       <c r="E628" t="s" s="2">
@@ -74544,10 +74539,10 @@
         <v>1608</v>
       </c>
       <c r="B629" t="s" s="2">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="C629" t="s" s="2">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="D629" s="2"/>
       <c r="E629" t="s" s="2">
@@ -74651,10 +74646,10 @@
         <v>1608</v>
       </c>
       <c r="B630" t="s" s="2">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="C630" t="s" s="2">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="D630" s="2"/>
       <c r="E630" t="s" s="2">
@@ -74680,13 +74675,13 @@
         <v>762</v>
       </c>
       <c r="M630" t="s" s="2">
+        <v>2050</v>
+      </c>
+      <c r="N630" t="s" s="2">
         <v>2051</v>
       </c>
-      <c r="N630" t="s" s="2">
+      <c r="O630" t="s" s="2">
         <v>2052</v>
-      </c>
-      <c r="O630" t="s" s="2">
-        <v>2053</v>
       </c>
       <c r="P630" s="2"/>
       <c r="Q630" t="s" s="2">
@@ -74736,7 +74731,7 @@
         <v>73</v>
       </c>
       <c r="AG630" t="s" s="2">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="AH630" t="s" s="2">
         <v>74</v>
@@ -74756,10 +74751,10 @@
         <v>1608</v>
       </c>
       <c r="B631" t="s" s="2">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="C631" t="s" s="2">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="D631" s="2"/>
       <c r="E631" t="s" s="2">
@@ -74859,10 +74854,10 @@
         <v>1608</v>
       </c>
       <c r="B632" t="s" s="2">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="C632" t="s" s="2">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="D632" s="2"/>
       <c r="E632" t="s" s="2">
@@ -74964,10 +74959,10 @@
         <v>1608</v>
       </c>
       <c r="B633" t="s" s="2">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="C633" t="s" s="2">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="D633" s="2"/>
       <c r="E633" t="s" s="2">
@@ -75071,10 +75066,10 @@
         <v>1608</v>
       </c>
       <c r="B634" t="s" s="2">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="C634" t="s" s="2">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="D634" s="2"/>
       <c r="E634" t="s" s="2">
@@ -75097,13 +75092,13 @@
         <v>73</v>
       </c>
       <c r="L634" t="s" s="2">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="M634" t="s" s="2">
+        <v>2057</v>
+      </c>
+      <c r="N634" t="s" s="2">
         <v>2058</v>
-      </c>
-      <c r="N634" t="s" s="2">
-        <v>2059</v>
       </c>
       <c r="O634" s="2"/>
       <c r="P634" s="2"/>
@@ -75154,7 +75149,7 @@
         <v>73</v>
       </c>
       <c r="AG634" t="s" s="2">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="AH634" t="s" s="2">
         <v>74</v>
@@ -75174,10 +75169,10 @@
         <v>1608</v>
       </c>
       <c r="B635" t="s" s="2">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="C635" t="s" s="2">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="D635" s="2"/>
       <c r="E635" t="s" s="2">
@@ -75200,13 +75195,13 @@
         <v>73</v>
       </c>
       <c r="L635" t="s" s="2">
+        <v>2060</v>
+      </c>
+      <c r="M635" t="s" s="2">
         <v>2061</v>
       </c>
-      <c r="M635" t="s" s="2">
+      <c r="N635" t="s" s="2">
         <v>2062</v>
-      </c>
-      <c r="N635" t="s" s="2">
-        <v>2063</v>
       </c>
       <c r="O635" s="2"/>
       <c r="P635" s="2"/>
@@ -75257,7 +75252,7 @@
         <v>73</v>
       </c>
       <c r="AG635" t="s" s="2">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="AH635" t="s" s="2">
         <v>74</v>
@@ -75277,10 +75272,10 @@
         <v>1608</v>
       </c>
       <c r="B636" t="s" s="2">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C636" t="s" s="2">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D636" s="2"/>
       <c r="E636" t="s" s="2">
@@ -75303,13 +75298,13 @@
         <v>73</v>
       </c>
       <c r="L636" t="s" s="2">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="M636" t="s" s="2">
+        <v>2064</v>
+      </c>
+      <c r="N636" t="s" s="2">
         <v>2065</v>
-      </c>
-      <c r="N636" t="s" s="2">
-        <v>2066</v>
       </c>
       <c r="O636" s="2"/>
       <c r="P636" s="2"/>
@@ -75360,7 +75355,7 @@
         <v>73</v>
       </c>
       <c r="AG636" t="s" s="2">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="AH636" t="s" s="2">
         <v>74</v>
@@ -75380,10 +75375,10 @@
         <v>1608</v>
       </c>
       <c r="B637" t="s" s="2">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="C637" t="s" s="2">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D637" s="2"/>
       <c r="E637" t="s" s="2">
@@ -75409,16 +75404,16 @@
         <v>184</v>
       </c>
       <c r="M637" t="s" s="2">
+        <v>2067</v>
+      </c>
+      <c r="N637" t="s" s="2">
         <v>2068</v>
       </c>
-      <c r="N637" t="s" s="2">
+      <c r="O637" t="s" s="2">
         <v>2069</v>
       </c>
-      <c r="O637" t="s" s="2">
+      <c r="P637" t="s" s="2">
         <v>2070</v>
-      </c>
-      <c r="P637" t="s" s="2">
-        <v>2071</v>
       </c>
       <c r="Q637" t="s" s="2">
         <v>73</v>
@@ -75467,7 +75462,7 @@
         <v>73</v>
       </c>
       <c r="AG637" t="s" s="2">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="AH637" t="s" s="2">
         <v>74</v>
@@ -75487,10 +75482,10 @@
         <v>1608</v>
       </c>
       <c r="B638" t="s" s="2">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="C638" t="s" s="2">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D638" s="2"/>
       <c r="E638" t="s" s="2">
@@ -75513,16 +75508,16 @@
         <v>73</v>
       </c>
       <c r="L638" t="s" s="2">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="M638" t="s" s="2">
+        <v>2072</v>
+      </c>
+      <c r="N638" t="s" s="2">
         <v>2073</v>
       </c>
-      <c r="N638" t="s" s="2">
+      <c r="O638" t="s" s="2">
         <v>2074</v>
-      </c>
-      <c r="O638" t="s" s="2">
-        <v>2075</v>
       </c>
       <c r="P638" s="2"/>
       <c r="Q638" t="s" s="2">
@@ -75572,7 +75567,7 @@
         <v>73</v>
       </c>
       <c r="AG638" t="s" s="2">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="AH638" t="s" s="2">
         <v>74</v>
@@ -75592,10 +75587,10 @@
         <v>1608</v>
       </c>
       <c r="B639" t="s" s="2">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="C639" t="s" s="2">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="D639" s="2"/>
       <c r="E639" t="s" s="2">
@@ -75618,13 +75613,13 @@
         <v>73</v>
       </c>
       <c r="L639" t="s" s="2">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="M639" t="s" s="2">
+        <v>2076</v>
+      </c>
+      <c r="N639" t="s" s="2">
         <v>2077</v>
-      </c>
-      <c r="N639" t="s" s="2">
-        <v>2078</v>
       </c>
       <c r="O639" s="2"/>
       <c r="P639" s="2"/>
@@ -75675,7 +75670,7 @@
         <v>73</v>
       </c>
       <c r="AG639" t="s" s="2">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="AH639" t="s" s="2">
         <v>74</v>
@@ -75695,10 +75690,10 @@
         <v>1608</v>
       </c>
       <c r="B640" t="s" s="2">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="C640" t="s" s="2">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="D640" s="2"/>
       <c r="E640" t="s" s="2">
@@ -75721,16 +75716,16 @@
         <v>73</v>
       </c>
       <c r="L640" t="s" s="2">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="M640" t="s" s="2">
+        <v>2079</v>
+      </c>
+      <c r="N640" t="s" s="2">
         <v>2080</v>
       </c>
-      <c r="N640" t="s" s="2">
+      <c r="O640" t="s" s="2">
         <v>2081</v>
-      </c>
-      <c r="O640" t="s" s="2">
-        <v>2082</v>
       </c>
       <c r="P640" s="2"/>
       <c r="Q640" t="s" s="2">
@@ -75780,7 +75775,7 @@
         <v>73</v>
       </c>
       <c r="AG640" t="s" s="2">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="AH640" t="s" s="2">
         <v>74</v>
@@ -75800,10 +75795,10 @@
         <v>1608</v>
       </c>
       <c r="B641" t="s" s="2">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="C641" t="s" s="2">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="D641" s="2"/>
       <c r="E641" t="s" s="2">
@@ -75829,10 +75824,10 @@
         <v>455</v>
       </c>
       <c r="M641" t="s" s="2">
+        <v>2083</v>
+      </c>
+      <c r="N641" t="s" s="2">
         <v>2084</v>
-      </c>
-      <c r="N641" t="s" s="2">
-        <v>2085</v>
       </c>
       <c r="O641" s="2"/>
       <c r="P641" s="2"/>
@@ -75883,7 +75878,7 @@
         <v>73</v>
       </c>
       <c r="AG641" t="s" s="2">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="AH641" t="s" s="2">
         <v>74</v>
@@ -75903,10 +75898,10 @@
         <v>1608</v>
       </c>
       <c r="B642" t="s" s="2">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="C642" t="s" s="2">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="D642" s="2"/>
       <c r="E642" t="s" s="2">
@@ -75932,10 +75927,10 @@
         <v>1396</v>
       </c>
       <c r="M642" t="s" s="2">
+        <v>2086</v>
+      </c>
+      <c r="N642" t="s" s="2">
         <v>2087</v>
-      </c>
-      <c r="N642" t="s" s="2">
-        <v>2088</v>
       </c>
       <c r="O642" s="2"/>
       <c r="P642" s="2"/>
@@ -75986,7 +75981,7 @@
         <v>73</v>
       </c>
       <c r="AG642" t="s" s="2">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="AH642" t="s" s="2">
         <v>74</v>
@@ -76006,10 +76001,10 @@
         <v>1608</v>
       </c>
       <c r="B643" t="s" s="2">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="C643" t="s" s="2">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="D643" s="2"/>
       <c r="E643" t="s" s="2">
@@ -76035,10 +76030,10 @@
         <v>224</v>
       </c>
       <c r="M643" t="s" s="2">
+        <v>2089</v>
+      </c>
+      <c r="N643" t="s" s="2">
         <v>2090</v>
-      </c>
-      <c r="N643" t="s" s="2">
-        <v>2091</v>
       </c>
       <c r="O643" s="2"/>
       <c r="P643" s="2"/>
@@ -76069,7 +76064,7 @@
       </c>
       <c r="Z643" s="2"/>
       <c r="AA643" t="s" s="2">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="AB643" t="s" s="2">
         <v>73</v>
@@ -76087,7 +76082,7 @@
         <v>73</v>
       </c>
       <c r="AG643" t="s" s="2">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="AH643" t="s" s="2">
         <v>74</v>
@@ -76107,10 +76102,10 @@
         <v>1608</v>
       </c>
       <c r="B644" t="s" s="2">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="C644" t="s" s="2">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="D644" s="2"/>
       <c r="E644" t="s" s="2">
@@ -76136,10 +76131,10 @@
         <v>762</v>
       </c>
       <c r="M644" t="s" s="2">
+        <v>2093</v>
+      </c>
+      <c r="N644" t="s" s="2">
         <v>2094</v>
-      </c>
-      <c r="N644" t="s" s="2">
-        <v>2095</v>
       </c>
       <c r="O644" s="2"/>
       <c r="P644" s="2"/>
@@ -76190,7 +76185,7 @@
         <v>73</v>
       </c>
       <c r="AG644" t="s" s="2">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="AH644" t="s" s="2">
         <v>74</v>
@@ -76210,10 +76205,10 @@
         <v>1608</v>
       </c>
       <c r="B645" t="s" s="2">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="C645" t="s" s="2">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="D645" s="2"/>
       <c r="E645" t="s" s="2">
@@ -76313,10 +76308,10 @@
         <v>1608</v>
       </c>
       <c r="B646" t="s" s="2">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="C646" t="s" s="2">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="D646" s="2"/>
       <c r="E646" t="s" s="2">
@@ -76418,10 +76413,10 @@
         <v>1608</v>
       </c>
       <c r="B647" t="s" s="2">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="C647" t="s" s="2">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="D647" s="2"/>
       <c r="E647" t="s" s="2">
@@ -76525,10 +76520,10 @@
         <v>1608</v>
       </c>
       <c r="B648" t="s" s="2">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="C648" t="s" s="2">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="D648" s="2"/>
       <c r="E648" t="s" s="2">
@@ -76551,16 +76546,16 @@
         <v>73</v>
       </c>
       <c r="L648" t="s" s="2">
+        <v>2099</v>
+      </c>
+      <c r="M648" t="s" s="2">
         <v>2100</v>
       </c>
-      <c r="M648" t="s" s="2">
+      <c r="N648" t="s" s="2">
         <v>2101</v>
       </c>
-      <c r="N648" t="s" s="2">
+      <c r="O648" t="s" s="2">
         <v>2102</v>
-      </c>
-      <c r="O648" t="s" s="2">
-        <v>2103</v>
       </c>
       <c r="P648" s="2"/>
       <c r="Q648" t="s" s="2">
@@ -76586,14 +76581,14 @@
         <v>73</v>
       </c>
       <c r="Y648" t="s" s="2">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="Z648" t="s" s="2">
+        <v>2103</v>
+      </c>
+      <c r="AA648" t="s" s="2">
         <v>2104</v>
       </c>
-      <c r="AA648" t="s" s="2">
-        <v>2105</v>
-      </c>
       <c r="AB648" t="s" s="2">
         <v>73</v>
       </c>
@@ -76610,7 +76605,7 @@
         <v>73</v>
       </c>
       <c r="AG648" t="s" s="2">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="AH648" t="s" s="2">
         <v>82</v>
@@ -76630,10 +76625,10 @@
         <v>1608</v>
       </c>
       <c r="B649" t="s" s="2">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="C649" t="s" s="2">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="D649" s="2"/>
       <c r="E649" t="s" s="2">
@@ -76659,10 +76654,10 @@
         <v>224</v>
       </c>
       <c r="M649" t="s" s="2">
+        <v>2106</v>
+      </c>
+      <c r="N649" t="s" s="2">
         <v>2107</v>
-      </c>
-      <c r="N649" t="s" s="2">
-        <v>2108</v>
       </c>
       <c r="O649" s="2"/>
       <c r="P649" s="2"/>
@@ -76692,11 +76687,11 @@
         <v>1026</v>
       </c>
       <c r="Z649" t="s" s="2">
+        <v>2108</v>
+      </c>
+      <c r="AA649" t="s" s="2">
         <v>2109</v>
       </c>
-      <c r="AA649" t="s" s="2">
-        <v>2110</v>
-      </c>
       <c r="AB649" t="s" s="2">
         <v>73</v>
       </c>
@@ -76713,7 +76708,7 @@
         <v>73</v>
       </c>
       <c r="AG649" t="s" s="2">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="AH649" t="s" s="2">
         <v>74</v>
@@ -76733,10 +76728,10 @@
         <v>1608</v>
       </c>
       <c r="B650" t="s" s="2">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="C650" t="s" s="2">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="D650" s="2"/>
       <c r="E650" t="s" s="2">
@@ -76759,16 +76754,16 @@
         <v>73</v>
       </c>
       <c r="L650" t="s" s="2">
+        <v>2111</v>
+      </c>
+      <c r="M650" t="s" s="2">
         <v>2112</v>
       </c>
-      <c r="M650" t="s" s="2">
+      <c r="N650" t="s" s="2">
         <v>2113</v>
       </c>
-      <c r="N650" t="s" s="2">
+      <c r="O650" t="s" s="2">
         <v>2114</v>
-      </c>
-      <c r="O650" t="s" s="2">
-        <v>2115</v>
       </c>
       <c r="P650" s="2"/>
       <c r="Q650" t="s" s="2">
@@ -76818,7 +76813,7 @@
         <v>73</v>
       </c>
       <c r="AG650" t="s" s="2">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="AH650" t="s" s="2">
         <v>74</v>
@@ -76835,13 +76830,13 @@
     </row>
     <row r="651">
       <c r="A651" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B651" t="s" s="2">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="C651" t="s" s="2">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="D651" s="2"/>
       <c r="E651" t="s" s="2">
@@ -76867,10 +76862,10 @@
         <v>76</v>
       </c>
       <c r="M651" t="s" s="2">
+        <v>2122</v>
+      </c>
+      <c r="N651" t="s" s="2">
         <v>2123</v>
-      </c>
-      <c r="N651" t="s" s="2">
-        <v>2124</v>
       </c>
       <c r="O651" s="2"/>
       <c r="P651" s="2"/>
@@ -76921,7 +76916,7 @@
         <v>73</v>
       </c>
       <c r="AG651" t="s" s="2">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="AH651" t="s" s="2">
         <v>74</v>
@@ -76933,18 +76928,18 @@
         <v>73</v>
       </c>
       <c r="AK651" t="s" s="2">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B652" t="s" s="2">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="C652" t="s" s="2">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="D652" s="2"/>
       <c r="E652" t="s" s="2">
@@ -77043,13 +77038,13 @@
     </row>
     <row r="653">
       <c r="A653" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B653" t="s" s="2">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="C653" t="s" s="2">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="D653" s="2"/>
       <c r="E653" t="s" s="2">
@@ -77146,13 +77141,13 @@
     </row>
     <row r="654">
       <c r="A654" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B654" t="s" s="2">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="C654" t="s" s="2">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="D654" s="2"/>
       <c r="E654" t="s" s="2">
@@ -77251,13 +77246,13 @@
     </row>
     <row r="655">
       <c r="A655" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B655" t="s" s="2">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="C655" t="s" s="2">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="D655" s="2"/>
       <c r="E655" t="s" s="2">
@@ -77356,13 +77351,13 @@
     </row>
     <row r="656">
       <c r="A656" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B656" t="s" s="2">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="C656" t="s" s="2">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D656" s="2"/>
       <c r="E656" t="s" s="2">
@@ -77461,13 +77456,13 @@
     </row>
     <row r="657">
       <c r="A657" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B657" t="s" s="2">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="C657" t="s" s="2">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="D657" s="2"/>
       <c r="E657" t="s" s="2">
@@ -77566,13 +77561,13 @@
     </row>
     <row r="658">
       <c r="A658" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B658" t="s" s="2">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="C658" t="s" s="2">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="D658" s="2"/>
       <c r="E658" t="s" s="2">
@@ -77671,13 +77666,13 @@
     </row>
     <row r="659">
       <c r="A659" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B659" t="s" s="2">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="C659" t="s" s="2">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="D659" s="2"/>
       <c r="E659" t="s" s="2">
@@ -77778,13 +77773,13 @@
     </row>
     <row r="660">
       <c r="A660" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B660" t="s" s="2">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="C660" t="s" s="2">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="D660" s="2"/>
       <c r="E660" t="s" s="2">
@@ -77810,10 +77805,10 @@
         <v>414</v>
       </c>
       <c r="M660" t="s" s="2">
+        <v>2134</v>
+      </c>
+      <c r="N660" t="s" s="2">
         <v>2135</v>
-      </c>
-      <c r="N660" t="s" s="2">
-        <v>2136</v>
       </c>
       <c r="O660" t="s" s="2">
         <v>1626</v>
@@ -77866,7 +77861,7 @@
         <v>73</v>
       </c>
       <c r="AG660" t="s" s="2">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="AH660" t="s" s="2">
         <v>74</v>
@@ -77883,13 +77878,13 @@
     </row>
     <row r="661">
       <c r="A661" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B661" t="s" s="2">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="C661" t="s" s="2">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="D661" s="2"/>
       <c r="E661" t="s" s="2">
@@ -77912,13 +77907,13 @@
         <v>73</v>
       </c>
       <c r="L661" t="s" s="2">
+        <v>2137</v>
+      </c>
+      <c r="M661" t="s" s="2">
         <v>2138</v>
       </c>
-      <c r="M661" t="s" s="2">
+      <c r="N661" t="s" s="2">
         <v>2139</v>
-      </c>
-      <c r="N661" t="s" s="2">
-        <v>2140</v>
       </c>
       <c r="O661" s="2"/>
       <c r="P661" s="2"/>
@@ -77969,7 +77964,7 @@
         <v>73</v>
       </c>
       <c r="AG661" t="s" s="2">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="AH661" t="s" s="2">
         <v>74</v>
@@ -77986,13 +77981,13 @@
     </row>
     <row r="662">
       <c r="A662" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B662" t="s" s="2">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="C662" t="s" s="2">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="D662" s="2"/>
       <c r="E662" t="s" s="2">
@@ -78015,16 +78010,16 @@
         <v>73</v>
       </c>
       <c r="L662" t="s" s="2">
+        <v>2141</v>
+      </c>
+      <c r="M662" t="s" s="2">
         <v>2142</v>
       </c>
-      <c r="M662" t="s" s="2">
+      <c r="N662" t="s" s="2">
         <v>2143</v>
       </c>
-      <c r="N662" t="s" s="2">
+      <c r="O662" t="s" s="2">
         <v>2144</v>
-      </c>
-      <c r="O662" t="s" s="2">
-        <v>2145</v>
       </c>
       <c r="P662" s="2"/>
       <c r="Q662" t="s" s="2">
@@ -78074,7 +78069,7 @@
         <v>73</v>
       </c>
       <c r="AG662" t="s" s="2">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="AH662" t="s" s="2">
         <v>74</v>
@@ -78091,13 +78086,13 @@
     </row>
     <row r="663">
       <c r="A663" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B663" t="s" s="2">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="C663" t="s" s="2">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="D663" s="2"/>
       <c r="E663" t="s" s="2">
@@ -78123,13 +78118,13 @@
         <v>101</v>
       </c>
       <c r="M663" t="s" s="2">
+        <v>2146</v>
+      </c>
+      <c r="N663" t="s" s="2">
         <v>2147</v>
       </c>
-      <c r="N663" t="s" s="2">
+      <c r="O663" t="s" s="2">
         <v>2148</v>
-      </c>
-      <c r="O663" t="s" s="2">
-        <v>2149</v>
       </c>
       <c r="P663" s="2"/>
       <c r="Q663" t="s" s="2">
@@ -78158,11 +78153,11 @@
         <v>107</v>
       </c>
       <c r="Z663" t="s" s="2">
+        <v>2149</v>
+      </c>
+      <c r="AA663" t="s" s="2">
         <v>2150</v>
       </c>
-      <c r="AA663" t="s" s="2">
-        <v>2151</v>
-      </c>
       <c r="AB663" t="s" s="2">
         <v>73</v>
       </c>
@@ -78179,7 +78174,7 @@
         <v>73</v>
       </c>
       <c r="AG663" t="s" s="2">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="AH663" t="s" s="2">
         <v>82</v>
@@ -78196,13 +78191,13 @@
     </row>
     <row r="664">
       <c r="A664" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B664" t="s" s="2">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="C664" t="s" s="2">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="D664" s="2"/>
       <c r="E664" t="s" s="2">
@@ -78225,13 +78220,13 @@
         <v>73</v>
       </c>
       <c r="L664" t="s" s="2">
+        <v>2152</v>
+      </c>
+      <c r="M664" t="s" s="2">
         <v>2153</v>
       </c>
-      <c r="M664" t="s" s="2">
+      <c r="N664" t="s" s="2">
         <v>2154</v>
-      </c>
-      <c r="N664" t="s" s="2">
-        <v>2155</v>
       </c>
       <c r="O664" s="2"/>
       <c r="P664" s="2"/>
@@ -78262,7 +78257,7 @@
       </c>
       <c r="Z664" s="2"/>
       <c r="AA664" t="s" s="2">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="AB664" t="s" s="2">
         <v>73</v>
@@ -78280,7 +78275,7 @@
         <v>73</v>
       </c>
       <c r="AG664" t="s" s="2">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="AH664" t="s" s="2">
         <v>74</v>
@@ -78297,13 +78292,13 @@
     </row>
     <row r="665">
       <c r="A665" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B665" t="s" s="2">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="C665" t="s" s="2">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="D665" s="2"/>
       <c r="E665" t="s" s="2">
@@ -78329,10 +78324,10 @@
         <v>703</v>
       </c>
       <c r="M665" t="s" s="2">
+        <v>2157</v>
+      </c>
+      <c r="N665" t="s" s="2">
         <v>2158</v>
-      </c>
-      <c r="N665" t="s" s="2">
-        <v>2159</v>
       </c>
       <c r="O665" s="2"/>
       <c r="P665" s="2"/>
@@ -78383,7 +78378,7 @@
         <v>73</v>
       </c>
       <c r="AG665" t="s" s="2">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="AH665" t="s" s="2">
         <v>74</v>
@@ -78400,13 +78395,13 @@
     </row>
     <row r="666">
       <c r="A666" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B666" t="s" s="2">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="C666" t="s" s="2">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="D666" s="2"/>
       <c r="E666" t="s" s="2">
@@ -78432,13 +78427,13 @@
         <v>224</v>
       </c>
       <c r="M666" t="s" s="2">
+        <v>2160</v>
+      </c>
+      <c r="N666" t="s" s="2">
         <v>2161</v>
       </c>
-      <c r="N666" t="s" s="2">
+      <c r="O666" t="s" s="2">
         <v>2162</v>
-      </c>
-      <c r="O666" t="s" s="2">
-        <v>2163</v>
       </c>
       <c r="P666" s="2"/>
       <c r="Q666" t="s" s="2">
@@ -78467,11 +78462,11 @@
         <v>1026</v>
       </c>
       <c r="Z666" t="s" s="2">
+        <v>2163</v>
+      </c>
+      <c r="AA666" t="s" s="2">
         <v>2164</v>
       </c>
-      <c r="AA666" t="s" s="2">
-        <v>2165</v>
-      </c>
       <c r="AB666" t="s" s="2">
         <v>73</v>
       </c>
@@ -78488,7 +78483,7 @@
         <v>73</v>
       </c>
       <c r="AG666" t="s" s="2">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="AH666" t="s" s="2">
         <v>74</v>
@@ -78505,13 +78500,13 @@
     </row>
     <row r="667">
       <c r="A667" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B667" t="s" s="2">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="C667" t="s" s="2">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="D667" s="2"/>
       <c r="E667" t="s" s="2">
@@ -78540,10 +78535,10 @@
         <v>1671</v>
       </c>
       <c r="N667" t="s" s="2">
+        <v>2166</v>
+      </c>
+      <c r="O667" t="s" s="2">
         <v>2167</v>
-      </c>
-      <c r="O667" t="s" s="2">
-        <v>2168</v>
       </c>
       <c r="P667" s="2"/>
       <c r="Q667" t="s" s="2">
@@ -78591,7 +78586,7 @@
         <v>73</v>
       </c>
       <c r="AG667" t="s" s="2">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="AH667" t="s" s="2">
         <v>82</v>
@@ -78608,13 +78603,13 @@
     </row>
     <row r="668">
       <c r="A668" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B668" t="s" s="2">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="C668" t="s" s="2">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="D668" s="2"/>
       <c r="E668" t="s" s="2">
@@ -78711,13 +78706,13 @@
     </row>
     <row r="669">
       <c r="A669" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B669" t="s" s="2">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="C669" t="s" s="2">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="D669" s="2"/>
       <c r="E669" t="s" s="2">
@@ -78816,13 +78811,13 @@
     </row>
     <row r="670">
       <c r="A670" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B670" t="s" s="2">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="C670" t="s" s="2">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="D670" s="2"/>
       <c r="E670" t="s" s="2">
@@ -78919,13 +78914,13 @@
     </row>
     <row r="671">
       <c r="A671" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B671" t="s" s="2">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="C671" t="s" s="2">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="D671" s="2"/>
       <c r="E671" t="s" s="2">
@@ -79022,13 +79017,13 @@
     </row>
     <row r="672">
       <c r="A672" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B672" t="s" s="2">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="C672" t="s" s="2">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="D672" s="2"/>
       <c r="E672" t="s" s="2">
@@ -79054,13 +79049,13 @@
         <v>1372</v>
       </c>
       <c r="M672" t="s" s="2">
+        <v>2173</v>
+      </c>
+      <c r="N672" t="s" s="2">
         <v>2174</v>
       </c>
-      <c r="N672" t="s" s="2">
+      <c r="O672" t="s" s="2">
         <v>2175</v>
-      </c>
-      <c r="O672" t="s" s="2">
-        <v>2176</v>
       </c>
       <c r="P672" s="2"/>
       <c r="Q672" t="s" s="2">
@@ -79110,7 +79105,7 @@
         <v>73</v>
       </c>
       <c r="AG672" t="s" s="2">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="AH672" t="s" s="2">
         <v>82</v>
@@ -79127,13 +79122,13 @@
     </row>
     <row r="673">
       <c r="A673" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B673" t="s" s="2">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="C673" t="s" s="2">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="D673" s="2"/>
       <c r="E673" t="s" s="2">
@@ -79159,10 +79154,10 @@
         <v>1376</v>
       </c>
       <c r="M673" t="s" s="2">
+        <v>2177</v>
+      </c>
+      <c r="N673" t="s" s="2">
         <v>2178</v>
-      </c>
-      <c r="N673" t="s" s="2">
-        <v>2179</v>
       </c>
       <c r="O673" s="2"/>
       <c r="P673" s="2"/>
@@ -79213,7 +79208,7 @@
         <v>73</v>
       </c>
       <c r="AG673" t="s" s="2">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="AH673" t="s" s="2">
         <v>74</v>
@@ -79230,13 +79225,13 @@
     </row>
     <row r="674">
       <c r="A674" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B674" t="s" s="2">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="C674" t="s" s="2">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="D674" s="2"/>
       <c r="E674" t="s" s="2">
@@ -79262,10 +79257,10 @@
         <v>1330</v>
       </c>
       <c r="M674" t="s" s="2">
+        <v>2180</v>
+      </c>
+      <c r="N674" t="s" s="2">
         <v>2181</v>
-      </c>
-      <c r="N674" t="s" s="2">
-        <v>2182</v>
       </c>
       <c r="O674" s="2"/>
       <c r="P674" s="2"/>
@@ -79316,7 +79311,7 @@
         <v>73</v>
       </c>
       <c r="AG674" t="s" s="2">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="AH674" t="s" s="2">
         <v>74</v>
@@ -79333,13 +79328,13 @@
     </row>
     <row r="675">
       <c r="A675" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B675" t="s" s="2">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="C675" t="s" s="2">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="D675" s="2"/>
       <c r="E675" t="s" s="2">
@@ -79365,10 +79360,10 @@
         <v>762</v>
       </c>
       <c r="M675" t="s" s="2">
+        <v>2183</v>
+      </c>
+      <c r="N675" t="s" s="2">
         <v>2184</v>
-      </c>
-      <c r="N675" t="s" s="2">
-        <v>2185</v>
       </c>
       <c r="O675" s="2"/>
       <c r="P675" s="2"/>
@@ -79419,7 +79414,7 @@
         <v>73</v>
       </c>
       <c r="AG675" t="s" s="2">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="AH675" t="s" s="2">
         <v>74</v>
@@ -79436,13 +79431,13 @@
     </row>
     <row r="676">
       <c r="A676" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B676" t="s" s="2">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="C676" t="s" s="2">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="D676" s="2"/>
       <c r="E676" t="s" s="2">
@@ -79539,13 +79534,13 @@
     </row>
     <row r="677">
       <c r="A677" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B677" t="s" s="2">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="C677" t="s" s="2">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="D677" s="2"/>
       <c r="E677" t="s" s="2">
@@ -79644,13 +79639,13 @@
     </row>
     <row r="678">
       <c r="A678" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B678" t="s" s="2">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="C678" t="s" s="2">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="D678" s="2"/>
       <c r="E678" t="s" s="2">
@@ -79751,13 +79746,13 @@
     </row>
     <row r="679">
       <c r="A679" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B679" t="s" s="2">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="C679" t="s" s="2">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="D679" s="2"/>
       <c r="E679" t="s" s="2">
@@ -79783,14 +79778,14 @@
         <v>224</v>
       </c>
       <c r="M679" t="s" s="2">
+        <v>2189</v>
+      </c>
+      <c r="N679" t="s" s="2">
         <v>2190</v>
-      </c>
-      <c r="N679" t="s" s="2">
-        <v>2191</v>
       </c>
       <c r="O679" s="2"/>
       <c r="P679" t="s" s="2">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="Q679" t="s" s="2">
         <v>73</v>
@@ -79818,11 +79813,11 @@
         <v>1026</v>
       </c>
       <c r="Z679" t="s" s="2">
+        <v>2192</v>
+      </c>
+      <c r="AA679" t="s" s="2">
         <v>2193</v>
       </c>
-      <c r="AA679" t="s" s="2">
-        <v>2194</v>
-      </c>
       <c r="AB679" t="s" s="2">
         <v>73</v>
       </c>
@@ -79839,7 +79834,7 @@
         <v>73</v>
       </c>
       <c r="AG679" t="s" s="2">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="AH679" t="s" s="2">
         <v>74</v>
@@ -79856,13 +79851,13 @@
     </row>
     <row r="680">
       <c r="A680" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B680" t="s" s="2">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="C680" t="s" s="2">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="D680" s="2"/>
       <c r="E680" t="s" s="2">
@@ -79888,10 +79883,10 @@
         <v>455</v>
       </c>
       <c r="M680" t="s" s="2">
+        <v>2195</v>
+      </c>
+      <c r="N680" t="s" s="2">
         <v>2196</v>
-      </c>
-      <c r="N680" t="s" s="2">
-        <v>2197</v>
       </c>
       <c r="O680" s="2"/>
       <c r="P680" s="2"/>
@@ -79942,7 +79937,7 @@
         <v>73</v>
       </c>
       <c r="AG680" t="s" s="2">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="AH680" t="s" s="2">
         <v>82</v>
@@ -79959,13 +79954,13 @@
     </row>
     <row r="681">
       <c r="A681" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B681" t="s" s="2">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="C681" t="s" s="2">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="D681" s="2"/>
       <c r="E681" t="s" s="2">
@@ -79988,13 +79983,13 @@
         <v>73</v>
       </c>
       <c r="L681" t="s" s="2">
+        <v>2198</v>
+      </c>
+      <c r="M681" t="s" s="2">
         <v>2199</v>
       </c>
-      <c r="M681" t="s" s="2">
+      <c r="N681" t="s" s="2">
         <v>2200</v>
-      </c>
-      <c r="N681" t="s" s="2">
-        <v>2201</v>
       </c>
       <c r="O681" s="2"/>
       <c r="P681" s="2"/>
@@ -80045,7 +80040,7 @@
         <v>73</v>
       </c>
       <c r="AG681" t="s" s="2">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="AH681" t="s" s="2">
         <v>74</v>
@@ -80062,13 +80057,13 @@
     </row>
     <row r="682">
       <c r="A682" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B682" t="s" s="2">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="C682" t="s" s="2">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="D682" s="2"/>
       <c r="E682" t="s" s="2">
@@ -80091,16 +80086,16 @@
         <v>73</v>
       </c>
       <c r="L682" t="s" s="2">
+        <v>2202</v>
+      </c>
+      <c r="M682" t="s" s="2">
         <v>2203</v>
       </c>
-      <c r="M682" t="s" s="2">
+      <c r="N682" t="s" s="2">
         <v>2204</v>
       </c>
-      <c r="N682" t="s" s="2">
+      <c r="O682" t="s" s="2">
         <v>2205</v>
-      </c>
-      <c r="O682" t="s" s="2">
-        <v>2206</v>
       </c>
       <c r="P682" s="2"/>
       <c r="Q682" t="s" s="2">
@@ -80150,7 +80145,7 @@
         <v>73</v>
       </c>
       <c r="AG682" t="s" s="2">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="AH682" t="s" s="2">
         <v>74</v>
@@ -80167,13 +80162,13 @@
     </row>
     <row r="683">
       <c r="A683" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B683" t="s" s="2">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="C683" t="s" s="2">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="D683" s="2"/>
       <c r="E683" t="s" s="2">
@@ -80199,10 +80194,10 @@
         <v>224</v>
       </c>
       <c r="M683" t="s" s="2">
+        <v>2207</v>
+      </c>
+      <c r="N683" t="s" s="2">
         <v>2208</v>
-      </c>
-      <c r="N683" t="s" s="2">
-        <v>2209</v>
       </c>
       <c r="O683" s="2"/>
       <c r="P683" s="2"/>
@@ -80232,11 +80227,11 @@
         <v>1026</v>
       </c>
       <c r="Z683" t="s" s="2">
+        <v>2209</v>
+      </c>
+      <c r="AA683" t="s" s="2">
         <v>2210</v>
       </c>
-      <c r="AA683" t="s" s="2">
-        <v>2211</v>
-      </c>
       <c r="AB683" t="s" s="2">
         <v>73</v>
       </c>
@@ -80253,7 +80248,7 @@
         <v>73</v>
       </c>
       <c r="AG683" t="s" s="2">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="AH683" t="s" s="2">
         <v>74</v>
@@ -80270,13 +80265,13 @@
     </row>
     <row r="684">
       <c r="A684" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B684" t="s" s="2">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="C684" t="s" s="2">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="D684" s="2"/>
       <c r="E684" t="s" s="2">
@@ -80299,13 +80294,13 @@
         <v>73</v>
       </c>
       <c r="L684" t="s" s="2">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="M684" t="s" s="2">
+        <v>2212</v>
+      </c>
+      <c r="N684" t="s" s="2">
         <v>2213</v>
-      </c>
-      <c r="N684" t="s" s="2">
-        <v>2214</v>
       </c>
       <c r="O684" s="2"/>
       <c r="P684" s="2"/>
@@ -80356,7 +80351,7 @@
         <v>73</v>
       </c>
       <c r="AG684" t="s" s="2">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="AH684" t="s" s="2">
         <v>74</v>
@@ -80373,13 +80368,13 @@
     </row>
     <row r="685">
       <c r="A685" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B685" t="s" s="2">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="C685" t="s" s="2">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="D685" s="2"/>
       <c r="E685" t="s" s="2">
@@ -80402,13 +80397,13 @@
         <v>73</v>
       </c>
       <c r="L685" t="s" s="2">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="M685" t="s" s="2">
+        <v>2215</v>
+      </c>
+      <c r="N685" t="s" s="2">
         <v>2216</v>
-      </c>
-      <c r="N685" t="s" s="2">
-        <v>2217</v>
       </c>
       <c r="O685" s="2"/>
       <c r="P685" s="2"/>
@@ -80459,7 +80454,7 @@
         <v>73</v>
       </c>
       <c r="AG685" t="s" s="2">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="AH685" t="s" s="2">
         <v>74</v>
@@ -80476,13 +80471,13 @@
     </row>
     <row r="686">
       <c r="A686" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B686" t="s" s="2">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="C686" t="s" s="2">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="D686" s="2"/>
       <c r="E686" t="s" s="2">
@@ -80508,10 +80503,10 @@
         <v>703</v>
       </c>
       <c r="M686" t="s" s="2">
+        <v>2218</v>
+      </c>
+      <c r="N686" t="s" s="2">
         <v>2219</v>
-      </c>
-      <c r="N686" t="s" s="2">
-        <v>2220</v>
       </c>
       <c r="O686" s="2"/>
       <c r="P686" s="2"/>
@@ -80562,7 +80557,7 @@
         <v>73</v>
       </c>
       <c r="AG686" t="s" s="2">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="AH686" t="s" s="2">
         <v>74</v>
@@ -80579,13 +80574,13 @@
     </row>
     <row r="687">
       <c r="A687" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B687" t="s" s="2">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="C687" t="s" s="2">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="D687" s="2"/>
       <c r="E687" t="s" s="2">
@@ -80611,10 +80606,10 @@
         <v>703</v>
       </c>
       <c r="M687" t="s" s="2">
+        <v>2221</v>
+      </c>
+      <c r="N687" t="s" s="2">
         <v>2222</v>
-      </c>
-      <c r="N687" t="s" s="2">
-        <v>2223</v>
       </c>
       <c r="O687" s="2"/>
       <c r="P687" s="2"/>
@@ -80665,7 +80660,7 @@
         <v>73</v>
       </c>
       <c r="AG687" t="s" s="2">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="AH687" t="s" s="2">
         <v>74</v>
@@ -80674,7 +80669,7 @@
         <v>82</v>
       </c>
       <c r="AJ687" t="s" s="2">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="AK687" t="s" s="2">
         <v>110</v>
@@ -80682,13 +80677,13 @@
     </row>
     <row r="688">
       <c r="A688" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B688" t="s" s="2">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="C688" t="s" s="2">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="D688" s="2"/>
       <c r="E688" t="s" s="2">
@@ -80714,10 +80709,10 @@
         <v>703</v>
       </c>
       <c r="M688" t="s" s="2">
+        <v>2225</v>
+      </c>
+      <c r="N688" t="s" s="2">
         <v>2226</v>
-      </c>
-      <c r="N688" t="s" s="2">
-        <v>2227</v>
       </c>
       <c r="O688" s="2"/>
       <c r="P688" s="2"/>
@@ -80768,7 +80763,7 @@
         <v>73</v>
       </c>
       <c r="AG688" t="s" s="2">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="AH688" t="s" s="2">
         <v>74</v>
@@ -80777,7 +80772,7 @@
         <v>82</v>
       </c>
       <c r="AJ688" t="s" s="2">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="AK688" t="s" s="2">
         <v>110</v>
@@ -80785,13 +80780,13 @@
     </row>
     <row r="689">
       <c r="A689" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B689" t="s" s="2">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="C689" t="s" s="2">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="D689" s="2"/>
       <c r="E689" t="s" s="2">
@@ -80814,13 +80809,13 @@
         <v>73</v>
       </c>
       <c r="L689" t="s" s="2">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="M689" t="s" s="2">
+        <v>2228</v>
+      </c>
+      <c r="N689" t="s" s="2">
         <v>2229</v>
-      </c>
-      <c r="N689" t="s" s="2">
-        <v>2230</v>
       </c>
       <c r="O689" s="2"/>
       <c r="P689" s="2"/>
@@ -80871,7 +80866,7 @@
         <v>73</v>
       </c>
       <c r="AG689" t="s" s="2">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="AH689" t="s" s="2">
         <v>74</v>
@@ -80888,13 +80883,13 @@
     </row>
     <row r="690">
       <c r="A690" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B690" t="s" s="2">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="C690" t="s" s="2">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="D690" s="2"/>
       <c r="E690" t="s" s="2">
@@ -80917,13 +80912,13 @@
         <v>73</v>
       </c>
       <c r="L690" t="s" s="2">
+        <v>2231</v>
+      </c>
+      <c r="M690" t="s" s="2">
         <v>2232</v>
       </c>
-      <c r="M690" t="s" s="2">
+      <c r="N690" t="s" s="2">
         <v>2233</v>
-      </c>
-      <c r="N690" t="s" s="2">
-        <v>2234</v>
       </c>
       <c r="O690" s="2"/>
       <c r="P690" s="2"/>
@@ -80974,7 +80969,7 @@
         <v>73</v>
       </c>
       <c r="AG690" t="s" s="2">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="AH690" t="s" s="2">
         <v>74</v>
@@ -80991,13 +80986,13 @@
     </row>
     <row r="691">
       <c r="A691" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B691" t="s" s="2">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="C691" t="s" s="2">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="D691" s="2"/>
       <c r="E691" t="s" s="2">
@@ -81023,10 +81018,10 @@
         <v>1396</v>
       </c>
       <c r="M691" t="s" s="2">
+        <v>2235</v>
+      </c>
+      <c r="N691" t="s" s="2">
         <v>2236</v>
-      </c>
-      <c r="N691" t="s" s="2">
-        <v>2237</v>
       </c>
       <c r="O691" s="2"/>
       <c r="P691" s="2"/>
@@ -81077,7 +81072,7 @@
         <v>73</v>
       </c>
       <c r="AG691" t="s" s="2">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="AH691" t="s" s="2">
         <v>74</v>
@@ -81094,13 +81089,13 @@
     </row>
     <row r="692">
       <c r="A692" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B692" t="s" s="2">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="C692" t="s" s="2">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="D692" s="2"/>
       <c r="E692" t="s" s="2">
@@ -81182,7 +81177,7 @@
         <v>73</v>
       </c>
       <c r="AG692" t="s" s="2">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="AH692" t="s" s="2">
         <v>74</v>
@@ -81199,13 +81194,13 @@
     </row>
     <row r="693">
       <c r="A693" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B693" t="s" s="2">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="C693" t="s" s="2">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="D693" s="2"/>
       <c r="E693" t="s" s="2">
@@ -81231,13 +81226,13 @@
         <v>1758</v>
       </c>
       <c r="M693" t="s" s="2">
+        <v>2239</v>
+      </c>
+      <c r="N693" t="s" s="2">
         <v>2240</v>
       </c>
-      <c r="N693" t="s" s="2">
+      <c r="O693" t="s" s="2">
         <v>2241</v>
-      </c>
-      <c r="O693" t="s" s="2">
-        <v>2242</v>
       </c>
       <c r="P693" s="2"/>
       <c r="Q693" t="s" s="2">
@@ -81287,7 +81282,7 @@
         <v>73</v>
       </c>
       <c r="AG693" t="s" s="2">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="AH693" t="s" s="2">
         <v>74</v>
@@ -81304,13 +81299,13 @@
     </row>
     <row r="694">
       <c r="A694" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B694" t="s" s="2">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="C694" t="s" s="2">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="D694" s="2"/>
       <c r="E694" t="s" s="2">
@@ -81407,13 +81402,13 @@
     </row>
     <row r="695">
       <c r="A695" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B695" t="s" s="2">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="C695" t="s" s="2">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="D695" s="2"/>
       <c r="E695" t="s" s="2">
@@ -81512,13 +81507,13 @@
     </row>
     <row r="696">
       <c r="A696" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B696" t="s" s="2">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="C696" t="s" s="2">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="D696" s="2"/>
       <c r="E696" t="s" s="2">
@@ -81619,13 +81614,13 @@
     </row>
     <row r="697">
       <c r="A697" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B697" t="s" s="2">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="C697" t="s" s="2">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="D697" s="2"/>
       <c r="E697" t="s" s="2">
@@ -81724,13 +81719,13 @@
     </row>
     <row r="698">
       <c r="A698" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B698" t="s" s="2">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="C698" t="s" s="2">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="D698" s="2"/>
       <c r="E698" t="s" s="2">
@@ -81829,13 +81824,13 @@
     </row>
     <row r="699">
       <c r="A699" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B699" t="s" s="2">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="C699" t="s" s="2">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="D699" s="2"/>
       <c r="E699" t="s" s="2">
@@ -81936,13 +81931,13 @@
     </row>
     <row r="700">
       <c r="A700" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B700" t="s" s="2">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="C700" t="s" s="2">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="D700" s="2"/>
       <c r="E700" t="s" s="2">
@@ -81968,7 +81963,7 @@
         <v>119</v>
       </c>
       <c r="M700" t="s" s="2">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="N700" t="s" s="2">
         <v>1786</v>
@@ -82039,13 +82034,13 @@
     </row>
     <row r="701">
       <c r="A701" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B701" t="s" s="2">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="C701" t="s" s="2">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="D701" s="2"/>
       <c r="E701" t="s" s="2">
@@ -82146,13 +82141,13 @@
     </row>
     <row r="702">
       <c r="A702" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B702" t="s" s="2">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C702" t="s" s="2">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="D702" s="2"/>
       <c r="E702" t="s" s="2">
@@ -82178,13 +82173,13 @@
         <v>272</v>
       </c>
       <c r="M702" t="s" s="2">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="N702" t="s" s="2">
+        <v>1909</v>
+      </c>
+      <c r="O702" t="s" s="2">
         <v>1910</v>
-      </c>
-      <c r="O702" t="s" s="2">
-        <v>1911</v>
       </c>
       <c r="P702" s="2"/>
       <c r="Q702" t="s" s="2">
@@ -82234,16 +82229,16 @@
         <v>73</v>
       </c>
       <c r="AG702" t="s" s="2">
+        <v>1911</v>
+      </c>
+      <c r="AH702" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI702" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ702" t="s" s="2">
         <v>1912</v>
-      </c>
-      <c r="AH702" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI702" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ702" t="s" s="2">
-        <v>1913</v>
       </c>
       <c r="AK702" t="s" s="2">
         <v>110</v>
@@ -82251,13 +82246,13 @@
     </row>
     <row r="703">
       <c r="A703" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B703" t="s" s="2">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="C703" t="s" s="2">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="D703" s="2"/>
       <c r="E703" t="s" s="2">
@@ -82283,13 +82278,13 @@
         <v>224</v>
       </c>
       <c r="M703" t="s" s="2">
+        <v>1914</v>
+      </c>
+      <c r="N703" t="s" s="2">
         <v>1915</v>
       </c>
-      <c r="N703" t="s" s="2">
+      <c r="O703" t="s" s="2">
         <v>1916</v>
-      </c>
-      <c r="O703" t="s" s="2">
-        <v>1917</v>
       </c>
       <c r="P703" s="2"/>
       <c r="Q703" t="s" s="2">
@@ -82318,28 +82313,28 @@
         <v>1026</v>
       </c>
       <c r="Z703" t="s" s="2">
+        <v>1917</v>
+      </c>
+      <c r="AA703" t="s" s="2">
         <v>1918</v>
       </c>
-      <c r="AA703" t="s" s="2">
+      <c r="AB703" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC703" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD703" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE703" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF703" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG703" t="s" s="2">
         <v>1919</v>
-      </c>
-      <c r="AB703" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC703" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD703" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE703" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF703" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG703" t="s" s="2">
-        <v>1920</v>
       </c>
       <c r="AH703" t="s" s="2">
         <v>74</v>
@@ -82348,7 +82343,7 @@
         <v>75</v>
       </c>
       <c r="AJ703" t="s" s="2">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="AK703" t="s" s="2">
         <v>110</v>
@@ -82356,13 +82351,13 @@
     </row>
     <row r="704">
       <c r="A704" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B704" t="s" s="2">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="C704" t="s" s="2">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="D704" s="2"/>
       <c r="E704" t="s" s="2">
@@ -82388,16 +82383,16 @@
         <v>224</v>
       </c>
       <c r="M704" t="s" s="2">
+        <v>1921</v>
+      </c>
+      <c r="N704" t="s" s="2">
         <v>1922</v>
       </c>
-      <c r="N704" t="s" s="2">
+      <c r="O704" t="s" s="2">
         <v>1923</v>
       </c>
-      <c r="O704" t="s" s="2">
+      <c r="P704" t="s" s="2">
         <v>1924</v>
-      </c>
-      <c r="P704" t="s" s="2">
-        <v>1925</v>
       </c>
       <c r="Q704" t="s" s="2">
         <v>73</v>
@@ -82425,28 +82420,28 @@
         <v>1026</v>
       </c>
       <c r="Z704" t="s" s="2">
+        <v>1925</v>
+      </c>
+      <c r="AA704" t="s" s="2">
         <v>1926</v>
       </c>
-      <c r="AA704" t="s" s="2">
+      <c r="AB704" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC704" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD704" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE704" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF704" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG704" t="s" s="2">
         <v>1927</v>
-      </c>
-      <c r="AB704" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC704" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD704" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE704" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF704" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG704" t="s" s="2">
-        <v>1928</v>
       </c>
       <c r="AH704" t="s" s="2">
         <v>74</v>
@@ -82463,13 +82458,13 @@
     </row>
     <row r="705">
       <c r="A705" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B705" t="s" s="2">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="C705" t="s" s="2">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="D705" s="2"/>
       <c r="E705" t="s" s="2">
@@ -82495,14 +82490,14 @@
         <v>224</v>
       </c>
       <c r="M705" t="s" s="2">
+        <v>1929</v>
+      </c>
+      <c r="N705" t="s" s="2">
         <v>1930</v>
-      </c>
-      <c r="N705" t="s" s="2">
-        <v>1931</v>
       </c>
       <c r="O705" s="2"/>
       <c r="P705" t="s" s="2">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="Q705" t="s" s="2">
         <v>73</v>
@@ -82530,28 +82525,28 @@
         <v>1026</v>
       </c>
       <c r="Z705" t="s" s="2">
+        <v>1932</v>
+      </c>
+      <c r="AA705" t="s" s="2">
         <v>1933</v>
       </c>
-      <c r="AA705" t="s" s="2">
+      <c r="AB705" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC705" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD705" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE705" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF705" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG705" t="s" s="2">
         <v>1934</v>
-      </c>
-      <c r="AB705" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC705" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD705" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE705" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF705" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG705" t="s" s="2">
-        <v>1935</v>
       </c>
       <c r="AH705" t="s" s="2">
         <v>74</v>
@@ -82568,13 +82563,13 @@
     </row>
     <row r="706">
       <c r="A706" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B706" t="s" s="2">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="C706" t="s" s="2">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="D706" s="2"/>
       <c r="E706" t="s" s="2">
@@ -82600,16 +82595,16 @@
         <v>224</v>
       </c>
       <c r="M706" t="s" s="2">
+        <v>1936</v>
+      </c>
+      <c r="N706" t="s" s="2">
         <v>1937</v>
       </c>
-      <c r="N706" t="s" s="2">
+      <c r="O706" t="s" s="2">
         <v>1938</v>
       </c>
-      <c r="O706" t="s" s="2">
+      <c r="P706" t="s" s="2">
         <v>1939</v>
-      </c>
-      <c r="P706" t="s" s="2">
-        <v>1940</v>
       </c>
       <c r="Q706" t="s" s="2">
         <v>73</v>
@@ -82637,28 +82632,28 @@
         <v>1026</v>
       </c>
       <c r="Z706" t="s" s="2">
+        <v>1940</v>
+      </c>
+      <c r="AA706" t="s" s="2">
         <v>1941</v>
       </c>
-      <c r="AA706" t="s" s="2">
+      <c r="AB706" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC706" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD706" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE706" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF706" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG706" t="s" s="2">
         <v>1942</v>
-      </c>
-      <c r="AB706" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC706" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD706" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE706" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF706" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG706" t="s" s="2">
-        <v>1943</v>
       </c>
       <c r="AH706" t="s" s="2">
         <v>74</v>
@@ -82675,13 +82670,13 @@
     </row>
     <row r="707">
       <c r="A707" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B707" t="s" s="2">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="C707" t="s" s="2">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="D707" s="2"/>
       <c r="E707" t="s" s="2">
@@ -82707,10 +82702,10 @@
         <v>1804</v>
       </c>
       <c r="M707" t="s" s="2">
+        <v>1944</v>
+      </c>
+      <c r="N707" t="s" s="2">
         <v>1945</v>
-      </c>
-      <c r="N707" t="s" s="2">
-        <v>1946</v>
       </c>
       <c r="O707" s="2"/>
       <c r="P707" s="2"/>
@@ -82761,7 +82756,7 @@
         <v>73</v>
       </c>
       <c r="AG707" t="s" s="2">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="AH707" t="s" s="2">
         <v>74</v>
@@ -82778,13 +82773,13 @@
     </row>
     <row r="708">
       <c r="A708" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B708" t="s" s="2">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="C708" t="s" s="2">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="D708" s="2"/>
       <c r="E708" t="s" s="2">
@@ -82881,13 +82876,13 @@
     </row>
     <row r="709">
       <c r="A709" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B709" t="s" s="2">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="C709" t="s" s="2">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="D709" s="2"/>
       <c r="E709" t="s" s="2">
@@ -82986,13 +82981,13 @@
     </row>
     <row r="710">
       <c r="A710" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B710" t="s" s="2">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="C710" t="s" s="2">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="D710" s="2"/>
       <c r="E710" t="s" s="2">
@@ -83018,14 +83013,14 @@
         <v>224</v>
       </c>
       <c r="M710" t="s" s="2">
+        <v>1950</v>
+      </c>
+      <c r="N710" t="s" s="2">
         <v>1951</v>
-      </c>
-      <c r="N710" t="s" s="2">
-        <v>1952</v>
       </c>
       <c r="O710" s="2"/>
       <c r="P710" t="s" s="2">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="Q710" t="s" s="2">
         <v>73</v>
@@ -83053,28 +83048,28 @@
         <v>1026</v>
       </c>
       <c r="Z710" t="s" s="2">
+        <v>1953</v>
+      </c>
+      <c r="AA710" t="s" s="2">
         <v>1954</v>
       </c>
-      <c r="AA710" t="s" s="2">
+      <c r="AB710" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC710" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD710" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE710" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF710" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG710" t="s" s="2">
         <v>1955</v>
-      </c>
-      <c r="AB710" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC710" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD710" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE710" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF710" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG710" t="s" s="2">
-        <v>1956</v>
       </c>
       <c r="AH710" t="s" s="2">
         <v>74</v>
@@ -83091,13 +83086,13 @@
     </row>
     <row r="711">
       <c r="A711" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B711" t="s" s="2">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="C711" t="s" s="2">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="D711" s="2"/>
       <c r="E711" t="s" s="2">
@@ -83120,19 +83115,19 @@
         <v>100</v>
       </c>
       <c r="L711" t="s" s="2">
+        <v>1957</v>
+      </c>
+      <c r="M711" t="s" s="2">
         <v>1958</v>
       </c>
-      <c r="M711" t="s" s="2">
+      <c r="N711" t="s" s="2">
         <v>1959</v>
       </c>
-      <c r="N711" t="s" s="2">
+      <c r="O711" t="s" s="2">
         <v>1960</v>
       </c>
-      <c r="O711" t="s" s="2">
+      <c r="P711" t="s" s="2">
         <v>1961</v>
-      </c>
-      <c r="P711" t="s" s="2">
-        <v>1962</v>
       </c>
       <c r="Q711" t="s" s="2">
         <v>73</v>
@@ -83179,7 +83174,7 @@
         <v>96</v>
       </c>
       <c r="AG711" t="s" s="2">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="AH711" t="s" s="2">
         <v>74</v>
@@ -83196,16 +83191,16 @@
     </row>
     <row r="712">
       <c r="A712" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B712" t="s" s="2">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="C712" t="s" s="2">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="D712" t="s" s="2">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="E712" t="s" s="2">
         <v>73</v>
@@ -83227,19 +83222,19 @@
         <v>73</v>
       </c>
       <c r="L712" t="s" s="2">
+        <v>1965</v>
+      </c>
+      <c r="M712" t="s" s="2">
         <v>1966</v>
       </c>
-      <c r="M712" t="s" s="2">
+      <c r="N712" t="s" s="2">
         <v>1967</v>
       </c>
-      <c r="N712" t="s" s="2">
+      <c r="O712" t="s" s="2">
         <v>1968</v>
       </c>
-      <c r="O712" t="s" s="2">
-        <v>1969</v>
-      </c>
       <c r="P712" t="s" s="2">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="Q712" t="s" s="2">
         <v>73</v>
@@ -83288,7 +83283,7 @@
         <v>73</v>
       </c>
       <c r="AG712" t="s" s="2">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="AH712" t="s" s="2">
         <v>74</v>
@@ -83300,18 +83295,18 @@
         <v>73</v>
       </c>
       <c r="AK712" t="s" s="2">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B713" t="s" s="2">
+        <v>2263</v>
+      </c>
+      <c r="C713" t="s" s="2">
         <v>2264</v>
-      </c>
-      <c r="C713" t="s" s="2">
-        <v>2265</v>
       </c>
       <c r="D713" s="2"/>
       <c r="E713" t="s" s="2">
@@ -83408,13 +83403,13 @@
     </row>
     <row r="714">
       <c r="A714" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B714" t="s" s="2">
+        <v>2265</v>
+      </c>
+      <c r="C714" t="s" s="2">
         <v>2266</v>
-      </c>
-      <c r="C714" t="s" s="2">
-        <v>2267</v>
       </c>
       <c r="D714" s="2"/>
       <c r="E714" t="s" s="2">
@@ -83513,13 +83508,13 @@
     </row>
     <row r="715">
       <c r="A715" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B715" t="s" s="2">
+        <v>2267</v>
+      </c>
+      <c r="C715" t="s" s="2">
         <v>2268</v>
-      </c>
-      <c r="C715" t="s" s="2">
-        <v>2269</v>
       </c>
       <c r="D715" s="2"/>
       <c r="E715" t="s" s="2">
@@ -83545,16 +83540,16 @@
         <v>1829</v>
       </c>
       <c r="M715" t="s" s="2">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="N715" t="s" s="2">
+        <v>1977</v>
+      </c>
+      <c r="O715" t="s" s="2">
         <v>1978</v>
       </c>
-      <c r="O715" t="s" s="2">
+      <c r="P715" t="s" s="2">
         <v>1979</v>
-      </c>
-      <c r="P715" t="s" s="2">
-        <v>1980</v>
       </c>
       <c r="Q715" t="s" s="2">
         <v>73</v>
@@ -83603,7 +83598,7 @@
         <v>73</v>
       </c>
       <c r="AG715" t="s" s="2">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="AH715" t="s" s="2">
         <v>74</v>
@@ -83620,13 +83615,13 @@
     </row>
     <row r="716">
       <c r="A716" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B716" t="s" s="2">
+        <v>2270</v>
+      </c>
+      <c r="C716" t="s" s="2">
         <v>2271</v>
-      </c>
-      <c r="C716" t="s" s="2">
-        <v>2272</v>
       </c>
       <c r="D716" s="2"/>
       <c r="E716" t="s" s="2">
@@ -83652,20 +83647,20 @@
         <v>101</v>
       </c>
       <c r="M716" t="s" s="2">
+        <v>1983</v>
+      </c>
+      <c r="N716" t="s" s="2">
         <v>1984</v>
-      </c>
-      <c r="N716" t="s" s="2">
-        <v>1985</v>
       </c>
       <c r="O716" s="2"/>
       <c r="P716" t="s" s="2">
+        <v>1985</v>
+      </c>
+      <c r="Q716" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="R716" t="s" s="2">
         <v>1986</v>
-      </c>
-      <c r="Q716" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R716" t="s" s="2">
-        <v>1987</v>
       </c>
       <c r="S716" t="s" s="2">
         <v>73</v>
@@ -83689,28 +83684,28 @@
         <v>107</v>
       </c>
       <c r="Z716" t="s" s="2">
+        <v>1987</v>
+      </c>
+      <c r="AA716" t="s" s="2">
         <v>1988</v>
       </c>
-      <c r="AA716" t="s" s="2">
+      <c r="AB716" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC716" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD716" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE716" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF716" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG716" t="s" s="2">
         <v>1989</v>
-      </c>
-      <c r="AB716" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC716" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD716" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE716" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF716" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG716" t="s" s="2">
-        <v>1990</v>
       </c>
       <c r="AH716" t="s" s="2">
         <v>74</v>
@@ -83727,13 +83722,13 @@
     </row>
     <row r="717">
       <c r="A717" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B717" t="s" s="2">
+        <v>2272</v>
+      </c>
+      <c r="C717" t="s" s="2">
         <v>2273</v>
-      </c>
-      <c r="C717" t="s" s="2">
-        <v>2274</v>
       </c>
       <c r="D717" s="2"/>
       <c r="E717" t="s" s="2">
@@ -83759,14 +83754,14 @@
         <v>119</v>
       </c>
       <c r="M717" t="s" s="2">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="N717" t="s" s="2">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="O717" s="2"/>
       <c r="P717" t="s" s="2">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="Q717" t="s" s="2">
         <v>73</v>
@@ -83815,7 +83810,7 @@
         <v>73</v>
       </c>
       <c r="AG717" t="s" s="2">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="AH717" t="s" s="2">
         <v>74</v>
@@ -83832,13 +83827,13 @@
     </row>
     <row r="718">
       <c r="A718" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B718" t="s" s="2">
+        <v>2275</v>
+      </c>
+      <c r="C718" t="s" s="2">
         <v>2276</v>
-      </c>
-      <c r="C718" t="s" s="2">
-        <v>2277</v>
       </c>
       <c r="D718" s="2"/>
       <c r="E718" t="s" s="2">
@@ -83864,14 +83859,14 @@
         <v>200</v>
       </c>
       <c r="M718" t="s" s="2">
+        <v>1998</v>
+      </c>
+      <c r="N718" t="s" s="2">
         <v>1999</v>
-      </c>
-      <c r="N718" t="s" s="2">
-        <v>2000</v>
       </c>
       <c r="O718" s="2"/>
       <c r="P718" t="s" s="2">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="Q718" t="s" s="2">
         <v>73</v>
@@ -83920,16 +83915,16 @@
         <v>73</v>
       </c>
       <c r="AG718" t="s" s="2">
+        <v>2001</v>
+      </c>
+      <c r="AH718" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI718" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ718" t="s" s="2">
         <v>2002</v>
-      </c>
-      <c r="AH718" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI718" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ718" t="s" s="2">
-        <v>2003</v>
       </c>
       <c r="AK718" t="s" s="2">
         <v>110</v>
@@ -83937,13 +83932,13 @@
     </row>
     <row r="719">
       <c r="A719" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B719" t="s" s="2">
+        <v>2277</v>
+      </c>
+      <c r="C719" t="s" s="2">
         <v>2278</v>
-      </c>
-      <c r="C719" t="s" s="2">
-        <v>2279</v>
       </c>
       <c r="D719" s="2"/>
       <c r="E719" t="s" s="2">
@@ -83969,16 +83964,16 @@
         <v>101</v>
       </c>
       <c r="M719" t="s" s="2">
+        <v>2005</v>
+      </c>
+      <c r="N719" t="s" s="2">
         <v>2006</v>
       </c>
-      <c r="N719" t="s" s="2">
+      <c r="O719" t="s" s="2">
         <v>2007</v>
       </c>
-      <c r="O719" t="s" s="2">
+      <c r="P719" t="s" s="2">
         <v>2008</v>
-      </c>
-      <c r="P719" t="s" s="2">
-        <v>2009</v>
       </c>
       <c r="Q719" t="s" s="2">
         <v>73</v>
@@ -84007,7 +84002,7 @@
       </c>
       <c r="Z719" s="2"/>
       <c r="AA719" t="s" s="2">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="AB719" t="s" s="2">
         <v>73</v>
@@ -84025,7 +84020,7 @@
         <v>73</v>
       </c>
       <c r="AG719" t="s" s="2">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="AH719" t="s" s="2">
         <v>74</v>
@@ -84034,7 +84029,7 @@
         <v>82</v>
       </c>
       <c r="AJ719" t="s" s="2">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="AK719" t="s" s="2">
         <v>110</v>
@@ -84042,13 +84037,13 @@
     </row>
     <row r="720">
       <c r="A720" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B720" t="s" s="2">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="C720" t="s" s="2">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="D720" s="2"/>
       <c r="E720" t="s" s="2">
@@ -84071,19 +84066,19 @@
         <v>100</v>
       </c>
       <c r="L720" t="s" s="2">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="M720" t="s" s="2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="N720" t="s" s="2">
+        <v>2013</v>
+      </c>
+      <c r="O720" t="s" s="2">
         <v>2014</v>
       </c>
-      <c r="O720" t="s" s="2">
+      <c r="P720" t="s" s="2">
         <v>2015</v>
-      </c>
-      <c r="P720" t="s" s="2">
-        <v>2016</v>
       </c>
       <c r="Q720" t="s" s="2">
         <v>73</v>
@@ -84132,7 +84127,7 @@
         <v>73</v>
       </c>
       <c r="AG720" t="s" s="2">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="AH720" t="s" s="2">
         <v>74</v>
@@ -84149,13 +84144,13 @@
     </row>
     <row r="721">
       <c r="A721" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B721" t="s" s="2">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="C721" t="s" s="2">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="D721" s="2"/>
       <c r="E721" t="s" s="2">
@@ -84178,19 +84173,19 @@
         <v>100</v>
       </c>
       <c r="L721" t="s" s="2">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M721" t="s" s="2">
+        <v>2027</v>
+      </c>
+      <c r="N721" t="s" s="2">
         <v>2028</v>
       </c>
-      <c r="N721" t="s" s="2">
+      <c r="O721" t="s" s="2">
         <v>2029</v>
       </c>
-      <c r="O721" t="s" s="2">
+      <c r="P721" t="s" s="2">
         <v>2030</v>
-      </c>
-      <c r="P721" t="s" s="2">
-        <v>2031</v>
       </c>
       <c r="Q721" t="s" s="2">
         <v>73</v>
@@ -84239,7 +84234,7 @@
         <v>73</v>
       </c>
       <c r="AG721" t="s" s="2">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="AH721" t="s" s="2">
         <v>74</v>
@@ -84256,13 +84251,13 @@
     </row>
     <row r="722">
       <c r="A722" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B722" t="s" s="2">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="C722" t="s" s="2">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="D722" s="2"/>
       <c r="E722" t="s" s="2">
@@ -84285,19 +84280,19 @@
         <v>100</v>
       </c>
       <c r="L722" t="s" s="2">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="M722" t="s" s="2">
+        <v>2033</v>
+      </c>
+      <c r="N722" t="s" s="2">
         <v>2034</v>
       </c>
-      <c r="N722" t="s" s="2">
+      <c r="O722" t="s" s="2">
         <v>2035</v>
       </c>
-      <c r="O722" t="s" s="2">
+      <c r="P722" t="s" s="2">
         <v>2036</v>
-      </c>
-      <c r="P722" t="s" s="2">
-        <v>2037</v>
       </c>
       <c r="Q722" t="s" s="2">
         <v>73</v>
@@ -84346,7 +84341,7 @@
         <v>73</v>
       </c>
       <c r="AG722" t="s" s="2">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="AH722" t="s" s="2">
         <v>74</v>
@@ -84363,13 +84358,13 @@
     </row>
     <row r="723">
       <c r="A723" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B723" t="s" s="2">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="C723" t="s" s="2">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="D723" s="2"/>
       <c r="E723" t="s" s="2">
@@ -84392,17 +84387,17 @@
         <v>100</v>
       </c>
       <c r="L723" t="s" s="2">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="M723" t="s" s="2">
+        <v>2039</v>
+      </c>
+      <c r="N723" t="s" s="2">
         <v>2040</v>
-      </c>
-      <c r="N723" t="s" s="2">
-        <v>2041</v>
       </c>
       <c r="O723" s="2"/>
       <c r="P723" t="s" s="2">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="Q723" t="s" s="2">
         <v>73</v>
@@ -84451,7 +84446,7 @@
         <v>73</v>
       </c>
       <c r="AG723" t="s" s="2">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="AH723" t="s" s="2">
         <v>74</v>
@@ -84468,13 +84463,13 @@
     </row>
     <row r="724">
       <c r="A724" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B724" t="s" s="2">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="C724" t="s" s="2">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="D724" s="2"/>
       <c r="E724" t="s" s="2">
@@ -84500,10 +84495,10 @@
         <v>762</v>
       </c>
       <c r="M724" t="s" s="2">
+        <v>2285</v>
+      </c>
+      <c r="N724" t="s" s="2">
         <v>2286</v>
-      </c>
-      <c r="N724" t="s" s="2">
-        <v>2287</v>
       </c>
       <c r="O724" s="2"/>
       <c r="P724" s="2"/>
@@ -84554,7 +84549,7 @@
         <v>73</v>
       </c>
       <c r="AG724" t="s" s="2">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="AH724" t="s" s="2">
         <v>74</v>
@@ -84571,13 +84566,13 @@
     </row>
     <row r="725">
       <c r="A725" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B725" t="s" s="2">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="C725" t="s" s="2">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="D725" s="2"/>
       <c r="E725" t="s" s="2">
@@ -84674,13 +84669,13 @@
     </row>
     <row r="726">
       <c r="A726" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B726" t="s" s="2">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="C726" t="s" s="2">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="D726" s="2"/>
       <c r="E726" t="s" s="2">
@@ -84779,13 +84774,13 @@
     </row>
     <row r="727">
       <c r="A727" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B727" t="s" s="2">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="C727" t="s" s="2">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="D727" s="2"/>
       <c r="E727" t="s" s="2">
@@ -84886,13 +84881,13 @@
     </row>
     <row r="728">
       <c r="A728" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B728" t="s" s="2">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="C728" t="s" s="2">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="D728" s="2"/>
       <c r="E728" t="s" s="2">
@@ -84918,10 +84913,10 @@
         <v>272</v>
       </c>
       <c r="M728" t="s" s="2">
+        <v>2291</v>
+      </c>
+      <c r="N728" t="s" s="2">
         <v>2292</v>
-      </c>
-      <c r="N728" t="s" s="2">
-        <v>2293</v>
       </c>
       <c r="O728" s="2"/>
       <c r="P728" s="2"/>
@@ -84972,7 +84967,7 @@
         <v>73</v>
       </c>
       <c r="AG728" t="s" s="2">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="AH728" t="s" s="2">
         <v>82</v>
@@ -84989,13 +84984,13 @@
     </row>
     <row r="729">
       <c r="A729" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B729" t="s" s="2">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="C729" t="s" s="2">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="D729" s="2"/>
       <c r="E729" t="s" s="2">
@@ -85021,10 +85016,10 @@
         <v>224</v>
       </c>
       <c r="M729" t="s" s="2">
+        <v>2294</v>
+      </c>
+      <c r="N729" t="s" s="2">
         <v>2295</v>
-      </c>
-      <c r="N729" t="s" s="2">
-        <v>2296</v>
       </c>
       <c r="O729" s="2"/>
       <c r="P729" s="2"/>
@@ -85054,10 +85049,10 @@
         <v>1026</v>
       </c>
       <c r="Z729" t="s" s="2">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="AA729" t="s" s="2">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="AB729" t="s" s="2">
         <v>73</v>
@@ -85075,7 +85070,7 @@
         <v>73</v>
       </c>
       <c r="AG729" t="s" s="2">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="AH729" t="s" s="2">
         <v>74</v>
@@ -85092,13 +85087,13 @@
     </row>
     <row r="730">
       <c r="A730" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B730" t="s" s="2">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="C730" t="s" s="2">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="D730" s="2"/>
       <c r="E730" t="s" s="2">
@@ -85124,10 +85119,10 @@
         <v>224</v>
       </c>
       <c r="M730" t="s" s="2">
+        <v>2298</v>
+      </c>
+      <c r="N730" t="s" s="2">
         <v>2299</v>
-      </c>
-      <c r="N730" t="s" s="2">
-        <v>2300</v>
       </c>
       <c r="O730" s="2"/>
       <c r="P730" s="2"/>
@@ -85157,11 +85152,11 @@
         <v>1026</v>
       </c>
       <c r="Z730" t="s" s="2">
+        <v>2108</v>
+      </c>
+      <c r="AA730" t="s" s="2">
         <v>2109</v>
       </c>
-      <c r="AA730" t="s" s="2">
-        <v>2110</v>
-      </c>
       <c r="AB730" t="s" s="2">
         <v>73</v>
       </c>
@@ -85178,7 +85173,7 @@
         <v>73</v>
       </c>
       <c r="AG730" t="s" s="2">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="AH730" t="s" s="2">
         <v>74</v>
@@ -85195,13 +85190,13 @@
     </row>
     <row r="731">
       <c r="A731" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B731" t="s" s="2">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="C731" t="s" s="2">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="D731" s="2"/>
       <c r="E731" t="s" s="2">
@@ -85224,13 +85219,13 @@
         <v>73</v>
       </c>
       <c r="L731" t="s" s="2">
+        <v>2301</v>
+      </c>
+      <c r="M731" t="s" s="2">
         <v>2302</v>
       </c>
-      <c r="M731" t="s" s="2">
+      <c r="N731" t="s" s="2">
         <v>2303</v>
-      </c>
-      <c r="N731" t="s" s="2">
-        <v>2304</v>
       </c>
       <c r="O731" s="2"/>
       <c r="P731" s="2"/>
@@ -85281,7 +85276,7 @@
         <v>73</v>
       </c>
       <c r="AG731" t="s" s="2">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="AH731" t="s" s="2">
         <v>74</v>
@@ -85298,13 +85293,13 @@
     </row>
     <row r="732">
       <c r="A732" t="s" s="2">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B732" t="s" s="2">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="C732" t="s" s="2">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="D732" s="2"/>
       <c r="E732" t="s" s="2">
@@ -85327,16 +85322,16 @@
         <v>73</v>
       </c>
       <c r="L732" t="s" s="2">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="M732" t="s" s="2">
+        <v>2305</v>
+      </c>
+      <c r="N732" t="s" s="2">
         <v>2306</v>
       </c>
-      <c r="N732" t="s" s="2">
+      <c r="O732" t="s" s="2">
         <v>2307</v>
-      </c>
-      <c r="O732" t="s" s="2">
-        <v>2308</v>
       </c>
       <c r="P732" s="2"/>
       <c r="Q732" t="s" s="2">
@@ -85386,7 +85381,7 @@
         <v>73</v>
       </c>
       <c r="AG732" t="s" s="2">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="AH732" t="s" s="2">
         <v>74</v>

--- a/r5-ELGA-e-medikation-main/all-profiles.xlsx
+++ b/r5-ELGA-e-medikation-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T07:04:06+00:00</t>
+    <t>2024-05-06T08:04:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/all-profiles.xlsx
+++ b/r5-ELGA-e-medikation-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-13T06:24:50+00:00</t>
+    <t>2024-06-05T08:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/all-profiles.xlsx
+++ b/r5-ELGA-e-medikation-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T08:21:33+00:00</t>
+    <t>2024-06-06T13:51:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-e-medikation-main/all-profiles.xlsx
+++ b/r5-ELGA-e-medikation-main/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T13:51:15+00:00</t>
+    <t>2024-06-26T06:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
